--- a/effort_committment.xlsx
+++ b/effort_committment.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ybandar\Documents\Computer Science Year 2\Professional Development\Air92\Project-CAD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView minimized="1" xWindow="390" yWindow="560" windowWidth="19820" windowHeight="9410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -163,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -690,6 +695,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -737,7 +745,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,9 +778,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,6 +830,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -980,23 +1022,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="20" width="10.75" customWidth="1"/>
-    <col min="21" max="21" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="11.58203125" customWidth="1"/>
     <col min="22" max="33" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1033,7 +1075,7 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1074,7 +1116,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1115,7 +1157,7 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1156,7 +1198,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1197,7 +1239,7 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1238,7 +1280,7 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
@@ -1275,7 +1317,7 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -1320,7 +1362,7 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -1368,7 +1410,7 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -1420,7 +1462,7 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -1470,7 +1512,7 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1507,7 +1549,7 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1542,7 +1584,7 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1583,7 +1625,7 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -1629,7 +1671,7 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1664,7 +1706,7 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1704,7 +1746,7 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1759,7 +1801,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -1798,7 +1840,7 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1879,7 +1921,7 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
@@ -1962,7 +2004,7 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="17"/>
@@ -2032,7 +2074,7 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2146,7 +2188,7 @@
       </c>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="18" t="s">
@@ -2239,7 +2281,7 @@
       </c>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
       <c r="C25" s="18" t="s">
@@ -2332,7 +2374,7 @@
       </c>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
       <c r="C26" s="18" t="s">
@@ -2425,7 +2467,7 @@
       </c>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="18" t="s">
@@ -2518,7 +2560,7 @@
       </c>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
@@ -2613,7 +2655,7 @@
       </c>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="1"/>
       <c r="C29" s="18" t="s">
@@ -2706,7 +2748,7 @@
       </c>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -2741,7 +2783,7 @@
       <c r="AF30" s="3"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="17" t="s">
@@ -2847,7 +2889,7 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
     </row>
-    <row r="32" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="17"/>
@@ -2967,7 +3009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="17"/>
@@ -3071,7 +3113,7 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
     </row>
-    <row r="34" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="17"/>
@@ -3106,7 +3148,7 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
     </row>
-    <row r="35" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="17"/>
@@ -3141,7 +3183,7 @@
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
     </row>
-    <row r="36" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="17"/>
@@ -3176,7 +3218,7 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
     </row>
-    <row r="37" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="17"/>
@@ -3211,7 +3253,7 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
     </row>
-    <row r="38" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="17" t="s">
@@ -3323,7 +3365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="17" t="s">
@@ -3402,7 +3444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3437,7 +3479,7 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3472,7 +3514,7 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3507,7 +3549,7 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="1">
       <c r="A43" s="3"/>
       <c r="B43" s="22" t="s">
         <v>46</v>
@@ -3549,7 +3591,7 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3584,7 +3626,7 @@
       <c r="AF44" s="3"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3619,7 +3661,7 @@
       <c r="AF45" s="3"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3654,7 +3696,7 @@
       <c r="AF46" s="3"/>
       <c r="AG46" s="1"/>
     </row>
-    <row r="47" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3689,7 +3731,7 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="1"/>
     </row>
-    <row r="48" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3724,7 +3766,7 @@
       <c r="AF48" s="3"/>
       <c r="AG48" s="1"/>
     </row>
-    <row r="49" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3759,7 +3801,7 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="1"/>
     </row>
-    <row r="50" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3794,7 +3836,7 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="1"/>
     </row>
-    <row r="51" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3829,7 +3871,7 @@
       <c r="AF51" s="3"/>
       <c r="AG51" s="1"/>
     </row>
-    <row r="52" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3864,7 +3906,7 @@
       <c r="AF52" s="3"/>
       <c r="AG52" s="1"/>
     </row>
-    <row r="53" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3899,7 +3941,7 @@
       <c r="AF53" s="3"/>
       <c r="AG53" s="1"/>
     </row>
-    <row r="54" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3934,7 +3976,7 @@
       <c r="AF54" s="3"/>
       <c r="AG54" s="1"/>
     </row>
-    <row r="55" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3969,7 +4011,7 @@
       <c r="AF55" s="3"/>
       <c r="AG55" s="1"/>
     </row>
-    <row r="56" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4004,7 +4046,7 @@
       <c r="AF56" s="3"/>
       <c r="AG56" s="1"/>
     </row>
-    <row r="57" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4039,7 +4081,7 @@
       <c r="AF57" s="3"/>
       <c r="AG57" s="1"/>
     </row>
-    <row r="58" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4074,7 +4116,7 @@
       <c r="AF58" s="3"/>
       <c r="AG58" s="1"/>
     </row>
-    <row r="59" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4109,7 +4151,7 @@
       <c r="AF59" s="3"/>
       <c r="AG59" s="1"/>
     </row>
-    <row r="60" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4144,7 +4186,7 @@
       <c r="AF60" s="3"/>
       <c r="AG60" s="1"/>
     </row>
-    <row r="61" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4179,7 +4221,7 @@
       <c r="AF61" s="3"/>
       <c r="AG61" s="1"/>
     </row>
-    <row r="62" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4214,7 +4256,7 @@
       <c r="AF62" s="3"/>
       <c r="AG62" s="1"/>
     </row>
-    <row r="63" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4249,7 +4291,7 @@
       <c r="AF63" s="3"/>
       <c r="AG63" s="1"/>
     </row>
-    <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4284,7 +4326,7 @@
       <c r="AF64" s="3"/>
       <c r="AG64" s="1"/>
     </row>
-    <row r="65" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4319,7 +4361,7 @@
       <c r="AF65" s="3"/>
       <c r="AG65" s="1"/>
     </row>
-    <row r="66" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4354,7 +4396,7 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="1"/>
     </row>
-    <row r="67" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4389,7 +4431,7 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="1"/>
     </row>
-    <row r="68" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4424,7 +4466,7 @@
       <c r="AF68" s="3"/>
       <c r="AG68" s="1"/>
     </row>
-    <row r="69" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4459,7 +4501,7 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="1"/>
     </row>
-    <row r="70" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4494,7 +4536,7 @@
       <c r="AF70" s="3"/>
       <c r="AG70" s="1"/>
     </row>
-    <row r="71" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4529,7 +4571,7 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="1"/>
     </row>
-    <row r="72" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4564,7 +4606,7 @@
       <c r="AF72" s="3"/>
       <c r="AG72" s="1"/>
     </row>
-    <row r="73" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4599,7 +4641,7 @@
       <c r="AF73" s="3"/>
       <c r="AG73" s="1"/>
     </row>
-    <row r="74" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4634,7 +4676,7 @@
       <c r="AF74" s="3"/>
       <c r="AG74" s="1"/>
     </row>
-    <row r="75" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4669,7 +4711,7 @@
       <c r="AF75" s="3"/>
       <c r="AG75" s="1"/>
     </row>
-    <row r="76" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4704,7 +4746,7 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="1"/>
     </row>
-    <row r="77" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4739,7 +4781,7 @@
       <c r="AF77" s="3"/>
       <c r="AG77" s="1"/>
     </row>
-    <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4774,7 +4816,7 @@
       <c r="AF78" s="3"/>
       <c r="AG78" s="1"/>
     </row>
-    <row r="79" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4809,7 +4851,7 @@
       <c r="AF79" s="3"/>
       <c r="AG79" s="1"/>
     </row>
-    <row r="80" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4844,7 +4886,7 @@
       <c r="AF80" s="3"/>
       <c r="AG80" s="1"/>
     </row>
-    <row r="81" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4879,7 +4921,7 @@
       <c r="AF81" s="3"/>
       <c r="AG81" s="1"/>
     </row>
-    <row r="82" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4914,7 +4956,7 @@
       <c r="AF82" s="3"/>
       <c r="AG82" s="1"/>
     </row>
-    <row r="83" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4949,7 +4991,7 @@
       <c r="AF83" s="3"/>
       <c r="AG83" s="1"/>
     </row>
-    <row r="84" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4984,7 +5026,7 @@
       <c r="AF84" s="3"/>
       <c r="AG84" s="1"/>
     </row>
-    <row r="85" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5019,7 +5061,7 @@
       <c r="AF85" s="3"/>
       <c r="AG85" s="1"/>
     </row>
-    <row r="86" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5054,7 +5096,7 @@
       <c r="AF86" s="3"/>
       <c r="AG86" s="1"/>
     </row>
-    <row r="87" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5089,7 +5131,7 @@
       <c r="AF87" s="3"/>
       <c r="AG87" s="1"/>
     </row>
-    <row r="88" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5124,7 +5166,7 @@
       <c r="AF88" s="3"/>
       <c r="AG88" s="1"/>
     </row>
-    <row r="89" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5159,7 +5201,7 @@
       <c r="AF89" s="3"/>
       <c r="AG89" s="1"/>
     </row>
-    <row r="90" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5194,7 +5236,7 @@
       <c r="AF90" s="3"/>
       <c r="AG90" s="1"/>
     </row>
-    <row r="91" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5229,7 +5271,7 @@
       <c r="AF91" s="3"/>
       <c r="AG91" s="1"/>
     </row>
-    <row r="92" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5264,7 +5306,7 @@
       <c r="AF92" s="3"/>
       <c r="AG92" s="1"/>
     </row>
-    <row r="93" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5299,7 +5341,7 @@
       <c r="AF93" s="3"/>
       <c r="AG93" s="1"/>
     </row>
-    <row r="94" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5334,7 +5376,7 @@
       <c r="AF94" s="3"/>
       <c r="AG94" s="1"/>
     </row>
-    <row r="95" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5369,7 +5411,7 @@
       <c r="AF95" s="3"/>
       <c r="AG95" s="1"/>
     </row>
-    <row r="96" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5404,7 +5446,7 @@
       <c r="AF96" s="3"/>
       <c r="AG96" s="1"/>
     </row>
-    <row r="97" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5439,7 +5481,7 @@
       <c r="AF97" s="3"/>
       <c r="AG97" s="1"/>
     </row>
-    <row r="98" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5474,7 +5516,7 @@
       <c r="AF98" s="3"/>
       <c r="AG98" s="1"/>
     </row>
-    <row r="99" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5509,7 +5551,7 @@
       <c r="AF99" s="3"/>
       <c r="AG99" s="1"/>
     </row>
-    <row r="100" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5544,7 +5586,7 @@
       <c r="AF100" s="3"/>
       <c r="AG100" s="1"/>
     </row>
-    <row r="101" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5579,7 +5621,7 @@
       <c r="AF101" s="3"/>
       <c r="AG101" s="1"/>
     </row>
-    <row r="102" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5614,7 +5656,7 @@
       <c r="AF102" s="3"/>
       <c r="AG102" s="1"/>
     </row>
-    <row r="103" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5649,7 +5691,7 @@
       <c r="AF103" s="3"/>
       <c r="AG103" s="1"/>
     </row>
-    <row r="104" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5684,7 +5726,7 @@
       <c r="AF104" s="3"/>
       <c r="AG104" s="1"/>
     </row>
-    <row r="105" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5719,7 +5761,7 @@
       <c r="AF105" s="3"/>
       <c r="AG105" s="1"/>
     </row>
-    <row r="106" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5754,7 +5796,7 @@
       <c r="AF106" s="3"/>
       <c r="AG106" s="1"/>
     </row>
-    <row r="107" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5789,7 +5831,7 @@
       <c r="AF107" s="3"/>
       <c r="AG107" s="1"/>
     </row>
-    <row r="108" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5824,7 +5866,7 @@
       <c r="AF108" s="3"/>
       <c r="AG108" s="1"/>
     </row>
-    <row r="109" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5859,7 +5901,7 @@
       <c r="AF109" s="3"/>
       <c r="AG109" s="1"/>
     </row>
-    <row r="110" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5894,7 +5936,7 @@
       <c r="AF110" s="3"/>
       <c r="AG110" s="1"/>
     </row>
-    <row r="111" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5929,7 +5971,7 @@
       <c r="AF111" s="3"/>
       <c r="AG111" s="1"/>
     </row>
-    <row r="112" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5964,7 +6006,7 @@
       <c r="AF112" s="3"/>
       <c r="AG112" s="1"/>
     </row>
-    <row r="113" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5999,7 +6041,7 @@
       <c r="AF113" s="3"/>
       <c r="AG113" s="1"/>
     </row>
-    <row r="114" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6034,7 +6076,7 @@
       <c r="AF114" s="3"/>
       <c r="AG114" s="1"/>
     </row>
-    <row r="115" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6069,7 +6111,7 @@
       <c r="AF115" s="3"/>
       <c r="AG115" s="1"/>
     </row>
-    <row r="116" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6104,7 +6146,7 @@
       <c r="AF116" s="3"/>
       <c r="AG116" s="1"/>
     </row>
-    <row r="117" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6139,7 +6181,7 @@
       <c r="AF117" s="3"/>
       <c r="AG117" s="1"/>
     </row>
-    <row r="118" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6174,7 +6216,7 @@
       <c r="AF118" s="3"/>
       <c r="AG118" s="1"/>
     </row>
-    <row r="119" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6209,7 +6251,7 @@
       <c r="AF119" s="3"/>
       <c r="AG119" s="1"/>
     </row>
-    <row r="120" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6244,7 +6286,7 @@
       <c r="AF120" s="3"/>
       <c r="AG120" s="1"/>
     </row>
-    <row r="121" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6279,7 +6321,7 @@
       <c r="AF121" s="3"/>
       <c r="AG121" s="1"/>
     </row>
-    <row r="122" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6314,7 +6356,7 @@
       <c r="AF122" s="3"/>
       <c r="AG122" s="1"/>
     </row>
-    <row r="123" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6349,7 +6391,7 @@
       <c r="AF123" s="3"/>
       <c r="AG123" s="1"/>
     </row>
-    <row r="124" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6384,7 +6426,7 @@
       <c r="AF124" s="3"/>
       <c r="AG124" s="1"/>
     </row>
-    <row r="125" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6419,7 +6461,7 @@
       <c r="AF125" s="3"/>
       <c r="AG125" s="1"/>
     </row>
-    <row r="126" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6454,7 +6496,7 @@
       <c r="AF126" s="3"/>
       <c r="AG126" s="1"/>
     </row>
-    <row r="127" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6489,7 +6531,7 @@
       <c r="AF127" s="3"/>
       <c r="AG127" s="1"/>
     </row>
-    <row r="128" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6524,7 +6566,7 @@
       <c r="AF128" s="3"/>
       <c r="AG128" s="1"/>
     </row>
-    <row r="129" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6559,7 +6601,7 @@
       <c r="AF129" s="3"/>
       <c r="AG129" s="1"/>
     </row>
-    <row r="130" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6594,7 +6636,7 @@
       <c r="AF130" s="3"/>
       <c r="AG130" s="1"/>
     </row>
-    <row r="131" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6629,7 +6671,7 @@
       <c r="AF131" s="3"/>
       <c r="AG131" s="1"/>
     </row>
-    <row r="132" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6664,7 +6706,7 @@
       <c r="AF132" s="3"/>
       <c r="AG132" s="1"/>
     </row>
-    <row r="133" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6699,7 +6741,7 @@
       <c r="AF133" s="3"/>
       <c r="AG133" s="1"/>
     </row>
-    <row r="134" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6734,7 +6776,7 @@
       <c r="AF134" s="3"/>
       <c r="AG134" s="1"/>
     </row>
-    <row r="135" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6769,7 +6811,7 @@
       <c r="AF135" s="3"/>
       <c r="AG135" s="1"/>
     </row>
-    <row r="136" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6804,7 +6846,7 @@
       <c r="AF136" s="3"/>
       <c r="AG136" s="1"/>
     </row>
-    <row r="137" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6839,7 +6881,7 @@
       <c r="AF137" s="3"/>
       <c r="AG137" s="1"/>
     </row>
-    <row r="138" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6874,7 +6916,7 @@
       <c r="AF138" s="3"/>
       <c r="AG138" s="1"/>
     </row>
-    <row r="139" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6909,7 +6951,7 @@
       <c r="AF139" s="3"/>
       <c r="AG139" s="1"/>
     </row>
-    <row r="140" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6944,7 +6986,7 @@
       <c r="AF140" s="3"/>
       <c r="AG140" s="1"/>
     </row>
-    <row r="141" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6979,7 +7021,7 @@
       <c r="AF141" s="3"/>
       <c r="AG141" s="1"/>
     </row>
-    <row r="142" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7014,7 +7056,7 @@
       <c r="AF142" s="3"/>
       <c r="AG142" s="1"/>
     </row>
-    <row r="143" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7049,7 +7091,7 @@
       <c r="AF143" s="3"/>
       <c r="AG143" s="1"/>
     </row>
-    <row r="144" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7084,7 +7126,7 @@
       <c r="AF144" s="3"/>
       <c r="AG144" s="1"/>
     </row>
-    <row r="145" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7119,7 +7161,7 @@
       <c r="AF145" s="3"/>
       <c r="AG145" s="1"/>
     </row>
-    <row r="146" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7154,7 +7196,7 @@
       <c r="AF146" s="3"/>
       <c r="AG146" s="1"/>
     </row>
-    <row r="147" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7189,7 +7231,7 @@
       <c r="AF147" s="3"/>
       <c r="AG147" s="1"/>
     </row>
-    <row r="148" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7224,7 +7266,7 @@
       <c r="AF148" s="3"/>
       <c r="AG148" s="1"/>
     </row>
-    <row r="149" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -7259,7 +7301,7 @@
       <c r="AF149" s="3"/>
       <c r="AG149" s="1"/>
     </row>
-    <row r="150" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7294,7 +7336,7 @@
       <c r="AF150" s="3"/>
       <c r="AG150" s="1"/>
     </row>
-    <row r="151" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -7329,7 +7371,7 @@
       <c r="AF151" s="3"/>
       <c r="AG151" s="1"/>
     </row>
-    <row r="152" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -7364,7 +7406,7 @@
       <c r="AF152" s="3"/>
       <c r="AG152" s="1"/>
     </row>
-    <row r="153" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -7399,7 +7441,7 @@
       <c r="AF153" s="3"/>
       <c r="AG153" s="1"/>
     </row>
-    <row r="154" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7434,7 +7476,7 @@
       <c r="AF154" s="3"/>
       <c r="AG154" s="1"/>
     </row>
-    <row r="155" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -7469,7 +7511,7 @@
       <c r="AF155" s="3"/>
       <c r="AG155" s="1"/>
     </row>
-    <row r="156" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -7504,7 +7546,7 @@
       <c r="AF156" s="3"/>
       <c r="AG156" s="1"/>
     </row>
-    <row r="157" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7539,7 +7581,7 @@
       <c r="AF157" s="3"/>
       <c r="AG157" s="1"/>
     </row>
-    <row r="158" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7574,7 +7616,7 @@
       <c r="AF158" s="3"/>
       <c r="AG158" s="1"/>
     </row>
-    <row r="159" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7609,7 +7651,7 @@
       <c r="AF159" s="3"/>
       <c r="AG159" s="1"/>
     </row>
-    <row r="160" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7644,7 +7686,7 @@
       <c r="AF160" s="3"/>
       <c r="AG160" s="1"/>
     </row>
-    <row r="161" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -7679,7 +7721,7 @@
       <c r="AF161" s="3"/>
       <c r="AG161" s="1"/>
     </row>
-    <row r="162" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7714,7 +7756,7 @@
       <c r="AF162" s="3"/>
       <c r="AG162" s="1"/>
     </row>
-    <row r="163" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7749,7 +7791,7 @@
       <c r="AF163" s="3"/>
       <c r="AG163" s="1"/>
     </row>
-    <row r="164" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7784,7 +7826,7 @@
       <c r="AF164" s="3"/>
       <c r="AG164" s="1"/>
     </row>
-    <row r="165" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7819,7 +7861,7 @@
       <c r="AF165" s="3"/>
       <c r="AG165" s="1"/>
     </row>
-    <row r="166" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7854,7 +7896,7 @@
       <c r="AF166" s="3"/>
       <c r="AG166" s="1"/>
     </row>
-    <row r="167" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7889,7 +7931,7 @@
       <c r="AF167" s="3"/>
       <c r="AG167" s="1"/>
     </row>
-    <row r="168" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7924,7 +7966,7 @@
       <c r="AF168" s="3"/>
       <c r="AG168" s="1"/>
     </row>
-    <row r="169" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7959,7 +8001,7 @@
       <c r="AF169" s="3"/>
       <c r="AG169" s="1"/>
     </row>
-    <row r="170" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7994,7 +8036,7 @@
       <c r="AF170" s="3"/>
       <c r="AG170" s="1"/>
     </row>
-    <row r="171" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8029,7 +8071,7 @@
       <c r="AF171" s="3"/>
       <c r="AG171" s="1"/>
     </row>
-    <row r="172" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8064,7 +8106,7 @@
       <c r="AF172" s="3"/>
       <c r="AG172" s="1"/>
     </row>
-    <row r="173" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8099,7 +8141,7 @@
       <c r="AF173" s="3"/>
       <c r="AG173" s="1"/>
     </row>
-    <row r="174" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8134,7 +8176,7 @@
       <c r="AF174" s="3"/>
       <c r="AG174" s="1"/>
     </row>
-    <row r="175" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8169,7 +8211,7 @@
       <c r="AF175" s="3"/>
       <c r="AG175" s="1"/>
     </row>
-    <row r="176" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8204,7 +8246,7 @@
       <c r="AF176" s="3"/>
       <c r="AG176" s="1"/>
     </row>
-    <row r="177" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8239,7 +8281,7 @@
       <c r="AF177" s="3"/>
       <c r="AG177" s="1"/>
     </row>
-    <row r="178" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -8274,7 +8316,7 @@
       <c r="AF178" s="3"/>
       <c r="AG178" s="1"/>
     </row>
-    <row r="179" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8309,7 +8351,7 @@
       <c r="AF179" s="3"/>
       <c r="AG179" s="1"/>
     </row>
-    <row r="180" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -8344,7 +8386,7 @@
       <c r="AF180" s="3"/>
       <c r="AG180" s="1"/>
     </row>
-    <row r="181" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -8379,7 +8421,7 @@
       <c r="AF181" s="3"/>
       <c r="AG181" s="1"/>
     </row>
-    <row r="182" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8414,7 +8456,7 @@
       <c r="AF182" s="3"/>
       <c r="AG182" s="1"/>
     </row>
-    <row r="183" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -8449,7 +8491,7 @@
       <c r="AF183" s="3"/>
       <c r="AG183" s="1"/>
     </row>
-    <row r="184" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -8484,7 +8526,7 @@
       <c r="AF184" s="3"/>
       <c r="AG184" s="1"/>
     </row>
-    <row r="185" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -8519,7 +8561,7 @@
       <c r="AF185" s="3"/>
       <c r="AG185" s="1"/>
     </row>
-    <row r="186" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -8554,7 +8596,7 @@
       <c r="AF186" s="3"/>
       <c r="AG186" s="1"/>
     </row>
-    <row r="187" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -8589,7 +8631,7 @@
       <c r="AF187" s="3"/>
       <c r="AG187" s="1"/>
     </row>
-    <row r="188" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -8624,7 +8666,7 @@
       <c r="AF188" s="3"/>
       <c r="AG188" s="1"/>
     </row>
-    <row r="189" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8659,7 +8701,7 @@
       <c r="AF189" s="3"/>
       <c r="AG189" s="1"/>
     </row>
-    <row r="190" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8694,7 +8736,7 @@
       <c r="AF190" s="3"/>
       <c r="AG190" s="1"/>
     </row>
-    <row r="191" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8729,7 +8771,7 @@
       <c r="AF191" s="3"/>
       <c r="AG191" s="1"/>
     </row>
-    <row r="192" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -8764,7 +8806,7 @@
       <c r="AF192" s="3"/>
       <c r="AG192" s="1"/>
     </row>
-    <row r="193" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -8799,7 +8841,7 @@
       <c r="AF193" s="3"/>
       <c r="AG193" s="1"/>
     </row>
-    <row r="194" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -8834,7 +8876,7 @@
       <c r="AF194" s="3"/>
       <c r="AG194" s="1"/>
     </row>
-    <row r="195" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -8869,7 +8911,7 @@
       <c r="AF195" s="3"/>
       <c r="AG195" s="1"/>
     </row>
-    <row r="196" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -8904,7 +8946,7 @@
       <c r="AF196" s="3"/>
       <c r="AG196" s="1"/>
     </row>
-    <row r="197" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -8939,7 +8981,7 @@
       <c r="AF197" s="3"/>
       <c r="AG197" s="1"/>
     </row>
-    <row r="198" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -8974,7 +9016,7 @@
       <c r="AF198" s="3"/>
       <c r="AG198" s="1"/>
     </row>
-    <row r="199" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -9009,7 +9051,7 @@
       <c r="AF199" s="3"/>
       <c r="AG199" s="1"/>
     </row>
-    <row r="200" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -9044,7 +9086,7 @@
       <c r="AF200" s="3"/>
       <c r="AG200" s="1"/>
     </row>
-    <row r="201" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -9079,7 +9121,7 @@
       <c r="AF201" s="3"/>
       <c r="AG201" s="1"/>
     </row>
-    <row r="202" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -9114,7 +9156,7 @@
       <c r="AF202" s="3"/>
       <c r="AG202" s="1"/>
     </row>
-    <row r="203" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -9149,7 +9191,7 @@
       <c r="AF203" s="3"/>
       <c r="AG203" s="1"/>
     </row>
-    <row r="204" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -9184,7 +9226,7 @@
       <c r="AF204" s="3"/>
       <c r="AG204" s="1"/>
     </row>
-    <row r="205" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -9219,7 +9261,7 @@
       <c r="AF205" s="3"/>
       <c r="AG205" s="1"/>
     </row>
-    <row r="206" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -9254,7 +9296,7 @@
       <c r="AF206" s="3"/>
       <c r="AG206" s="1"/>
     </row>
-    <row r="207" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -9289,7 +9331,7 @@
       <c r="AF207" s="3"/>
       <c r="AG207" s="1"/>
     </row>
-    <row r="208" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -9324,7 +9366,7 @@
       <c r="AF208" s="3"/>
       <c r="AG208" s="1"/>
     </row>
-    <row r="209" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -9359,7 +9401,7 @@
       <c r="AF209" s="3"/>
       <c r="AG209" s="1"/>
     </row>
-    <row r="210" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -9394,7 +9436,7 @@
       <c r="AF210" s="3"/>
       <c r="AG210" s="1"/>
     </row>
-    <row r="211" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -9429,7 +9471,7 @@
       <c r="AF211" s="3"/>
       <c r="AG211" s="1"/>
     </row>
-    <row r="212" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -9464,7 +9506,7 @@
       <c r="AF212" s="3"/>
       <c r="AG212" s="1"/>
     </row>
-    <row r="213" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -9499,7 +9541,7 @@
       <c r="AF213" s="3"/>
       <c r="AG213" s="1"/>
     </row>
-    <row r="214" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -9534,7 +9576,7 @@
       <c r="AF214" s="3"/>
       <c r="AG214" s="1"/>
     </row>
-    <row r="215" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -9569,7 +9611,7 @@
       <c r="AF215" s="3"/>
       <c r="AG215" s="1"/>
     </row>
-    <row r="216" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -9604,7 +9646,7 @@
       <c r="AF216" s="3"/>
       <c r="AG216" s="1"/>
     </row>
-    <row r="217" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -9639,7 +9681,7 @@
       <c r="AF217" s="3"/>
       <c r="AG217" s="1"/>
     </row>
-    <row r="218" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -9674,7 +9716,7 @@
       <c r="AF218" s="3"/>
       <c r="AG218" s="1"/>
     </row>
-    <row r="219" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -9709,7 +9751,7 @@
       <c r="AF219" s="3"/>
       <c r="AG219" s="1"/>
     </row>
-    <row r="220" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -9744,7 +9786,7 @@
       <c r="AF220" s="3"/>
       <c r="AG220" s="1"/>
     </row>
-    <row r="221" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -9779,7 +9821,7 @@
       <c r="AF221" s="3"/>
       <c r="AG221" s="1"/>
     </row>
-    <row r="222" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -9814,7 +9856,7 @@
       <c r="AF222" s="3"/>
       <c r="AG222" s="1"/>
     </row>
-    <row r="223" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -9849,7 +9891,7 @@
       <c r="AF223" s="3"/>
       <c r="AG223" s="1"/>
     </row>
-    <row r="224" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -9884,7 +9926,7 @@
       <c r="AF224" s="3"/>
       <c r="AG224" s="1"/>
     </row>
-    <row r="225" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -9919,7 +9961,7 @@
       <c r="AF225" s="3"/>
       <c r="AG225" s="1"/>
     </row>
-    <row r="226" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -9954,7 +9996,7 @@
       <c r="AF226" s="3"/>
       <c r="AG226" s="1"/>
     </row>
-    <row r="227" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -9989,7 +10031,7 @@
       <c r="AF227" s="3"/>
       <c r="AG227" s="1"/>
     </row>
-    <row r="228" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -10024,7 +10066,7 @@
       <c r="AF228" s="3"/>
       <c r="AG228" s="1"/>
     </row>
-    <row r="229" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -10059,7 +10101,7 @@
       <c r="AF229" s="3"/>
       <c r="AG229" s="1"/>
     </row>
-    <row r="230" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -10094,7 +10136,7 @@
       <c r="AF230" s="3"/>
       <c r="AG230" s="1"/>
     </row>
-    <row r="231" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -10129,7 +10171,7 @@
       <c r="AF231" s="3"/>
       <c r="AG231" s="1"/>
     </row>
-    <row r="232" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -10164,7 +10206,7 @@
       <c r="AF232" s="3"/>
       <c r="AG232" s="1"/>
     </row>
-    <row r="233" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -10199,7 +10241,7 @@
       <c r="AF233" s="3"/>
       <c r="AG233" s="1"/>
     </row>
-    <row r="234" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -10234,7 +10276,7 @@
       <c r="AF234" s="3"/>
       <c r="AG234" s="1"/>
     </row>
-    <row r="235" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -10269,7 +10311,7 @@
       <c r="AF235" s="3"/>
       <c r="AG235" s="1"/>
     </row>
-    <row r="236" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -10304,7 +10346,7 @@
       <c r="AF236" s="3"/>
       <c r="AG236" s="1"/>
     </row>
-    <row r="237" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -10339,7 +10381,7 @@
       <c r="AF237" s="3"/>
       <c r="AG237" s="1"/>
     </row>
-    <row r="238" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -10374,7 +10416,7 @@
       <c r="AF238" s="3"/>
       <c r="AG238" s="1"/>
     </row>
-    <row r="239" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -10409,7 +10451,7 @@
       <c r="AF239" s="3"/>
       <c r="AG239" s="1"/>
     </row>
-    <row r="240" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -10444,7 +10486,7 @@
       <c r="AF240" s="3"/>
       <c r="AG240" s="1"/>
     </row>
-    <row r="241" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -10479,7 +10521,7 @@
       <c r="AF241" s="3"/>
       <c r="AG241" s="1"/>
     </row>
-    <row r="242" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -10514,7 +10556,7 @@
       <c r="AF242" s="3"/>
       <c r="AG242" s="1"/>
     </row>
-    <row r="243" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -10549,7 +10591,7 @@
       <c r="AF243" s="3"/>
       <c r="AG243" s="1"/>
     </row>
-    <row r="244" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -10584,7 +10626,7 @@
       <c r="AF244" s="3"/>
       <c r="AG244" s="1"/>
     </row>
-    <row r="245" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -10619,7 +10661,7 @@
       <c r="AF245" s="3"/>
       <c r="AG245" s="1"/>
     </row>
-    <row r="246" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -10654,7 +10696,7 @@
       <c r="AF246" s="3"/>
       <c r="AG246" s="1"/>
     </row>
-    <row r="247" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -10689,7 +10731,7 @@
       <c r="AF247" s="3"/>
       <c r="AG247" s="1"/>
     </row>
-    <row r="248" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -10724,7 +10766,7 @@
       <c r="AF248" s="3"/>
       <c r="AG248" s="1"/>
     </row>
-    <row r="249" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -10759,7 +10801,7 @@
       <c r="AF249" s="3"/>
       <c r="AG249" s="1"/>
     </row>
-    <row r="250" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -10794,7 +10836,7 @@
       <c r="AF250" s="3"/>
       <c r="AG250" s="1"/>
     </row>
-    <row r="251" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -10829,7 +10871,7 @@
       <c r="AF251" s="3"/>
       <c r="AG251" s="1"/>
     </row>
-    <row r="252" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -10864,7 +10906,7 @@
       <c r="AF252" s="3"/>
       <c r="AG252" s="1"/>
     </row>
-    <row r="253" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -10899,7 +10941,7 @@
       <c r="AF253" s="3"/>
       <c r="AG253" s="1"/>
     </row>
-    <row r="254" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -10934,7 +10976,7 @@
       <c r="AF254" s="3"/>
       <c r="AG254" s="1"/>
     </row>
-    <row r="255" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -10969,7 +11011,7 @@
       <c r="AF255" s="3"/>
       <c r="AG255" s="1"/>
     </row>
-    <row r="256" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -11004,7 +11046,7 @@
       <c r="AF256" s="3"/>
       <c r="AG256" s="1"/>
     </row>
-    <row r="257" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -11039,7 +11081,7 @@
       <c r="AF257" s="3"/>
       <c r="AG257" s="1"/>
     </row>
-    <row r="258" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -11074,7 +11116,7 @@
       <c r="AF258" s="3"/>
       <c r="AG258" s="1"/>
     </row>
-    <row r="259" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -11109,7 +11151,7 @@
       <c r="AF259" s="3"/>
       <c r="AG259" s="1"/>
     </row>
-    <row r="260" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -11144,7 +11186,7 @@
       <c r="AF260" s="3"/>
       <c r="AG260" s="1"/>
     </row>
-    <row r="261" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -11179,7 +11221,7 @@
       <c r="AF261" s="3"/>
       <c r="AG261" s="1"/>
     </row>
-    <row r="262" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -11214,7 +11256,7 @@
       <c r="AF262" s="3"/>
       <c r="AG262" s="1"/>
     </row>
-    <row r="263" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -11249,7 +11291,7 @@
       <c r="AF263" s="3"/>
       <c r="AG263" s="1"/>
     </row>
-    <row r="264" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -11284,7 +11326,7 @@
       <c r="AF264" s="3"/>
       <c r="AG264" s="1"/>
     </row>
-    <row r="265" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -11319,7 +11361,7 @@
       <c r="AF265" s="3"/>
       <c r="AG265" s="1"/>
     </row>
-    <row r="266" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -11354,7 +11396,7 @@
       <c r="AF266" s="3"/>
       <c r="AG266" s="1"/>
     </row>
-    <row r="267" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -11389,7 +11431,7 @@
       <c r="AF267" s="3"/>
       <c r="AG267" s="1"/>
     </row>
-    <row r="268" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -11424,7 +11466,7 @@
       <c r="AF268" s="3"/>
       <c r="AG268" s="1"/>
     </row>
-    <row r="269" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -11459,7 +11501,7 @@
       <c r="AF269" s="3"/>
       <c r="AG269" s="1"/>
     </row>
-    <row r="270" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -11494,7 +11536,7 @@
       <c r="AF270" s="3"/>
       <c r="AG270" s="1"/>
     </row>
-    <row r="271" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -11529,7 +11571,7 @@
       <c r="AF271" s="3"/>
       <c r="AG271" s="1"/>
     </row>
-    <row r="272" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -11564,7 +11606,7 @@
       <c r="AF272" s="3"/>
       <c r="AG272" s="1"/>
     </row>
-    <row r="273" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -11599,7 +11641,7 @@
       <c r="AF273" s="3"/>
       <c r="AG273" s="1"/>
     </row>
-    <row r="274" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -11634,7 +11676,7 @@
       <c r="AF274" s="3"/>
       <c r="AG274" s="1"/>
     </row>
-    <row r="275" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -11669,7 +11711,7 @@
       <c r="AF275" s="3"/>
       <c r="AG275" s="1"/>
     </row>
-    <row r="276" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -11704,7 +11746,7 @@
       <c r="AF276" s="3"/>
       <c r="AG276" s="1"/>
     </row>
-    <row r="277" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -11739,7 +11781,7 @@
       <c r="AF277" s="3"/>
       <c r="AG277" s="1"/>
     </row>
-    <row r="278" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -11774,7 +11816,7 @@
       <c r="AF278" s="3"/>
       <c r="AG278" s="1"/>
     </row>
-    <row r="279" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -11809,7 +11851,7 @@
       <c r="AF279" s="3"/>
       <c r="AG279" s="1"/>
     </row>
-    <row r="280" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -11844,7 +11886,7 @@
       <c r="AF280" s="3"/>
       <c r="AG280" s="1"/>
     </row>
-    <row r="281" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -11879,7 +11921,7 @@
       <c r="AF281" s="3"/>
       <c r="AG281" s="1"/>
     </row>
-    <row r="282" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -11914,7 +11956,7 @@
       <c r="AF282" s="3"/>
       <c r="AG282" s="1"/>
     </row>
-    <row r="283" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -11949,7 +11991,7 @@
       <c r="AF283" s="3"/>
       <c r="AG283" s="1"/>
     </row>
-    <row r="284" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -11984,7 +12026,7 @@
       <c r="AF284" s="3"/>
       <c r="AG284" s="1"/>
     </row>
-    <row r="285" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -12019,7 +12061,7 @@
       <c r="AF285" s="3"/>
       <c r="AG285" s="1"/>
     </row>
-    <row r="286" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -12054,7 +12096,7 @@
       <c r="AF286" s="3"/>
       <c r="AG286" s="1"/>
     </row>
-    <row r="287" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -12089,7 +12131,7 @@
       <c r="AF287" s="3"/>
       <c r="AG287" s="1"/>
     </row>
-    <row r="288" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -12124,7 +12166,7 @@
       <c r="AF288" s="3"/>
       <c r="AG288" s="1"/>
     </row>
-    <row r="289" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -12159,7 +12201,7 @@
       <c r="AF289" s="3"/>
       <c r="AG289" s="1"/>
     </row>
-    <row r="290" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -12194,7 +12236,7 @@
       <c r="AF290" s="3"/>
       <c r="AG290" s="1"/>
     </row>
-    <row r="291" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -12229,7 +12271,7 @@
       <c r="AF291" s="3"/>
       <c r="AG291" s="1"/>
     </row>
-    <row r="292" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -12264,7 +12306,7 @@
       <c r="AF292" s="3"/>
       <c r="AG292" s="1"/>
     </row>
-    <row r="293" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -12299,7 +12341,7 @@
       <c r="AF293" s="3"/>
       <c r="AG293" s="1"/>
     </row>
-    <row r="294" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -12334,7 +12376,7 @@
       <c r="AF294" s="3"/>
       <c r="AG294" s="1"/>
     </row>
-    <row r="295" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -12369,7 +12411,7 @@
       <c r="AF295" s="3"/>
       <c r="AG295" s="1"/>
     </row>
-    <row r="296" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -12404,7 +12446,7 @@
       <c r="AF296" s="3"/>
       <c r="AG296" s="1"/>
     </row>
-    <row r="297" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -12439,7 +12481,7 @@
       <c r="AF297" s="3"/>
       <c r="AG297" s="1"/>
     </row>
-    <row r="298" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -12474,7 +12516,7 @@
       <c r="AF298" s="3"/>
       <c r="AG298" s="1"/>
     </row>
-    <row r="299" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -12509,7 +12551,7 @@
       <c r="AF299" s="3"/>
       <c r="AG299" s="1"/>
     </row>
-    <row r="300" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -12544,7 +12586,7 @@
       <c r="AF300" s="3"/>
       <c r="AG300" s="1"/>
     </row>
-    <row r="301" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -12579,7 +12621,7 @@
       <c r="AF301" s="3"/>
       <c r="AG301" s="1"/>
     </row>
-    <row r="302" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -12614,7 +12656,7 @@
       <c r="AF302" s="3"/>
       <c r="AG302" s="1"/>
     </row>
-    <row r="303" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -12649,7 +12691,7 @@
       <c r="AF303" s="3"/>
       <c r="AG303" s="1"/>
     </row>
-    <row r="304" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -12684,7 +12726,7 @@
       <c r="AF304" s="3"/>
       <c r="AG304" s="1"/>
     </row>
-    <row r="305" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -12719,7 +12761,7 @@
       <c r="AF305" s="3"/>
       <c r="AG305" s="1"/>
     </row>
-    <row r="306" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -12754,7 +12796,7 @@
       <c r="AF306" s="3"/>
       <c r="AG306" s="1"/>
     </row>
-    <row r="307" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -12789,7 +12831,7 @@
       <c r="AF307" s="3"/>
       <c r="AG307" s="1"/>
     </row>
-    <row r="308" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -12824,7 +12866,7 @@
       <c r="AF308" s="3"/>
       <c r="AG308" s="1"/>
     </row>
-    <row r="309" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -12859,7 +12901,7 @@
       <c r="AF309" s="3"/>
       <c r="AG309" s="1"/>
     </row>
-    <row r="310" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -12894,7 +12936,7 @@
       <c r="AF310" s="3"/>
       <c r="AG310" s="1"/>
     </row>
-    <row r="311" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -12929,7 +12971,7 @@
       <c r="AF311" s="3"/>
       <c r="AG311" s="1"/>
     </row>
-    <row r="312" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -12964,7 +13006,7 @@
       <c r="AF312" s="3"/>
       <c r="AG312" s="1"/>
     </row>
-    <row r="313" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -12999,7 +13041,7 @@
       <c r="AF313" s="3"/>
       <c r="AG313" s="1"/>
     </row>
-    <row r="314" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -13034,7 +13076,7 @@
       <c r="AF314" s="3"/>
       <c r="AG314" s="1"/>
     </row>
-    <row r="315" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -13069,7 +13111,7 @@
       <c r="AF315" s="3"/>
       <c r="AG315" s="1"/>
     </row>
-    <row r="316" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -13104,7 +13146,7 @@
       <c r="AF316" s="3"/>
       <c r="AG316" s="1"/>
     </row>
-    <row r="317" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -13139,7 +13181,7 @@
       <c r="AF317" s="3"/>
       <c r="AG317" s="1"/>
     </row>
-    <row r="318" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -13174,7 +13216,7 @@
       <c r="AF318" s="3"/>
       <c r="AG318" s="1"/>
     </row>
-    <row r="319" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -13209,7 +13251,7 @@
       <c r="AF319" s="3"/>
       <c r="AG319" s="1"/>
     </row>
-    <row r="320" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -13244,7 +13286,7 @@
       <c r="AF320" s="3"/>
       <c r="AG320" s="1"/>
     </row>
-    <row r="321" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -13279,7 +13321,7 @@
       <c r="AF321" s="3"/>
       <c r="AG321" s="1"/>
     </row>
-    <row r="322" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -13314,7 +13356,7 @@
       <c r="AF322" s="3"/>
       <c r="AG322" s="1"/>
     </row>
-    <row r="323" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -13349,7 +13391,7 @@
       <c r="AF323" s="3"/>
       <c r="AG323" s="1"/>
     </row>
-    <row r="324" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -13384,7 +13426,7 @@
       <c r="AF324" s="3"/>
       <c r="AG324" s="1"/>
     </row>
-    <row r="325" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -13419,7 +13461,7 @@
       <c r="AF325" s="3"/>
       <c r="AG325" s="1"/>
     </row>
-    <row r="326" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -13454,7 +13496,7 @@
       <c r="AF326" s="3"/>
       <c r="AG326" s="1"/>
     </row>
-    <row r="327" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -13489,7 +13531,7 @@
       <c r="AF327" s="3"/>
       <c r="AG327" s="1"/>
     </row>
-    <row r="328" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -13524,7 +13566,7 @@
       <c r="AF328" s="3"/>
       <c r="AG328" s="1"/>
     </row>
-    <row r="329" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -13559,7 +13601,7 @@
       <c r="AF329" s="3"/>
       <c r="AG329" s="1"/>
     </row>
-    <row r="330" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -13594,7 +13636,7 @@
       <c r="AF330" s="3"/>
       <c r="AG330" s="1"/>
     </row>
-    <row r="331" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -13629,7 +13671,7 @@
       <c r="AF331" s="3"/>
       <c r="AG331" s="1"/>
     </row>
-    <row r="332" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -13664,7 +13706,7 @@
       <c r="AF332" s="3"/>
       <c r="AG332" s="1"/>
     </row>
-    <row r="333" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -13699,7 +13741,7 @@
       <c r="AF333" s="3"/>
       <c r="AG333" s="1"/>
     </row>
-    <row r="334" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -13734,7 +13776,7 @@
       <c r="AF334" s="3"/>
       <c r="AG334" s="1"/>
     </row>
-    <row r="335" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -13769,7 +13811,7 @@
       <c r="AF335" s="3"/>
       <c r="AG335" s="1"/>
     </row>
-    <row r="336" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -13804,7 +13846,7 @@
       <c r="AF336" s="3"/>
       <c r="AG336" s="1"/>
     </row>
-    <row r="337" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -13839,7 +13881,7 @@
       <c r="AF337" s="3"/>
       <c r="AG337" s="1"/>
     </row>
-    <row r="338" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -13874,7 +13916,7 @@
       <c r="AF338" s="3"/>
       <c r="AG338" s="1"/>
     </row>
-    <row r="339" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -13909,7 +13951,7 @@
       <c r="AF339" s="3"/>
       <c r="AG339" s="1"/>
     </row>
-    <row r="340" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -13944,7 +13986,7 @@
       <c r="AF340" s="3"/>
       <c r="AG340" s="1"/>
     </row>
-    <row r="341" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -13979,7 +14021,7 @@
       <c r="AF341" s="3"/>
       <c r="AG341" s="1"/>
     </row>
-    <row r="342" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -14014,7 +14056,7 @@
       <c r="AF342" s="3"/>
       <c r="AG342" s="1"/>
     </row>
-    <row r="343" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -14049,7 +14091,7 @@
       <c r="AF343" s="3"/>
       <c r="AG343" s="1"/>
     </row>
-    <row r="344" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -14084,7 +14126,7 @@
       <c r="AF344" s="3"/>
       <c r="AG344" s="1"/>
     </row>
-    <row r="345" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -14119,7 +14161,7 @@
       <c r="AF345" s="3"/>
       <c r="AG345" s="1"/>
     </row>
-    <row r="346" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -14154,7 +14196,7 @@
       <c r="AF346" s="3"/>
       <c r="AG346" s="1"/>
     </row>
-    <row r="347" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -14189,7 +14231,7 @@
       <c r="AF347" s="3"/>
       <c r="AG347" s="1"/>
     </row>
-    <row r="348" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -14224,7 +14266,7 @@
       <c r="AF348" s="3"/>
       <c r="AG348" s="1"/>
     </row>
-    <row r="349" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -14259,7 +14301,7 @@
       <c r="AF349" s="3"/>
       <c r="AG349" s="1"/>
     </row>
-    <row r="350" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -14294,7 +14336,7 @@
       <c r="AF350" s="3"/>
       <c r="AG350" s="1"/>
     </row>
-    <row r="351" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -14329,7 +14371,7 @@
       <c r="AF351" s="3"/>
       <c r="AG351" s="1"/>
     </row>
-    <row r="352" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -14364,7 +14406,7 @@
       <c r="AF352" s="3"/>
       <c r="AG352" s="1"/>
     </row>
-    <row r="353" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -14399,7 +14441,7 @@
       <c r="AF353" s="3"/>
       <c r="AG353" s="1"/>
     </row>
-    <row r="354" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -14434,7 +14476,7 @@
       <c r="AF354" s="3"/>
       <c r="AG354" s="1"/>
     </row>
-    <row r="355" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -14469,7 +14511,7 @@
       <c r="AF355" s="3"/>
       <c r="AG355" s="1"/>
     </row>
-    <row r="356" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -14504,7 +14546,7 @@
       <c r="AF356" s="3"/>
       <c r="AG356" s="1"/>
     </row>
-    <row r="357" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -14539,7 +14581,7 @@
       <c r="AF357" s="3"/>
       <c r="AG357" s="1"/>
     </row>
-    <row r="358" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -14574,7 +14616,7 @@
       <c r="AF358" s="3"/>
       <c r="AG358" s="1"/>
     </row>
-    <row r="359" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -14609,7 +14651,7 @@
       <c r="AF359" s="3"/>
       <c r="AG359" s="1"/>
     </row>
-    <row r="360" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -14644,7 +14686,7 @@
       <c r="AF360" s="3"/>
       <c r="AG360" s="1"/>
     </row>
-    <row r="361" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -14679,7 +14721,7 @@
       <c r="AF361" s="3"/>
       <c r="AG361" s="1"/>
     </row>
-    <row r="362" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -14714,7 +14756,7 @@
       <c r="AF362" s="3"/>
       <c r="AG362" s="1"/>
     </row>
-    <row r="363" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -14749,7 +14791,7 @@
       <c r="AF363" s="3"/>
       <c r="AG363" s="1"/>
     </row>
-    <row r="364" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -14784,7 +14826,7 @@
       <c r="AF364" s="3"/>
       <c r="AG364" s="1"/>
     </row>
-    <row r="365" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -14819,7 +14861,7 @@
       <c r="AF365" s="3"/>
       <c r="AG365" s="1"/>
     </row>
-    <row r="366" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -14854,7 +14896,7 @@
       <c r="AF366" s="3"/>
       <c r="AG366" s="1"/>
     </row>
-    <row r="367" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -14889,7 +14931,7 @@
       <c r="AF367" s="3"/>
       <c r="AG367" s="1"/>
     </row>
-    <row r="368" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -14924,7 +14966,7 @@
       <c r="AF368" s="3"/>
       <c r="AG368" s="1"/>
     </row>
-    <row r="369" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -14959,7 +15001,7 @@
       <c r="AF369" s="3"/>
       <c r="AG369" s="1"/>
     </row>
-    <row r="370" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -14994,7 +15036,7 @@
       <c r="AF370" s="3"/>
       <c r="AG370" s="1"/>
     </row>
-    <row r="371" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -15029,7 +15071,7 @@
       <c r="AF371" s="3"/>
       <c r="AG371" s="1"/>
     </row>
-    <row r="372" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -15064,7 +15106,7 @@
       <c r="AF372" s="3"/>
       <c r="AG372" s="1"/>
     </row>
-    <row r="373" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -15099,7 +15141,7 @@
       <c r="AF373" s="3"/>
       <c r="AG373" s="1"/>
     </row>
-    <row r="374" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -15134,7 +15176,7 @@
       <c r="AF374" s="3"/>
       <c r="AG374" s="1"/>
     </row>
-    <row r="375" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -15169,7 +15211,7 @@
       <c r="AF375" s="3"/>
       <c r="AG375" s="1"/>
     </row>
-    <row r="376" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -15204,7 +15246,7 @@
       <c r="AF376" s="3"/>
       <c r="AG376" s="1"/>
     </row>
-    <row r="377" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -15239,7 +15281,7 @@
       <c r="AF377" s="3"/>
       <c r="AG377" s="1"/>
     </row>
-    <row r="378" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -15274,7 +15316,7 @@
       <c r="AF378" s="3"/>
       <c r="AG378" s="1"/>
     </row>
-    <row r="379" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -15309,7 +15351,7 @@
       <c r="AF379" s="3"/>
       <c r="AG379" s="1"/>
     </row>
-    <row r="380" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -15344,7 +15386,7 @@
       <c r="AF380" s="3"/>
       <c r="AG380" s="1"/>
     </row>
-    <row r="381" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -15379,7 +15421,7 @@
       <c r="AF381" s="3"/>
       <c r="AG381" s="1"/>
     </row>
-    <row r="382" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -15414,7 +15456,7 @@
       <c r="AF382" s="3"/>
       <c r="AG382" s="1"/>
     </row>
-    <row r="383" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -15449,7 +15491,7 @@
       <c r="AF383" s="3"/>
       <c r="AG383" s="1"/>
     </row>
-    <row r="384" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -15484,7 +15526,7 @@
       <c r="AF384" s="3"/>
       <c r="AG384" s="1"/>
     </row>
-    <row r="385" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -15519,7 +15561,7 @@
       <c r="AF385" s="3"/>
       <c r="AG385" s="1"/>
     </row>
-    <row r="386" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -15554,7 +15596,7 @@
       <c r="AF386" s="3"/>
       <c r="AG386" s="1"/>
     </row>
-    <row r="387" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -15589,7 +15631,7 @@
       <c r="AF387" s="3"/>
       <c r="AG387" s="1"/>
     </row>
-    <row r="388" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -15624,7 +15666,7 @@
       <c r="AF388" s="3"/>
       <c r="AG388" s="1"/>
     </row>
-    <row r="389" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -15659,7 +15701,7 @@
       <c r="AF389" s="3"/>
       <c r="AG389" s="1"/>
     </row>
-    <row r="390" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -15694,7 +15736,7 @@
       <c r="AF390" s="3"/>
       <c r="AG390" s="1"/>
     </row>
-    <row r="391" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -15729,7 +15771,7 @@
       <c r="AF391" s="3"/>
       <c r="AG391" s="1"/>
     </row>
-    <row r="392" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -15764,7 +15806,7 @@
       <c r="AF392" s="3"/>
       <c r="AG392" s="1"/>
     </row>
-    <row r="393" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -15799,7 +15841,7 @@
       <c r="AF393" s="3"/>
       <c r="AG393" s="1"/>
     </row>
-    <row r="394" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -15834,7 +15876,7 @@
       <c r="AF394" s="3"/>
       <c r="AG394" s="1"/>
     </row>
-    <row r="395" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -15869,7 +15911,7 @@
       <c r="AF395" s="3"/>
       <c r="AG395" s="1"/>
     </row>
-    <row r="396" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -15904,7 +15946,7 @@
       <c r="AF396" s="3"/>
       <c r="AG396" s="1"/>
     </row>
-    <row r="397" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -15939,7 +15981,7 @@
       <c r="AF397" s="3"/>
       <c r="AG397" s="1"/>
     </row>
-    <row r="398" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -15974,7 +16016,7 @@
       <c r="AF398" s="3"/>
       <c r="AG398" s="1"/>
     </row>
-    <row r="399" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -16009,7 +16051,7 @@
       <c r="AF399" s="3"/>
       <c r="AG399" s="1"/>
     </row>
-    <row r="400" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -16044,7 +16086,7 @@
       <c r="AF400" s="3"/>
       <c r="AG400" s="1"/>
     </row>
-    <row r="401" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -16079,7 +16121,7 @@
       <c r="AF401" s="3"/>
       <c r="AG401" s="1"/>
     </row>
-    <row r="402" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -16114,7 +16156,7 @@
       <c r="AF402" s="3"/>
       <c r="AG402" s="1"/>
     </row>
-    <row r="403" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -16149,7 +16191,7 @@
       <c r="AF403" s="3"/>
       <c r="AG403" s="1"/>
     </row>
-    <row r="404" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -16184,7 +16226,7 @@
       <c r="AF404" s="3"/>
       <c r="AG404" s="1"/>
     </row>
-    <row r="405" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -16219,7 +16261,7 @@
       <c r="AF405" s="3"/>
       <c r="AG405" s="1"/>
     </row>
-    <row r="406" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -16254,7 +16296,7 @@
       <c r="AF406" s="3"/>
       <c r="AG406" s="1"/>
     </row>
-    <row r="407" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -16289,7 +16331,7 @@
       <c r="AF407" s="3"/>
       <c r="AG407" s="1"/>
     </row>
-    <row r="408" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -16324,7 +16366,7 @@
       <c r="AF408" s="3"/>
       <c r="AG408" s="1"/>
     </row>
-    <row r="409" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -16359,7 +16401,7 @@
       <c r="AF409" s="3"/>
       <c r="AG409" s="1"/>
     </row>
-    <row r="410" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -16394,7 +16436,7 @@
       <c r="AF410" s="3"/>
       <c r="AG410" s="1"/>
     </row>
-    <row r="411" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -16429,7 +16471,7 @@
       <c r="AF411" s="3"/>
       <c r="AG411" s="1"/>
     </row>
-    <row r="412" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -16464,7 +16506,7 @@
       <c r="AF412" s="3"/>
       <c r="AG412" s="1"/>
     </row>
-    <row r="413" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -16499,7 +16541,7 @@
       <c r="AF413" s="3"/>
       <c r="AG413" s="1"/>
     </row>
-    <row r="414" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -16534,7 +16576,7 @@
       <c r="AF414" s="3"/>
       <c r="AG414" s="1"/>
     </row>
-    <row r="415" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -16569,7 +16611,7 @@
       <c r="AF415" s="3"/>
       <c r="AG415" s="1"/>
     </row>
-    <row r="416" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -16604,7 +16646,7 @@
       <c r="AF416" s="3"/>
       <c r="AG416" s="1"/>
     </row>
-    <row r="417" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -16639,7 +16681,7 @@
       <c r="AF417" s="3"/>
       <c r="AG417" s="1"/>
     </row>
-    <row r="418" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -16674,7 +16716,7 @@
       <c r="AF418" s="3"/>
       <c r="AG418" s="1"/>
     </row>
-    <row r="419" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -16709,7 +16751,7 @@
       <c r="AF419" s="3"/>
       <c r="AG419" s="1"/>
     </row>
-    <row r="420" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -16744,7 +16786,7 @@
       <c r="AF420" s="3"/>
       <c r="AG420" s="1"/>
     </row>
-    <row r="421" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -16779,7 +16821,7 @@
       <c r="AF421" s="3"/>
       <c r="AG421" s="1"/>
     </row>
-    <row r="422" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -16814,7 +16856,7 @@
       <c r="AF422" s="3"/>
       <c r="AG422" s="1"/>
     </row>
-    <row r="423" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -16849,7 +16891,7 @@
       <c r="AF423" s="3"/>
       <c r="AG423" s="1"/>
     </row>
-    <row r="424" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -16884,7 +16926,7 @@
       <c r="AF424" s="3"/>
       <c r="AG424" s="1"/>
     </row>
-    <row r="425" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -16919,7 +16961,7 @@
       <c r="AF425" s="3"/>
       <c r="AG425" s="1"/>
     </row>
-    <row r="426" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -16954,7 +16996,7 @@
       <c r="AF426" s="3"/>
       <c r="AG426" s="1"/>
     </row>
-    <row r="427" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -16989,7 +17031,7 @@
       <c r="AF427" s="3"/>
       <c r="AG427" s="1"/>
     </row>
-    <row r="428" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -17024,7 +17066,7 @@
       <c r="AF428" s="3"/>
       <c r="AG428" s="1"/>
     </row>
-    <row r="429" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -17059,7 +17101,7 @@
       <c r="AF429" s="3"/>
       <c r="AG429" s="1"/>
     </row>
-    <row r="430" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -17094,7 +17136,7 @@
       <c r="AF430" s="3"/>
       <c r="AG430" s="1"/>
     </row>
-    <row r="431" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -17129,7 +17171,7 @@
       <c r="AF431" s="3"/>
       <c r="AG431" s="1"/>
     </row>
-    <row r="432" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -17164,7 +17206,7 @@
       <c r="AF432" s="3"/>
       <c r="AG432" s="1"/>
     </row>
-    <row r="433" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -17199,7 +17241,7 @@
       <c r="AF433" s="3"/>
       <c r="AG433" s="1"/>
     </row>
-    <row r="434" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -17234,7 +17276,7 @@
       <c r="AF434" s="3"/>
       <c r="AG434" s="1"/>
     </row>
-    <row r="435" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -17269,7 +17311,7 @@
       <c r="AF435" s="3"/>
       <c r="AG435" s="1"/>
     </row>
-    <row r="436" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -17304,7 +17346,7 @@
       <c r="AF436" s="3"/>
       <c r="AG436" s="1"/>
     </row>
-    <row r="437" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -17339,7 +17381,7 @@
       <c r="AF437" s="3"/>
       <c r="AG437" s="1"/>
     </row>
-    <row r="438" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -17374,7 +17416,7 @@
       <c r="AF438" s="3"/>
       <c r="AG438" s="1"/>
     </row>
-    <row r="439" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -17409,7 +17451,7 @@
       <c r="AF439" s="3"/>
       <c r="AG439" s="1"/>
     </row>
-    <row r="440" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -17444,7 +17486,7 @@
       <c r="AF440" s="3"/>
       <c r="AG440" s="1"/>
     </row>
-    <row r="441" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -17479,7 +17521,7 @@
       <c r="AF441" s="3"/>
       <c r="AG441" s="1"/>
     </row>
-    <row r="442" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -17514,7 +17556,7 @@
       <c r="AF442" s="3"/>
       <c r="AG442" s="1"/>
     </row>
-    <row r="443" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -17549,7 +17591,7 @@
       <c r="AF443" s="3"/>
       <c r="AG443" s="1"/>
     </row>
-    <row r="444" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -17584,7 +17626,7 @@
       <c r="AF444" s="3"/>
       <c r="AG444" s="1"/>
     </row>
-    <row r="445" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -17619,7 +17661,7 @@
       <c r="AF445" s="3"/>
       <c r="AG445" s="1"/>
     </row>
-    <row r="446" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -17654,7 +17696,7 @@
       <c r="AF446" s="3"/>
       <c r="AG446" s="1"/>
     </row>
-    <row r="447" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -17689,7 +17731,7 @@
       <c r="AF447" s="3"/>
       <c r="AG447" s="1"/>
     </row>
-    <row r="448" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -17724,7 +17766,7 @@
       <c r="AF448" s="3"/>
       <c r="AG448" s="1"/>
     </row>
-    <row r="449" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -17759,7 +17801,7 @@
       <c r="AF449" s="3"/>
       <c r="AG449" s="1"/>
     </row>
-    <row r="450" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -17794,7 +17836,7 @@
       <c r="AF450" s="3"/>
       <c r="AG450" s="1"/>
     </row>
-    <row r="451" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -17829,7 +17871,7 @@
       <c r="AF451" s="3"/>
       <c r="AG451" s="1"/>
     </row>
-    <row r="452" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -17864,7 +17906,7 @@
       <c r="AF452" s="3"/>
       <c r="AG452" s="1"/>
     </row>
-    <row r="453" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -17899,7 +17941,7 @@
       <c r="AF453" s="3"/>
       <c r="AG453" s="1"/>
     </row>
-    <row r="454" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -17934,7 +17976,7 @@
       <c r="AF454" s="3"/>
       <c r="AG454" s="1"/>
     </row>
-    <row r="455" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -17969,7 +18011,7 @@
       <c r="AF455" s="3"/>
       <c r="AG455" s="1"/>
     </row>
-    <row r="456" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -18004,7 +18046,7 @@
       <c r="AF456" s="3"/>
       <c r="AG456" s="1"/>
     </row>
-    <row r="457" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -18039,7 +18081,7 @@
       <c r="AF457" s="3"/>
       <c r="AG457" s="1"/>
     </row>
-    <row r="458" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -18074,7 +18116,7 @@
       <c r="AF458" s="3"/>
       <c r="AG458" s="1"/>
     </row>
-    <row r="459" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -18109,7 +18151,7 @@
       <c r="AF459" s="3"/>
       <c r="AG459" s="1"/>
     </row>
-    <row r="460" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -18144,7 +18186,7 @@
       <c r="AF460" s="3"/>
       <c r="AG460" s="1"/>
     </row>
-    <row r="461" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -18179,7 +18221,7 @@
       <c r="AF461" s="3"/>
       <c r="AG461" s="1"/>
     </row>
-    <row r="462" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -18214,7 +18256,7 @@
       <c r="AF462" s="3"/>
       <c r="AG462" s="1"/>
     </row>
-    <row r="463" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -18249,7 +18291,7 @@
       <c r="AF463" s="3"/>
       <c r="AG463" s="1"/>
     </row>
-    <row r="464" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -18284,7 +18326,7 @@
       <c r="AF464" s="3"/>
       <c r="AG464" s="1"/>
     </row>
-    <row r="465" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -18319,7 +18361,7 @@
       <c r="AF465" s="3"/>
       <c r="AG465" s="1"/>
     </row>
-    <row r="466" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -18354,7 +18396,7 @@
       <c r="AF466" s="3"/>
       <c r="AG466" s="1"/>
     </row>
-    <row r="467" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -18389,7 +18431,7 @@
       <c r="AF467" s="3"/>
       <c r="AG467" s="1"/>
     </row>
-    <row r="468" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -18424,7 +18466,7 @@
       <c r="AF468" s="3"/>
       <c r="AG468" s="1"/>
     </row>
-    <row r="469" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -18459,7 +18501,7 @@
       <c r="AF469" s="3"/>
       <c r="AG469" s="1"/>
     </row>
-    <row r="470" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -18494,7 +18536,7 @@
       <c r="AF470" s="3"/>
       <c r="AG470" s="1"/>
     </row>
-    <row r="471" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -18529,7 +18571,7 @@
       <c r="AF471" s="3"/>
       <c r="AG471" s="1"/>
     </row>
-    <row r="472" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -18564,7 +18606,7 @@
       <c r="AF472" s="3"/>
       <c r="AG472" s="1"/>
     </row>
-    <row r="473" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -18599,7 +18641,7 @@
       <c r="AF473" s="3"/>
       <c r="AG473" s="1"/>
     </row>
-    <row r="474" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -18634,7 +18676,7 @@
       <c r="AF474" s="3"/>
       <c r="AG474" s="1"/>
     </row>
-    <row r="475" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -18669,7 +18711,7 @@
       <c r="AF475" s="3"/>
       <c r="AG475" s="1"/>
     </row>
-    <row r="476" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -18704,7 +18746,7 @@
       <c r="AF476" s="3"/>
       <c r="AG476" s="1"/>
     </row>
-    <row r="477" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -18739,7 +18781,7 @@
       <c r="AF477" s="3"/>
       <c r="AG477" s="1"/>
     </row>
-    <row r="478" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -18774,7 +18816,7 @@
       <c r="AF478" s="3"/>
       <c r="AG478" s="1"/>
     </row>
-    <row r="479" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -18809,7 +18851,7 @@
       <c r="AF479" s="3"/>
       <c r="AG479" s="1"/>
     </row>
-    <row r="480" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -18844,7 +18886,7 @@
       <c r="AF480" s="3"/>
       <c r="AG480" s="1"/>
     </row>
-    <row r="481" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -18879,7 +18921,7 @@
       <c r="AF481" s="3"/>
       <c r="AG481" s="1"/>
     </row>
-    <row r="482" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -18914,7 +18956,7 @@
       <c r="AF482" s="3"/>
       <c r="AG482" s="1"/>
     </row>
-    <row r="483" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -18949,7 +18991,7 @@
       <c r="AF483" s="3"/>
       <c r="AG483" s="1"/>
     </row>
-    <row r="484" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -18984,7 +19026,7 @@
       <c r="AF484" s="3"/>
       <c r="AG484" s="1"/>
     </row>
-    <row r="485" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -19019,7 +19061,7 @@
       <c r="AF485" s="3"/>
       <c r="AG485" s="1"/>
     </row>
-    <row r="486" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -19054,7 +19096,7 @@
       <c r="AF486" s="3"/>
       <c r="AG486" s="1"/>
     </row>
-    <row r="487" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -19089,7 +19131,7 @@
       <c r="AF487" s="3"/>
       <c r="AG487" s="1"/>
     </row>
-    <row r="488" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -19124,7 +19166,7 @@
       <c r="AF488" s="3"/>
       <c r="AG488" s="1"/>
     </row>
-    <row r="489" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -19159,7 +19201,7 @@
       <c r="AF489" s="3"/>
       <c r="AG489" s="1"/>
     </row>
-    <row r="490" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -19194,7 +19236,7 @@
       <c r="AF490" s="3"/>
       <c r="AG490" s="1"/>
     </row>
-    <row r="491" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -19229,7 +19271,7 @@
       <c r="AF491" s="3"/>
       <c r="AG491" s="1"/>
     </row>
-    <row r="492" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -19264,7 +19306,7 @@
       <c r="AF492" s="3"/>
       <c r="AG492" s="1"/>
     </row>
-    <row r="493" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -19299,7 +19341,7 @@
       <c r="AF493" s="3"/>
       <c r="AG493" s="1"/>
     </row>
-    <row r="494" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -19334,7 +19376,7 @@
       <c r="AF494" s="3"/>
       <c r="AG494" s="1"/>
     </row>
-    <row r="495" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -19369,7 +19411,7 @@
       <c r="AF495" s="3"/>
       <c r="AG495" s="1"/>
     </row>
-    <row r="496" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -19404,7 +19446,7 @@
       <c r="AF496" s="3"/>
       <c r="AG496" s="1"/>
     </row>
-    <row r="497" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -19439,7 +19481,7 @@
       <c r="AF497" s="3"/>
       <c r="AG497" s="1"/>
     </row>
-    <row r="498" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -19474,7 +19516,7 @@
       <c r="AF498" s="3"/>
       <c r="AG498" s="1"/>
     </row>
-    <row r="499" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -19509,7 +19551,7 @@
       <c r="AF499" s="3"/>
       <c r="AG499" s="1"/>
     </row>
-    <row r="500" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -19544,7 +19586,7 @@
       <c r="AF500" s="3"/>
       <c r="AG500" s="1"/>
     </row>
-    <row r="501" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -19579,7 +19621,7 @@
       <c r="AF501" s="3"/>
       <c r="AG501" s="1"/>
     </row>
-    <row r="502" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -19614,7 +19656,7 @@
       <c r="AF502" s="3"/>
       <c r="AG502" s="1"/>
     </row>
-    <row r="503" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -19649,7 +19691,7 @@
       <c r="AF503" s="3"/>
       <c r="AG503" s="1"/>
     </row>
-    <row r="504" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -19684,7 +19726,7 @@
       <c r="AF504" s="3"/>
       <c r="AG504" s="1"/>
     </row>
-    <row r="505" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -19719,7 +19761,7 @@
       <c r="AF505" s="3"/>
       <c r="AG505" s="1"/>
     </row>
-    <row r="506" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -19754,7 +19796,7 @@
       <c r="AF506" s="3"/>
       <c r="AG506" s="1"/>
     </row>
-    <row r="507" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -19789,7 +19831,7 @@
       <c r="AF507" s="3"/>
       <c r="AG507" s="1"/>
     </row>
-    <row r="508" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -19824,7 +19866,7 @@
       <c r="AF508" s="3"/>
       <c r="AG508" s="1"/>
     </row>
-    <row r="509" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -19859,7 +19901,7 @@
       <c r="AF509" s="3"/>
       <c r="AG509" s="1"/>
     </row>
-    <row r="510" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -19894,7 +19936,7 @@
       <c r="AF510" s="3"/>
       <c r="AG510" s="1"/>
     </row>
-    <row r="511" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -19929,7 +19971,7 @@
       <c r="AF511" s="3"/>
       <c r="AG511" s="1"/>
     </row>
-    <row r="512" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -19964,7 +20006,7 @@
       <c r="AF512" s="3"/>
       <c r="AG512" s="1"/>
     </row>
-    <row r="513" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -19999,7 +20041,7 @@
       <c r="AF513" s="3"/>
       <c r="AG513" s="1"/>
     </row>
-    <row r="514" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -20034,7 +20076,7 @@
       <c r="AF514" s="3"/>
       <c r="AG514" s="1"/>
     </row>
-    <row r="515" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -20069,7 +20111,7 @@
       <c r="AF515" s="3"/>
       <c r="AG515" s="1"/>
     </row>
-    <row r="516" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -20104,7 +20146,7 @@
       <c r="AF516" s="3"/>
       <c r="AG516" s="1"/>
     </row>
-    <row r="517" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -20139,7 +20181,7 @@
       <c r="AF517" s="3"/>
       <c r="AG517" s="1"/>
     </row>
-    <row r="518" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -20174,7 +20216,7 @@
       <c r="AF518" s="3"/>
       <c r="AG518" s="1"/>
     </row>
-    <row r="519" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -20209,7 +20251,7 @@
       <c r="AF519" s="3"/>
       <c r="AG519" s="1"/>
     </row>
-    <row r="520" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -20244,7 +20286,7 @@
       <c r="AF520" s="3"/>
       <c r="AG520" s="1"/>
     </row>
-    <row r="521" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -20279,7 +20321,7 @@
       <c r="AF521" s="3"/>
       <c r="AG521" s="1"/>
     </row>
-    <row r="522" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -20314,7 +20356,7 @@
       <c r="AF522" s="3"/>
       <c r="AG522" s="1"/>
     </row>
-    <row r="523" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -20349,7 +20391,7 @@
       <c r="AF523" s="3"/>
       <c r="AG523" s="1"/>
     </row>
-    <row r="524" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -20384,7 +20426,7 @@
       <c r="AF524" s="3"/>
       <c r="AG524" s="1"/>
     </row>
-    <row r="525" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -20419,7 +20461,7 @@
       <c r="AF525" s="3"/>
       <c r="AG525" s="1"/>
     </row>
-    <row r="526" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -20454,7 +20496,7 @@
       <c r="AF526" s="3"/>
       <c r="AG526" s="1"/>
     </row>
-    <row r="527" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -20489,7 +20531,7 @@
       <c r="AF527" s="3"/>
       <c r="AG527" s="1"/>
     </row>
-    <row r="528" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -20524,7 +20566,7 @@
       <c r="AF528" s="3"/>
       <c r="AG528" s="1"/>
     </row>
-    <row r="529" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -20559,7 +20601,7 @@
       <c r="AF529" s="3"/>
       <c r="AG529" s="1"/>
     </row>
-    <row r="530" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -20594,7 +20636,7 @@
       <c r="AF530" s="3"/>
       <c r="AG530" s="1"/>
     </row>
-    <row r="531" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -20629,7 +20671,7 @@
       <c r="AF531" s="3"/>
       <c r="AG531" s="1"/>
     </row>
-    <row r="532" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -20664,7 +20706,7 @@
       <c r="AF532" s="3"/>
       <c r="AG532" s="1"/>
     </row>
-    <row r="533" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -20699,7 +20741,7 @@
       <c r="AF533" s="3"/>
       <c r="AG533" s="1"/>
     </row>
-    <row r="534" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -20734,7 +20776,7 @@
       <c r="AF534" s="3"/>
       <c r="AG534" s="1"/>
     </row>
-    <row r="535" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -20769,7 +20811,7 @@
       <c r="AF535" s="3"/>
       <c r="AG535" s="1"/>
     </row>
-    <row r="536" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -20804,7 +20846,7 @@
       <c r="AF536" s="3"/>
       <c r="AG536" s="1"/>
     </row>
-    <row r="537" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -20839,7 +20881,7 @@
       <c r="AF537" s="3"/>
       <c r="AG537" s="1"/>
     </row>
-    <row r="538" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -20874,7 +20916,7 @@
       <c r="AF538" s="3"/>
       <c r="AG538" s="1"/>
     </row>
-    <row r="539" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -20909,7 +20951,7 @@
       <c r="AF539" s="3"/>
       <c r="AG539" s="1"/>
     </row>
-    <row r="540" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -20944,7 +20986,7 @@
       <c r="AF540" s="3"/>
       <c r="AG540" s="1"/>
     </row>
-    <row r="541" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -20979,7 +21021,7 @@
       <c r="AF541" s="3"/>
       <c r="AG541" s="1"/>
     </row>
-    <row r="542" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -21014,7 +21056,7 @@
       <c r="AF542" s="3"/>
       <c r="AG542" s="1"/>
     </row>
-    <row r="543" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -21049,7 +21091,7 @@
       <c r="AF543" s="3"/>
       <c r="AG543" s="1"/>
     </row>
-    <row r="544" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -21084,7 +21126,7 @@
       <c r="AF544" s="3"/>
       <c r="AG544" s="1"/>
     </row>
-    <row r="545" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -21119,7 +21161,7 @@
       <c r="AF545" s="3"/>
       <c r="AG545" s="1"/>
     </row>
-    <row r="546" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -21154,7 +21196,7 @@
       <c r="AF546" s="3"/>
       <c r="AG546" s="1"/>
     </row>
-    <row r="547" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -21189,7 +21231,7 @@
       <c r="AF547" s="3"/>
       <c r="AG547" s="1"/>
     </row>
-    <row r="548" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -21224,7 +21266,7 @@
       <c r="AF548" s="3"/>
       <c r="AG548" s="1"/>
     </row>
-    <row r="549" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -21259,7 +21301,7 @@
       <c r="AF549" s="3"/>
       <c r="AG549" s="1"/>
     </row>
-    <row r="550" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -21294,7 +21336,7 @@
       <c r="AF550" s="3"/>
       <c r="AG550" s="1"/>
     </row>
-    <row r="551" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -21329,7 +21371,7 @@
       <c r="AF551" s="3"/>
       <c r="AG551" s="1"/>
     </row>
-    <row r="552" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -21364,7 +21406,7 @@
       <c r="AF552" s="3"/>
       <c r="AG552" s="1"/>
     </row>
-    <row r="553" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -21399,7 +21441,7 @@
       <c r="AF553" s="3"/>
       <c r="AG553" s="1"/>
     </row>
-    <row r="554" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -21434,7 +21476,7 @@
       <c r="AF554" s="3"/>
       <c r="AG554" s="1"/>
     </row>
-    <row r="555" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -21469,7 +21511,7 @@
       <c r="AF555" s="3"/>
       <c r="AG555" s="1"/>
     </row>
-    <row r="556" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -21504,7 +21546,7 @@
       <c r="AF556" s="3"/>
       <c r="AG556" s="1"/>
     </row>
-    <row r="557" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -21539,7 +21581,7 @@
       <c r="AF557" s="3"/>
       <c r="AG557" s="1"/>
     </row>
-    <row r="558" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -21574,7 +21616,7 @@
       <c r="AF558" s="3"/>
       <c r="AG558" s="1"/>
     </row>
-    <row r="559" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -21609,7 +21651,7 @@
       <c r="AF559" s="3"/>
       <c r="AG559" s="1"/>
     </row>
-    <row r="560" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -21644,7 +21686,7 @@
       <c r="AF560" s="3"/>
       <c r="AG560" s="1"/>
     </row>
-    <row r="561" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -21679,7 +21721,7 @@
       <c r="AF561" s="3"/>
       <c r="AG561" s="1"/>
     </row>
-    <row r="562" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -21714,7 +21756,7 @@
       <c r="AF562" s="3"/>
       <c r="AG562" s="1"/>
     </row>
-    <row r="563" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -21749,7 +21791,7 @@
       <c r="AF563" s="3"/>
       <c r="AG563" s="1"/>
     </row>
-    <row r="564" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -21784,7 +21826,7 @@
       <c r="AF564" s="3"/>
       <c r="AG564" s="1"/>
     </row>
-    <row r="565" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -21819,7 +21861,7 @@
       <c r="AF565" s="3"/>
       <c r="AG565" s="1"/>
     </row>
-    <row r="566" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -21854,7 +21896,7 @@
       <c r="AF566" s="3"/>
       <c r="AG566" s="1"/>
     </row>
-    <row r="567" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -21889,7 +21931,7 @@
       <c r="AF567" s="3"/>
       <c r="AG567" s="1"/>
     </row>
-    <row r="568" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -21924,7 +21966,7 @@
       <c r="AF568" s="3"/>
       <c r="AG568" s="1"/>
     </row>
-    <row r="569" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -21959,7 +22001,7 @@
       <c r="AF569" s="3"/>
       <c r="AG569" s="1"/>
     </row>
-    <row r="570" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -21994,7 +22036,7 @@
       <c r="AF570" s="3"/>
       <c r="AG570" s="1"/>
     </row>
-    <row r="571" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -22029,7 +22071,7 @@
       <c r="AF571" s="3"/>
       <c r="AG571" s="1"/>
     </row>
-    <row r="572" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -22064,7 +22106,7 @@
       <c r="AF572" s="3"/>
       <c r="AG572" s="1"/>
     </row>
-    <row r="573" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -22099,7 +22141,7 @@
       <c r="AF573" s="3"/>
       <c r="AG573" s="1"/>
     </row>
-    <row r="574" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -22134,7 +22176,7 @@
       <c r="AF574" s="3"/>
       <c r="AG574" s="1"/>
     </row>
-    <row r="575" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -22169,7 +22211,7 @@
       <c r="AF575" s="3"/>
       <c r="AG575" s="1"/>
     </row>
-    <row r="576" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -22204,7 +22246,7 @@
       <c r="AF576" s="3"/>
       <c r="AG576" s="1"/>
     </row>
-    <row r="577" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -22239,7 +22281,7 @@
       <c r="AF577" s="3"/>
       <c r="AG577" s="1"/>
     </row>
-    <row r="578" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -22274,7 +22316,7 @@
       <c r="AF578" s="3"/>
       <c r="AG578" s="1"/>
     </row>
-    <row r="579" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -22309,7 +22351,7 @@
       <c r="AF579" s="3"/>
       <c r="AG579" s="1"/>
     </row>
-    <row r="580" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -22344,7 +22386,7 @@
       <c r="AF580" s="3"/>
       <c r="AG580" s="1"/>
     </row>
-    <row r="581" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -22379,7 +22421,7 @@
       <c r="AF581" s="3"/>
       <c r="AG581" s="1"/>
     </row>
-    <row r="582" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -22414,7 +22456,7 @@
       <c r="AF582" s="3"/>
       <c r="AG582" s="1"/>
     </row>
-    <row r="583" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -22449,7 +22491,7 @@
       <c r="AF583" s="3"/>
       <c r="AG583" s="1"/>
     </row>
-    <row r="584" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -22484,7 +22526,7 @@
       <c r="AF584" s="3"/>
       <c r="AG584" s="1"/>
     </row>
-    <row r="585" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -22519,7 +22561,7 @@
       <c r="AF585" s="3"/>
       <c r="AG585" s="1"/>
     </row>
-    <row r="586" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -22554,7 +22596,7 @@
       <c r="AF586" s="3"/>
       <c r="AG586" s="1"/>
     </row>
-    <row r="587" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -22589,7 +22631,7 @@
       <c r="AF587" s="3"/>
       <c r="AG587" s="1"/>
     </row>
-    <row r="588" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -22624,7 +22666,7 @@
       <c r="AF588" s="3"/>
       <c r="AG588" s="1"/>
     </row>
-    <row r="589" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -22659,7 +22701,7 @@
       <c r="AF589" s="3"/>
       <c r="AG589" s="1"/>
     </row>
-    <row r="590" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -22694,7 +22736,7 @@
       <c r="AF590" s="3"/>
       <c r="AG590" s="1"/>
     </row>
-    <row r="591" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -22729,7 +22771,7 @@
       <c r="AF591" s="3"/>
       <c r="AG591" s="1"/>
     </row>
-    <row r="592" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -22764,7 +22806,7 @@
       <c r="AF592" s="3"/>
       <c r="AG592" s="1"/>
     </row>
-    <row r="593" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -22799,7 +22841,7 @@
       <c r="AF593" s="3"/>
       <c r="AG593" s="1"/>
     </row>
-    <row r="594" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -22834,7 +22876,7 @@
       <c r="AF594" s="3"/>
       <c r="AG594" s="1"/>
     </row>
-    <row r="595" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -22869,7 +22911,7 @@
       <c r="AF595" s="3"/>
       <c r="AG595" s="1"/>
     </row>
-    <row r="596" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -22904,7 +22946,7 @@
       <c r="AF596" s="3"/>
       <c r="AG596" s="1"/>
     </row>
-    <row r="597" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -22939,7 +22981,7 @@
       <c r="AF597" s="3"/>
       <c r="AG597" s="1"/>
     </row>
-    <row r="598" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -22974,7 +23016,7 @@
       <c r="AF598" s="3"/>
       <c r="AG598" s="1"/>
     </row>
-    <row r="599" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -23009,7 +23051,7 @@
       <c r="AF599" s="3"/>
       <c r="AG599" s="1"/>
     </row>
-    <row r="600" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -23044,7 +23086,7 @@
       <c r="AF600" s="3"/>
       <c r="AG600" s="1"/>
     </row>
-    <row r="601" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -23079,7 +23121,7 @@
       <c r="AF601" s="3"/>
       <c r="AG601" s="1"/>
     </row>
-    <row r="602" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -23114,7 +23156,7 @@
       <c r="AF602" s="3"/>
       <c r="AG602" s="1"/>
     </row>
-    <row r="603" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -23149,7 +23191,7 @@
       <c r="AF603" s="3"/>
       <c r="AG603" s="1"/>
     </row>
-    <row r="604" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -23184,7 +23226,7 @@
       <c r="AF604" s="3"/>
       <c r="AG604" s="1"/>
     </row>
-    <row r="605" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -23219,7 +23261,7 @@
       <c r="AF605" s="3"/>
       <c r="AG605" s="1"/>
     </row>
-    <row r="606" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -23254,7 +23296,7 @@
       <c r="AF606" s="3"/>
       <c r="AG606" s="1"/>
     </row>
-    <row r="607" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -23289,7 +23331,7 @@
       <c r="AF607" s="3"/>
       <c r="AG607" s="1"/>
     </row>
-    <row r="608" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -23324,7 +23366,7 @@
       <c r="AF608" s="3"/>
       <c r="AG608" s="1"/>
     </row>
-    <row r="609" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -23359,7 +23401,7 @@
       <c r="AF609" s="3"/>
       <c r="AG609" s="1"/>
     </row>
-    <row r="610" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -23394,7 +23436,7 @@
       <c r="AF610" s="3"/>
       <c r="AG610" s="1"/>
     </row>
-    <row r="611" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -23429,7 +23471,7 @@
       <c r="AF611" s="3"/>
       <c r="AG611" s="1"/>
     </row>
-    <row r="612" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -23464,7 +23506,7 @@
       <c r="AF612" s="3"/>
       <c r="AG612" s="1"/>
     </row>
-    <row r="613" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -23499,7 +23541,7 @@
       <c r="AF613" s="3"/>
       <c r="AG613" s="1"/>
     </row>
-    <row r="614" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -23534,7 +23576,7 @@
       <c r="AF614" s="3"/>
       <c r="AG614" s="1"/>
     </row>
-    <row r="615" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -23569,7 +23611,7 @@
       <c r="AF615" s="3"/>
       <c r="AG615" s="1"/>
     </row>
-    <row r="616" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -23604,7 +23646,7 @@
       <c r="AF616" s="3"/>
       <c r="AG616" s="1"/>
     </row>
-    <row r="617" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -23639,7 +23681,7 @@
       <c r="AF617" s="3"/>
       <c r="AG617" s="1"/>
     </row>
-    <row r="618" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -23674,7 +23716,7 @@
       <c r="AF618" s="3"/>
       <c r="AG618" s="1"/>
     </row>
-    <row r="619" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -23709,7 +23751,7 @@
       <c r="AF619" s="3"/>
       <c r="AG619" s="1"/>
     </row>
-    <row r="620" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -23744,7 +23786,7 @@
       <c r="AF620" s="3"/>
       <c r="AG620" s="1"/>
     </row>
-    <row r="621" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -23779,7 +23821,7 @@
       <c r="AF621" s="3"/>
       <c r="AG621" s="1"/>
     </row>
-    <row r="622" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -23814,7 +23856,7 @@
       <c r="AF622" s="3"/>
       <c r="AG622" s="1"/>
     </row>
-    <row r="623" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -23849,7 +23891,7 @@
       <c r="AF623" s="3"/>
       <c r="AG623" s="1"/>
     </row>
-    <row r="624" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -23884,7 +23926,7 @@
       <c r="AF624" s="3"/>
       <c r="AG624" s="1"/>
     </row>
-    <row r="625" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -23919,7 +23961,7 @@
       <c r="AF625" s="3"/>
       <c r="AG625" s="1"/>
     </row>
-    <row r="626" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -23954,7 +23996,7 @@
       <c r="AF626" s="3"/>
       <c r="AG626" s="1"/>
     </row>
-    <row r="627" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -23989,7 +24031,7 @@
       <c r="AF627" s="3"/>
       <c r="AG627" s="1"/>
     </row>
-    <row r="628" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -24024,7 +24066,7 @@
       <c r="AF628" s="3"/>
       <c r="AG628" s="1"/>
     </row>
-    <row r="629" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -24059,7 +24101,7 @@
       <c r="AF629" s="3"/>
       <c r="AG629" s="1"/>
     </row>
-    <row r="630" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -24094,7 +24136,7 @@
       <c r="AF630" s="3"/>
       <c r="AG630" s="1"/>
     </row>
-    <row r="631" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -24129,7 +24171,7 @@
       <c r="AF631" s="3"/>
       <c r="AG631" s="1"/>
     </row>
-    <row r="632" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -24164,7 +24206,7 @@
       <c r="AF632" s="3"/>
       <c r="AG632" s="1"/>
     </row>
-    <row r="633" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -24199,7 +24241,7 @@
       <c r="AF633" s="3"/>
       <c r="AG633" s="1"/>
     </row>
-    <row r="634" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -24234,7 +24276,7 @@
       <c r="AF634" s="3"/>
       <c r="AG634" s="1"/>
     </row>
-    <row r="635" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -24269,7 +24311,7 @@
       <c r="AF635" s="3"/>
       <c r="AG635" s="1"/>
     </row>
-    <row r="636" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -24304,7 +24346,7 @@
       <c r="AF636" s="3"/>
       <c r="AG636" s="1"/>
     </row>
-    <row r="637" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -24339,7 +24381,7 @@
       <c r="AF637" s="3"/>
       <c r="AG637" s="1"/>
     </row>
-    <row r="638" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -24374,7 +24416,7 @@
       <c r="AF638" s="3"/>
       <c r="AG638" s="1"/>
     </row>
-    <row r="639" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -24409,7 +24451,7 @@
       <c r="AF639" s="3"/>
       <c r="AG639" s="1"/>
     </row>
-    <row r="640" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -24444,7 +24486,7 @@
       <c r="AF640" s="3"/>
       <c r="AG640" s="1"/>
     </row>
-    <row r="641" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -24479,7 +24521,7 @@
       <c r="AF641" s="3"/>
       <c r="AG641" s="1"/>
     </row>
-    <row r="642" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -24514,7 +24556,7 @@
       <c r="AF642" s="3"/>
       <c r="AG642" s="1"/>
     </row>
-    <row r="643" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -24549,7 +24591,7 @@
       <c r="AF643" s="3"/>
       <c r="AG643" s="1"/>
     </row>
-    <row r="644" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -24584,7 +24626,7 @@
       <c r="AF644" s="3"/>
       <c r="AG644" s="1"/>
     </row>
-    <row r="645" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -24619,7 +24661,7 @@
       <c r="AF645" s="3"/>
       <c r="AG645" s="1"/>
     </row>
-    <row r="646" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -24654,7 +24696,7 @@
       <c r="AF646" s="3"/>
       <c r="AG646" s="1"/>
     </row>
-    <row r="647" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -24689,7 +24731,7 @@
       <c r="AF647" s="3"/>
       <c r="AG647" s="1"/>
     </row>
-    <row r="648" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -24724,7 +24766,7 @@
       <c r="AF648" s="3"/>
       <c r="AG648" s="1"/>
     </row>
-    <row r="649" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -24759,7 +24801,7 @@
       <c r="AF649" s="3"/>
       <c r="AG649" s="1"/>
     </row>
-    <row r="650" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -24794,7 +24836,7 @@
       <c r="AF650" s="3"/>
       <c r="AG650" s="1"/>
     </row>
-    <row r="651" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -24829,7 +24871,7 @@
       <c r="AF651" s="3"/>
       <c r="AG651" s="1"/>
     </row>
-    <row r="652" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -24864,7 +24906,7 @@
       <c r="AF652" s="3"/>
       <c r="AG652" s="1"/>
     </row>
-    <row r="653" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -24899,7 +24941,7 @@
       <c r="AF653" s="3"/>
       <c r="AG653" s="1"/>
     </row>
-    <row r="654" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -24934,7 +24976,7 @@
       <c r="AF654" s="3"/>
       <c r="AG654" s="1"/>
     </row>
-    <row r="655" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -24969,7 +25011,7 @@
       <c r="AF655" s="3"/>
       <c r="AG655" s="1"/>
     </row>
-    <row r="656" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -25004,7 +25046,7 @@
       <c r="AF656" s="3"/>
       <c r="AG656" s="1"/>
     </row>
-    <row r="657" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -25039,7 +25081,7 @@
       <c r="AF657" s="3"/>
       <c r="AG657" s="1"/>
     </row>
-    <row r="658" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -25074,7 +25116,7 @@
       <c r="AF658" s="3"/>
       <c r="AG658" s="1"/>
     </row>
-    <row r="659" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -25109,7 +25151,7 @@
       <c r="AF659" s="3"/>
       <c r="AG659" s="1"/>
     </row>
-    <row r="660" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -25144,7 +25186,7 @@
       <c r="AF660" s="3"/>
       <c r="AG660" s="1"/>
     </row>
-    <row r="661" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -25179,7 +25221,7 @@
       <c r="AF661" s="3"/>
       <c r="AG661" s="1"/>
     </row>
-    <row r="662" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -25214,7 +25256,7 @@
       <c r="AF662" s="3"/>
       <c r="AG662" s="1"/>
     </row>
-    <row r="663" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -25249,7 +25291,7 @@
       <c r="AF663" s="3"/>
       <c r="AG663" s="1"/>
     </row>
-    <row r="664" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -25284,7 +25326,7 @@
       <c r="AF664" s="3"/>
       <c r="AG664" s="1"/>
     </row>
-    <row r="665" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -25319,7 +25361,7 @@
       <c r="AF665" s="3"/>
       <c r="AG665" s="1"/>
     </row>
-    <row r="666" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -25354,7 +25396,7 @@
       <c r="AF666" s="3"/>
       <c r="AG666" s="1"/>
     </row>
-    <row r="667" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -25389,7 +25431,7 @@
       <c r="AF667" s="3"/>
       <c r="AG667" s="1"/>
     </row>
-    <row r="668" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -25424,7 +25466,7 @@
       <c r="AF668" s="3"/>
       <c r="AG668" s="1"/>
     </row>
-    <row r="669" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -25459,7 +25501,7 @@
       <c r="AF669" s="3"/>
       <c r="AG669" s="1"/>
     </row>
-    <row r="670" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -25494,7 +25536,7 @@
       <c r="AF670" s="3"/>
       <c r="AG670" s="1"/>
     </row>
-    <row r="671" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -25529,7 +25571,7 @@
       <c r="AF671" s="3"/>
       <c r="AG671" s="1"/>
     </row>
-    <row r="672" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -25564,7 +25606,7 @@
       <c r="AF672" s="3"/>
       <c r="AG672" s="1"/>
     </row>
-    <row r="673" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -25599,7 +25641,7 @@
       <c r="AF673" s="3"/>
       <c r="AG673" s="1"/>
     </row>
-    <row r="674" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -25634,7 +25676,7 @@
       <c r="AF674" s="3"/>
       <c r="AG674" s="1"/>
     </row>
-    <row r="675" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -25669,7 +25711,7 @@
       <c r="AF675" s="3"/>
       <c r="AG675" s="1"/>
     </row>
-    <row r="676" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -25704,7 +25746,7 @@
       <c r="AF676" s="3"/>
       <c r="AG676" s="1"/>
     </row>
-    <row r="677" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -25739,7 +25781,7 @@
       <c r="AF677" s="3"/>
       <c r="AG677" s="1"/>
     </row>
-    <row r="678" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -25774,7 +25816,7 @@
       <c r="AF678" s="3"/>
       <c r="AG678" s="1"/>
     </row>
-    <row r="679" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -25809,7 +25851,7 @@
       <c r="AF679" s="3"/>
       <c r="AG679" s="1"/>
     </row>
-    <row r="680" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -25844,7 +25886,7 @@
       <c r="AF680" s="3"/>
       <c r="AG680" s="1"/>
     </row>
-    <row r="681" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -25879,7 +25921,7 @@
       <c r="AF681" s="3"/>
       <c r="AG681" s="1"/>
     </row>
-    <row r="682" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -25914,7 +25956,7 @@
       <c r="AF682" s="3"/>
       <c r="AG682" s="1"/>
     </row>
-    <row r="683" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -25949,7 +25991,7 @@
       <c r="AF683" s="3"/>
       <c r="AG683" s="1"/>
     </row>
-    <row r="684" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -25984,7 +26026,7 @@
       <c r="AF684" s="3"/>
       <c r="AG684" s="1"/>
     </row>
-    <row r="685" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -26019,7 +26061,7 @@
       <c r="AF685" s="3"/>
       <c r="AG685" s="1"/>
     </row>
-    <row r="686" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -26054,7 +26096,7 @@
       <c r="AF686" s="3"/>
       <c r="AG686" s="1"/>
     </row>
-    <row r="687" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -26089,7 +26131,7 @@
       <c r="AF687" s="3"/>
       <c r="AG687" s="1"/>
     </row>
-    <row r="688" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -26124,7 +26166,7 @@
       <c r="AF688" s="3"/>
       <c r="AG688" s="1"/>
     </row>
-    <row r="689" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -26159,7 +26201,7 @@
       <c r="AF689" s="3"/>
       <c r="AG689" s="1"/>
     </row>
-    <row r="690" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -26194,7 +26236,7 @@
       <c r="AF690" s="3"/>
       <c r="AG690" s="1"/>
     </row>
-    <row r="691" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -26229,7 +26271,7 @@
       <c r="AF691" s="3"/>
       <c r="AG691" s="1"/>
     </row>
-    <row r="692" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -26264,7 +26306,7 @@
       <c r="AF692" s="3"/>
       <c r="AG692" s="1"/>
     </row>
-    <row r="693" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -26299,7 +26341,7 @@
       <c r="AF693" s="3"/>
       <c r="AG693" s="1"/>
     </row>
-    <row r="694" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -26334,7 +26376,7 @@
       <c r="AF694" s="3"/>
       <c r="AG694" s="1"/>
     </row>
-    <row r="695" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -26369,7 +26411,7 @@
       <c r="AF695" s="3"/>
       <c r="AG695" s="1"/>
     </row>
-    <row r="696" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -26404,7 +26446,7 @@
       <c r="AF696" s="3"/>
       <c r="AG696" s="1"/>
     </row>
-    <row r="697" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -26439,7 +26481,7 @@
       <c r="AF697" s="3"/>
       <c r="AG697" s="1"/>
     </row>
-    <row r="698" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -26474,7 +26516,7 @@
       <c r="AF698" s="3"/>
       <c r="AG698" s="1"/>
     </row>
-    <row r="699" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -26509,7 +26551,7 @@
       <c r="AF699" s="3"/>
       <c r="AG699" s="1"/>
     </row>
-    <row r="700" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -26544,7 +26586,7 @@
       <c r="AF700" s="3"/>
       <c r="AG700" s="1"/>
     </row>
-    <row r="701" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -26579,7 +26621,7 @@
       <c r="AF701" s="3"/>
       <c r="AG701" s="1"/>
     </row>
-    <row r="702" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -26614,7 +26656,7 @@
       <c r="AF702" s="3"/>
       <c r="AG702" s="1"/>
     </row>
-    <row r="703" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -26649,7 +26691,7 @@
       <c r="AF703" s="3"/>
       <c r="AG703" s="1"/>
     </row>
-    <row r="704" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -26684,7 +26726,7 @@
       <c r="AF704" s="3"/>
       <c r="AG704" s="1"/>
     </row>
-    <row r="705" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -26719,7 +26761,7 @@
       <c r="AF705" s="3"/>
       <c r="AG705" s="1"/>
     </row>
-    <row r="706" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -26754,7 +26796,7 @@
       <c r="AF706" s="3"/>
       <c r="AG706" s="1"/>
     </row>
-    <row r="707" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -26789,7 +26831,7 @@
       <c r="AF707" s="3"/>
       <c r="AG707" s="1"/>
     </row>
-    <row r="708" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -26824,7 +26866,7 @@
       <c r="AF708" s="3"/>
       <c r="AG708" s="1"/>
     </row>
-    <row r="709" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -26859,7 +26901,7 @@
       <c r="AF709" s="3"/>
       <c r="AG709" s="1"/>
     </row>
-    <row r="710" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -26894,7 +26936,7 @@
       <c r="AF710" s="3"/>
       <c r="AG710" s="1"/>
     </row>
-    <row r="711" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -26929,7 +26971,7 @@
       <c r="AF711" s="3"/>
       <c r="AG711" s="1"/>
     </row>
-    <row r="712" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -26964,7 +27006,7 @@
       <c r="AF712" s="3"/>
       <c r="AG712" s="1"/>
     </row>
-    <row r="713" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -26999,7 +27041,7 @@
       <c r="AF713" s="3"/>
       <c r="AG713" s="1"/>
     </row>
-    <row r="714" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -27034,7 +27076,7 @@
       <c r="AF714" s="3"/>
       <c r="AG714" s="1"/>
     </row>
-    <row r="715" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -27069,7 +27111,7 @@
       <c r="AF715" s="3"/>
       <c r="AG715" s="1"/>
     </row>
-    <row r="716" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -27104,7 +27146,7 @@
       <c r="AF716" s="3"/>
       <c r="AG716" s="1"/>
     </row>
-    <row r="717" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -27139,7 +27181,7 @@
       <c r="AF717" s="3"/>
       <c r="AG717" s="1"/>
     </row>
-    <row r="718" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -27174,7 +27216,7 @@
       <c r="AF718" s="3"/>
       <c r="AG718" s="1"/>
     </row>
-    <row r="719" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -27209,7 +27251,7 @@
       <c r="AF719" s="3"/>
       <c r="AG719" s="1"/>
     </row>
-    <row r="720" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -27244,7 +27286,7 @@
       <c r="AF720" s="3"/>
       <c r="AG720" s="1"/>
     </row>
-    <row r="721" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -27279,7 +27321,7 @@
       <c r="AF721" s="3"/>
       <c r="AG721" s="1"/>
     </row>
-    <row r="722" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -27314,7 +27356,7 @@
       <c r="AF722" s="3"/>
       <c r="AG722" s="1"/>
     </row>
-    <row r="723" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -27349,7 +27391,7 @@
       <c r="AF723" s="3"/>
       <c r="AG723" s="1"/>
     </row>
-    <row r="724" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -27384,7 +27426,7 @@
       <c r="AF724" s="3"/>
       <c r="AG724" s="1"/>
     </row>
-    <row r="725" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -27419,7 +27461,7 @@
       <c r="AF725" s="3"/>
       <c r="AG725" s="1"/>
     </row>
-    <row r="726" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -27454,7 +27496,7 @@
       <c r="AF726" s="3"/>
       <c r="AG726" s="1"/>
     </row>
-    <row r="727" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -27489,7 +27531,7 @@
       <c r="AF727" s="3"/>
       <c r="AG727" s="1"/>
     </row>
-    <row r="728" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -27524,7 +27566,7 @@
       <c r="AF728" s="3"/>
       <c r="AG728" s="1"/>
     </row>
-    <row r="729" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -27559,7 +27601,7 @@
       <c r="AF729" s="3"/>
       <c r="AG729" s="1"/>
     </row>
-    <row r="730" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -27594,7 +27636,7 @@
       <c r="AF730" s="3"/>
       <c r="AG730" s="1"/>
     </row>
-    <row r="731" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -27629,7 +27671,7 @@
       <c r="AF731" s="3"/>
       <c r="AG731" s="1"/>
     </row>
-    <row r="732" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -27664,7 +27706,7 @@
       <c r="AF732" s="3"/>
       <c r="AG732" s="1"/>
     </row>
-    <row r="733" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -27699,7 +27741,7 @@
       <c r="AF733" s="3"/>
       <c r="AG733" s="1"/>
     </row>
-    <row r="734" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -27734,7 +27776,7 @@
       <c r="AF734" s="3"/>
       <c r="AG734" s="1"/>
     </row>
-    <row r="735" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -27769,7 +27811,7 @@
       <c r="AF735" s="3"/>
       <c r="AG735" s="1"/>
     </row>
-    <row r="736" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -27804,7 +27846,7 @@
       <c r="AF736" s="3"/>
       <c r="AG736" s="1"/>
     </row>
-    <row r="737" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -27839,7 +27881,7 @@
       <c r="AF737" s="3"/>
       <c r="AG737" s="1"/>
     </row>
-    <row r="738" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -27874,7 +27916,7 @@
       <c r="AF738" s="3"/>
       <c r="AG738" s="1"/>
     </row>
-    <row r="739" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -27909,7 +27951,7 @@
       <c r="AF739" s="3"/>
       <c r="AG739" s="1"/>
     </row>
-    <row r="740" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -27944,7 +27986,7 @@
       <c r="AF740" s="3"/>
       <c r="AG740" s="1"/>
     </row>
-    <row r="741" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -27979,7 +28021,7 @@
       <c r="AF741" s="3"/>
       <c r="AG741" s="1"/>
     </row>
-    <row r="742" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -28014,7 +28056,7 @@
       <c r="AF742" s="3"/>
       <c r="AG742" s="1"/>
     </row>
-    <row r="743" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -28049,7 +28091,7 @@
       <c r="AF743" s="3"/>
       <c r="AG743" s="1"/>
     </row>
-    <row r="744" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -28084,7 +28126,7 @@
       <c r="AF744" s="3"/>
       <c r="AG744" s="1"/>
     </row>
-    <row r="745" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -28119,7 +28161,7 @@
       <c r="AF745" s="3"/>
       <c r="AG745" s="1"/>
     </row>
-    <row r="746" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -28154,7 +28196,7 @@
       <c r="AF746" s="3"/>
       <c r="AG746" s="1"/>
     </row>
-    <row r="747" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -28189,7 +28231,7 @@
       <c r="AF747" s="3"/>
       <c r="AG747" s="1"/>
     </row>
-    <row r="748" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -28224,7 +28266,7 @@
       <c r="AF748" s="3"/>
       <c r="AG748" s="1"/>
     </row>
-    <row r="749" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -28259,7 +28301,7 @@
       <c r="AF749" s="3"/>
       <c r="AG749" s="1"/>
     </row>
-    <row r="750" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -28294,7 +28336,7 @@
       <c r="AF750" s="3"/>
       <c r="AG750" s="1"/>
     </row>
-    <row r="751" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -28329,7 +28371,7 @@
       <c r="AF751" s="3"/>
       <c r="AG751" s="1"/>
     </row>
-    <row r="752" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -28364,7 +28406,7 @@
       <c r="AF752" s="3"/>
       <c r="AG752" s="1"/>
     </row>
-    <row r="753" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -28399,7 +28441,7 @@
       <c r="AF753" s="3"/>
       <c r="AG753" s="1"/>
     </row>
-    <row r="754" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -28434,7 +28476,7 @@
       <c r="AF754" s="3"/>
       <c r="AG754" s="1"/>
     </row>
-    <row r="755" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -28469,7 +28511,7 @@
       <c r="AF755" s="3"/>
       <c r="AG755" s="1"/>
     </row>
-    <row r="756" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -28504,7 +28546,7 @@
       <c r="AF756" s="3"/>
       <c r="AG756" s="1"/>
     </row>
-    <row r="757" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -28539,7 +28581,7 @@
       <c r="AF757" s="3"/>
       <c r="AG757" s="1"/>
     </row>
-    <row r="758" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -28574,7 +28616,7 @@
       <c r="AF758" s="3"/>
       <c r="AG758" s="1"/>
     </row>
-    <row r="759" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -28609,7 +28651,7 @@
       <c r="AF759" s="3"/>
       <c r="AG759" s="1"/>
     </row>
-    <row r="760" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -28644,7 +28686,7 @@
       <c r="AF760" s="3"/>
       <c r="AG760" s="1"/>
     </row>
-    <row r="761" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -28679,7 +28721,7 @@
       <c r="AF761" s="3"/>
       <c r="AG761" s="1"/>
     </row>
-    <row r="762" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -28714,7 +28756,7 @@
       <c r="AF762" s="3"/>
       <c r="AG762" s="1"/>
     </row>
-    <row r="763" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -28749,7 +28791,7 @@
       <c r="AF763" s="3"/>
       <c r="AG763" s="1"/>
     </row>
-    <row r="764" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -28784,7 +28826,7 @@
       <c r="AF764" s="3"/>
       <c r="AG764" s="1"/>
     </row>
-    <row r="765" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -28819,7 +28861,7 @@
       <c r="AF765" s="3"/>
       <c r="AG765" s="1"/>
     </row>
-    <row r="766" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -28854,7 +28896,7 @@
       <c r="AF766" s="3"/>
       <c r="AG766" s="1"/>
     </row>
-    <row r="767" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -28889,7 +28931,7 @@
       <c r="AF767" s="3"/>
       <c r="AG767" s="1"/>
     </row>
-    <row r="768" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -28924,7 +28966,7 @@
       <c r="AF768" s="3"/>
       <c r="AG768" s="1"/>
     </row>
-    <row r="769" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -28959,7 +29001,7 @@
       <c r="AF769" s="3"/>
       <c r="AG769" s="1"/>
     </row>
-    <row r="770" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -28994,7 +29036,7 @@
       <c r="AF770" s="3"/>
       <c r="AG770" s="1"/>
     </row>
-    <row r="771" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -29029,7 +29071,7 @@
       <c r="AF771" s="3"/>
       <c r="AG771" s="1"/>
     </row>
-    <row r="772" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -29064,7 +29106,7 @@
       <c r="AF772" s="3"/>
       <c r="AG772" s="1"/>
     </row>
-    <row r="773" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -29099,7 +29141,7 @@
       <c r="AF773" s="3"/>
       <c r="AG773" s="1"/>
     </row>
-    <row r="774" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -29134,7 +29176,7 @@
       <c r="AF774" s="3"/>
       <c r="AG774" s="1"/>
     </row>
-    <row r="775" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -29169,7 +29211,7 @@
       <c r="AF775" s="3"/>
       <c r="AG775" s="1"/>
     </row>
-    <row r="776" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -29204,7 +29246,7 @@
       <c r="AF776" s="3"/>
       <c r="AG776" s="1"/>
     </row>
-    <row r="777" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -29239,7 +29281,7 @@
       <c r="AF777" s="3"/>
       <c r="AG777" s="1"/>
     </row>
-    <row r="778" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -29274,7 +29316,7 @@
       <c r="AF778" s="3"/>
       <c r="AG778" s="1"/>
     </row>
-    <row r="779" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -29309,7 +29351,7 @@
       <c r="AF779" s="3"/>
       <c r="AG779" s="1"/>
     </row>
-    <row r="780" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -29344,7 +29386,7 @@
       <c r="AF780" s="3"/>
       <c r="AG780" s="1"/>
     </row>
-    <row r="781" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -29379,7 +29421,7 @@
       <c r="AF781" s="3"/>
       <c r="AG781" s="1"/>
     </row>
-    <row r="782" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -29414,7 +29456,7 @@
       <c r="AF782" s="3"/>
       <c r="AG782" s="1"/>
     </row>
-    <row r="783" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -29449,7 +29491,7 @@
       <c r="AF783" s="3"/>
       <c r="AG783" s="1"/>
     </row>
-    <row r="784" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -29484,7 +29526,7 @@
       <c r="AF784" s="3"/>
       <c r="AG784" s="1"/>
     </row>
-    <row r="785" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -29519,7 +29561,7 @@
       <c r="AF785" s="3"/>
       <c r="AG785" s="1"/>
     </row>
-    <row r="786" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -29554,7 +29596,7 @@
       <c r="AF786" s="3"/>
       <c r="AG786" s="1"/>
     </row>
-    <row r="787" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -29589,7 +29631,7 @@
       <c r="AF787" s="3"/>
       <c r="AG787" s="1"/>
     </row>
-    <row r="788" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -29624,7 +29666,7 @@
       <c r="AF788" s="3"/>
       <c r="AG788" s="1"/>
     </row>
-    <row r="789" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -29659,7 +29701,7 @@
       <c r="AF789" s="3"/>
       <c r="AG789" s="1"/>
     </row>
-    <row r="790" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -29694,7 +29736,7 @@
       <c r="AF790" s="3"/>
       <c r="AG790" s="1"/>
     </row>
-    <row r="791" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -29729,7 +29771,7 @@
       <c r="AF791" s="3"/>
       <c r="AG791" s="1"/>
     </row>
-    <row r="792" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -29764,7 +29806,7 @@
       <c r="AF792" s="3"/>
       <c r="AG792" s="1"/>
     </row>
-    <row r="793" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -29799,7 +29841,7 @@
       <c r="AF793" s="3"/>
       <c r="AG793" s="1"/>
     </row>
-    <row r="794" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -29834,7 +29876,7 @@
       <c r="AF794" s="3"/>
       <c r="AG794" s="1"/>
     </row>
-    <row r="795" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -29869,7 +29911,7 @@
       <c r="AF795" s="3"/>
       <c r="AG795" s="1"/>
     </row>
-    <row r="796" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -29904,7 +29946,7 @@
       <c r="AF796" s="3"/>
       <c r="AG796" s="1"/>
     </row>
-    <row r="797" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -29939,7 +29981,7 @@
       <c r="AF797" s="3"/>
       <c r="AG797" s="1"/>
     </row>
-    <row r="798" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -29974,7 +30016,7 @@
       <c r="AF798" s="3"/>
       <c r="AG798" s="1"/>
     </row>
-    <row r="799" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -30009,7 +30051,7 @@
       <c r="AF799" s="3"/>
       <c r="AG799" s="1"/>
     </row>
-    <row r="800" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -30044,7 +30086,7 @@
       <c r="AF800" s="3"/>
       <c r="AG800" s="1"/>
     </row>
-    <row r="801" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -30079,7 +30121,7 @@
       <c r="AF801" s="3"/>
       <c r="AG801" s="1"/>
     </row>
-    <row r="802" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -30114,7 +30156,7 @@
       <c r="AF802" s="3"/>
       <c r="AG802" s="1"/>
     </row>
-    <row r="803" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -30149,7 +30191,7 @@
       <c r="AF803" s="3"/>
       <c r="AG803" s="1"/>
     </row>
-    <row r="804" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -30184,7 +30226,7 @@
       <c r="AF804" s="3"/>
       <c r="AG804" s="1"/>
     </row>
-    <row r="805" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -30219,7 +30261,7 @@
       <c r="AF805" s="3"/>
       <c r="AG805" s="1"/>
     </row>
-    <row r="806" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -30254,7 +30296,7 @@
       <c r="AF806" s="3"/>
       <c r="AG806" s="1"/>
     </row>
-    <row r="807" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -30289,7 +30331,7 @@
       <c r="AF807" s="3"/>
       <c r="AG807" s="1"/>
     </row>
-    <row r="808" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -30324,7 +30366,7 @@
       <c r="AF808" s="3"/>
       <c r="AG808" s="1"/>
     </row>
-    <row r="809" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -30359,7 +30401,7 @@
       <c r="AF809" s="3"/>
       <c r="AG809" s="1"/>
     </row>
-    <row r="810" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -30394,7 +30436,7 @@
       <c r="AF810" s="3"/>
       <c r="AG810" s="1"/>
     </row>
-    <row r="811" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -30429,7 +30471,7 @@
       <c r="AF811" s="3"/>
       <c r="AG811" s="1"/>
     </row>
-    <row r="812" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -30464,7 +30506,7 @@
       <c r="AF812" s="3"/>
       <c r="AG812" s="1"/>
     </row>
-    <row r="813" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -30499,7 +30541,7 @@
       <c r="AF813" s="3"/>
       <c r="AG813" s="1"/>
     </row>
-    <row r="814" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -30534,7 +30576,7 @@
       <c r="AF814" s="3"/>
       <c r="AG814" s="1"/>
     </row>
-    <row r="815" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -30569,7 +30611,7 @@
       <c r="AF815" s="3"/>
       <c r="AG815" s="1"/>
     </row>
-    <row r="816" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -30604,7 +30646,7 @@
       <c r="AF816" s="3"/>
       <c r="AG816" s="1"/>
     </row>
-    <row r="817" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -30639,7 +30681,7 @@
       <c r="AF817" s="3"/>
       <c r="AG817" s="1"/>
     </row>
-    <row r="818" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -30674,7 +30716,7 @@
       <c r="AF818" s="3"/>
       <c r="AG818" s="1"/>
     </row>
-    <row r="819" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -30709,7 +30751,7 @@
       <c r="AF819" s="3"/>
       <c r="AG819" s="1"/>
     </row>
-    <row r="820" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -30744,7 +30786,7 @@
       <c r="AF820" s="3"/>
       <c r="AG820" s="1"/>
     </row>
-    <row r="821" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -30779,7 +30821,7 @@
       <c r="AF821" s="3"/>
       <c r="AG821" s="1"/>
     </row>
-    <row r="822" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -30814,7 +30856,7 @@
       <c r="AF822" s="3"/>
       <c r="AG822" s="1"/>
     </row>
-    <row r="823" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -30849,7 +30891,7 @@
       <c r="AF823" s="3"/>
       <c r="AG823" s="1"/>
     </row>
-    <row r="824" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -30884,7 +30926,7 @@
       <c r="AF824" s="3"/>
       <c r="AG824" s="1"/>
     </row>
-    <row r="825" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -30919,7 +30961,7 @@
       <c r="AF825" s="3"/>
       <c r="AG825" s="1"/>
     </row>
-    <row r="826" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -30954,7 +30996,7 @@
       <c r="AF826" s="3"/>
       <c r="AG826" s="1"/>
     </row>
-    <row r="827" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -30989,7 +31031,7 @@
       <c r="AF827" s="3"/>
       <c r="AG827" s="1"/>
     </row>
-    <row r="828" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -31024,7 +31066,7 @@
       <c r="AF828" s="3"/>
       <c r="AG828" s="1"/>
     </row>
-    <row r="829" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -31059,7 +31101,7 @@
       <c r="AF829" s="3"/>
       <c r="AG829" s="1"/>
     </row>
-    <row r="830" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -31094,7 +31136,7 @@
       <c r="AF830" s="3"/>
       <c r="AG830" s="1"/>
     </row>
-    <row r="831" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -31129,7 +31171,7 @@
       <c r="AF831" s="3"/>
       <c r="AG831" s="1"/>
     </row>
-    <row r="832" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -31164,7 +31206,7 @@
       <c r="AF832" s="3"/>
       <c r="AG832" s="1"/>
     </row>
-    <row r="833" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -31199,7 +31241,7 @@
       <c r="AF833" s="3"/>
       <c r="AG833" s="1"/>
     </row>
-    <row r="834" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -31234,7 +31276,7 @@
       <c r="AF834" s="3"/>
       <c r="AG834" s="1"/>
     </row>
-    <row r="835" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -31269,7 +31311,7 @@
       <c r="AF835" s="3"/>
       <c r="AG835" s="1"/>
     </row>
-    <row r="836" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -31304,7 +31346,7 @@
       <c r="AF836" s="3"/>
       <c r="AG836" s="1"/>
     </row>
-    <row r="837" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -31339,7 +31381,7 @@
       <c r="AF837" s="3"/>
       <c r="AG837" s="1"/>
     </row>
-    <row r="838" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -31374,7 +31416,7 @@
       <c r="AF838" s="3"/>
       <c r="AG838" s="1"/>
     </row>
-    <row r="839" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -31409,7 +31451,7 @@
       <c r="AF839" s="3"/>
       <c r="AG839" s="1"/>
     </row>
-    <row r="840" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -31444,7 +31486,7 @@
       <c r="AF840" s="3"/>
       <c r="AG840" s="1"/>
     </row>
-    <row r="841" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -31479,7 +31521,7 @@
       <c r="AF841" s="3"/>
       <c r="AG841" s="1"/>
     </row>
-    <row r="842" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -31514,7 +31556,7 @@
       <c r="AF842" s="3"/>
       <c r="AG842" s="1"/>
     </row>
-    <row r="843" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -31549,7 +31591,7 @@
       <c r="AF843" s="3"/>
       <c r="AG843" s="1"/>
     </row>
-    <row r="844" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -31584,7 +31626,7 @@
       <c r="AF844" s="3"/>
       <c r="AG844" s="1"/>
     </row>
-    <row r="845" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -31619,7 +31661,7 @@
       <c r="AF845" s="3"/>
       <c r="AG845" s="1"/>
     </row>
-    <row r="846" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -31654,7 +31696,7 @@
       <c r="AF846" s="3"/>
       <c r="AG846" s="1"/>
     </row>
-    <row r="847" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -31689,7 +31731,7 @@
       <c r="AF847" s="3"/>
       <c r="AG847" s="1"/>
     </row>
-    <row r="848" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -31724,7 +31766,7 @@
       <c r="AF848" s="3"/>
       <c r="AG848" s="1"/>
     </row>
-    <row r="849" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -31759,7 +31801,7 @@
       <c r="AF849" s="3"/>
       <c r="AG849" s="1"/>
     </row>
-    <row r="850" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -31794,7 +31836,7 @@
       <c r="AF850" s="3"/>
       <c r="AG850" s="1"/>
     </row>
-    <row r="851" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -31829,7 +31871,7 @@
       <c r="AF851" s="3"/>
       <c r="AG851" s="1"/>
     </row>
-    <row r="852" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -31864,7 +31906,7 @@
       <c r="AF852" s="3"/>
       <c r="AG852" s="1"/>
     </row>
-    <row r="853" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -31899,7 +31941,7 @@
       <c r="AF853" s="3"/>
       <c r="AG853" s="1"/>
     </row>
-    <row r="854" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -31934,7 +31976,7 @@
       <c r="AF854" s="3"/>
       <c r="AG854" s="1"/>
     </row>
-    <row r="855" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -31969,7 +32011,7 @@
       <c r="AF855" s="3"/>
       <c r="AG855" s="1"/>
     </row>
-    <row r="856" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -32004,7 +32046,7 @@
       <c r="AF856" s="3"/>
       <c r="AG856" s="1"/>
     </row>
-    <row r="857" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -32039,7 +32081,7 @@
       <c r="AF857" s="3"/>
       <c r="AG857" s="1"/>
     </row>
-    <row r="858" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -32074,7 +32116,7 @@
       <c r="AF858" s="3"/>
       <c r="AG858" s="1"/>
     </row>
-    <row r="859" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -32109,7 +32151,7 @@
       <c r="AF859" s="3"/>
       <c r="AG859" s="1"/>
     </row>
-    <row r="860" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -32144,7 +32186,7 @@
       <c r="AF860" s="3"/>
       <c r="AG860" s="1"/>
     </row>
-    <row r="861" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -32179,7 +32221,7 @@
       <c r="AF861" s="3"/>
       <c r="AG861" s="1"/>
     </row>
-    <row r="862" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -32214,7 +32256,7 @@
       <c r="AF862" s="3"/>
       <c r="AG862" s="1"/>
     </row>
-    <row r="863" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -32249,7 +32291,7 @@
       <c r="AF863" s="3"/>
       <c r="AG863" s="1"/>
     </row>
-    <row r="864" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -32284,7 +32326,7 @@
       <c r="AF864" s="3"/>
       <c r="AG864" s="1"/>
     </row>
-    <row r="865" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -32319,7 +32361,7 @@
       <c r="AF865" s="3"/>
       <c r="AG865" s="1"/>
     </row>
-    <row r="866" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -32354,7 +32396,7 @@
       <c r="AF866" s="3"/>
       <c r="AG866" s="1"/>
     </row>
-    <row r="867" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -32389,7 +32431,7 @@
       <c r="AF867" s="3"/>
       <c r="AG867" s="1"/>
     </row>
-    <row r="868" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -32424,7 +32466,7 @@
       <c r="AF868" s="3"/>
       <c r="AG868" s="1"/>
     </row>
-    <row r="869" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -32459,7 +32501,7 @@
       <c r="AF869" s="3"/>
       <c r="AG869" s="1"/>
     </row>
-    <row r="870" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -32494,7 +32536,7 @@
       <c r="AF870" s="3"/>
       <c r="AG870" s="1"/>
     </row>
-    <row r="871" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -32529,7 +32571,7 @@
       <c r="AF871" s="3"/>
       <c r="AG871" s="1"/>
     </row>
-    <row r="872" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -32564,7 +32606,7 @@
       <c r="AF872" s="3"/>
       <c r="AG872" s="1"/>
     </row>
-    <row r="873" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -32599,7 +32641,7 @@
       <c r="AF873" s="3"/>
       <c r="AG873" s="1"/>
     </row>
-    <row r="874" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -32634,7 +32676,7 @@
       <c r="AF874" s="3"/>
       <c r="AG874" s="1"/>
     </row>
-    <row r="875" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -32669,7 +32711,7 @@
       <c r="AF875" s="3"/>
       <c r="AG875" s="1"/>
     </row>
-    <row r="876" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -32704,7 +32746,7 @@
       <c r="AF876" s="3"/>
       <c r="AG876" s="1"/>
     </row>
-    <row r="877" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -32739,7 +32781,7 @@
       <c r="AF877" s="3"/>
       <c r="AG877" s="1"/>
     </row>
-    <row r="878" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -32774,7 +32816,7 @@
       <c r="AF878" s="3"/>
       <c r="AG878" s="1"/>
     </row>
-    <row r="879" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -32809,7 +32851,7 @@
       <c r="AF879" s="3"/>
       <c r="AG879" s="1"/>
     </row>
-    <row r="880" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -32844,7 +32886,7 @@
       <c r="AF880" s="3"/>
       <c r="AG880" s="1"/>
     </row>
-    <row r="881" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -32879,7 +32921,7 @@
       <c r="AF881" s="3"/>
       <c r="AG881" s="1"/>
     </row>
-    <row r="882" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -32914,7 +32956,7 @@
       <c r="AF882" s="3"/>
       <c r="AG882" s="1"/>
     </row>
-    <row r="883" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -32949,7 +32991,7 @@
       <c r="AF883" s="3"/>
       <c r="AG883" s="1"/>
     </row>
-    <row r="884" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -32984,7 +33026,7 @@
       <c r="AF884" s="3"/>
       <c r="AG884" s="1"/>
     </row>
-    <row r="885" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -33019,7 +33061,7 @@
       <c r="AF885" s="3"/>
       <c r="AG885" s="1"/>
     </row>
-    <row r="886" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -33054,7 +33096,7 @@
       <c r="AF886" s="3"/>
       <c r="AG886" s="1"/>
     </row>
-    <row r="887" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -33089,7 +33131,7 @@
       <c r="AF887" s="3"/>
       <c r="AG887" s="1"/>
     </row>
-    <row r="888" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -33124,7 +33166,7 @@
       <c r="AF888" s="3"/>
       <c r="AG888" s="1"/>
     </row>
-    <row r="889" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -33159,7 +33201,7 @@
       <c r="AF889" s="3"/>
       <c r="AG889" s="1"/>
     </row>
-    <row r="890" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -33194,7 +33236,7 @@
       <c r="AF890" s="3"/>
       <c r="AG890" s="1"/>
     </row>
-    <row r="891" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -33229,7 +33271,7 @@
       <c r="AF891" s="3"/>
       <c r="AG891" s="1"/>
     </row>
-    <row r="892" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -33264,7 +33306,7 @@
       <c r="AF892" s="3"/>
       <c r="AG892" s="1"/>
     </row>
-    <row r="893" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -33299,7 +33341,7 @@
       <c r="AF893" s="3"/>
       <c r="AG893" s="1"/>
     </row>
-    <row r="894" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -33334,7 +33376,7 @@
       <c r="AF894" s="3"/>
       <c r="AG894" s="1"/>
     </row>
-    <row r="895" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -33369,7 +33411,7 @@
       <c r="AF895" s="3"/>
       <c r="AG895" s="1"/>
     </row>
-    <row r="896" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -33404,7 +33446,7 @@
       <c r="AF896" s="3"/>
       <c r="AG896" s="1"/>
     </row>
-    <row r="897" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -33439,7 +33481,7 @@
       <c r="AF897" s="3"/>
       <c r="AG897" s="1"/>
     </row>
-    <row r="898" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -33474,7 +33516,7 @@
       <c r="AF898" s="3"/>
       <c r="AG898" s="1"/>
     </row>
-    <row r="899" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -33509,7 +33551,7 @@
       <c r="AF899" s="3"/>
       <c r="AG899" s="1"/>
     </row>
-    <row r="900" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -33544,7 +33586,7 @@
       <c r="AF900" s="3"/>
       <c r="AG900" s="1"/>
     </row>
-    <row r="901" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -33579,7 +33621,7 @@
       <c r="AF901" s="3"/>
       <c r="AG901" s="1"/>
     </row>
-    <row r="902" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -33614,7 +33656,7 @@
       <c r="AF902" s="3"/>
       <c r="AG902" s="1"/>
     </row>
-    <row r="903" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -33649,7 +33691,7 @@
       <c r="AF903" s="3"/>
       <c r="AG903" s="1"/>
     </row>
-    <row r="904" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -33684,7 +33726,7 @@
       <c r="AF904" s="3"/>
       <c r="AG904" s="1"/>
     </row>
-    <row r="905" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -33719,7 +33761,7 @@
       <c r="AF905" s="3"/>
       <c r="AG905" s="1"/>
     </row>
-    <row r="906" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -33754,7 +33796,7 @@
       <c r="AF906" s="3"/>
       <c r="AG906" s="1"/>
     </row>
-    <row r="907" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -33789,7 +33831,7 @@
       <c r="AF907" s="3"/>
       <c r="AG907" s="1"/>
     </row>
-    <row r="908" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -33824,7 +33866,7 @@
       <c r="AF908" s="3"/>
       <c r="AG908" s="1"/>
     </row>
-    <row r="909" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -33859,7 +33901,7 @@
       <c r="AF909" s="3"/>
       <c r="AG909" s="1"/>
     </row>
-    <row r="910" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -33894,7 +33936,7 @@
       <c r="AF910" s="3"/>
       <c r="AG910" s="1"/>
     </row>
-    <row r="911" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -33929,7 +33971,7 @@
       <c r="AF911" s="3"/>
       <c r="AG911" s="1"/>
     </row>
-    <row r="912" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -33964,7 +34006,7 @@
       <c r="AF912" s="3"/>
       <c r="AG912" s="1"/>
     </row>
-    <row r="913" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -33999,7 +34041,7 @@
       <c r="AF913" s="3"/>
       <c r="AG913" s="1"/>
     </row>
-    <row r="914" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -34034,7 +34076,7 @@
       <c r="AF914" s="3"/>
       <c r="AG914" s="1"/>
     </row>
-    <row r="915" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -34069,7 +34111,7 @@
       <c r="AF915" s="3"/>
       <c r="AG915" s="1"/>
     </row>
-    <row r="916" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -34104,7 +34146,7 @@
       <c r="AF916" s="3"/>
       <c r="AG916" s="1"/>
     </row>
-    <row r="917" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -34139,7 +34181,7 @@
       <c r="AF917" s="3"/>
       <c r="AG917" s="1"/>
     </row>
-    <row r="918" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -34174,7 +34216,7 @@
       <c r="AF918" s="3"/>
       <c r="AG918" s="1"/>
     </row>
-    <row r="919" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -34209,7 +34251,7 @@
       <c r="AF919" s="3"/>
       <c r="AG919" s="1"/>
     </row>
-    <row r="920" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -34244,7 +34286,7 @@
       <c r="AF920" s="3"/>
       <c r="AG920" s="1"/>
     </row>
-    <row r="921" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -34279,7 +34321,7 @@
       <c r="AF921" s="3"/>
       <c r="AG921" s="1"/>
     </row>
-    <row r="922" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -34314,7 +34356,7 @@
       <c r="AF922" s="3"/>
       <c r="AG922" s="1"/>
     </row>
-    <row r="923" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -34349,7 +34391,7 @@
       <c r="AF923" s="3"/>
       <c r="AG923" s="1"/>
     </row>
-    <row r="924" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -34384,7 +34426,7 @@
       <c r="AF924" s="3"/>
       <c r="AG924" s="1"/>
     </row>
-    <row r="925" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -34419,7 +34461,7 @@
       <c r="AF925" s="3"/>
       <c r="AG925" s="1"/>
     </row>
-    <row r="926" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -34454,7 +34496,7 @@
       <c r="AF926" s="3"/>
       <c r="AG926" s="1"/>
     </row>
-    <row r="927" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -34489,7 +34531,7 @@
       <c r="AF927" s="3"/>
       <c r="AG927" s="1"/>
     </row>
-    <row r="928" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -34524,7 +34566,7 @@
       <c r="AF928" s="3"/>
       <c r="AG928" s="1"/>
     </row>
-    <row r="929" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -34559,7 +34601,7 @@
       <c r="AF929" s="3"/>
       <c r="AG929" s="1"/>
     </row>
-    <row r="930" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -34594,7 +34636,7 @@
       <c r="AF930" s="3"/>
       <c r="AG930" s="1"/>
     </row>
-    <row r="931" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -34629,7 +34671,7 @@
       <c r="AF931" s="3"/>
       <c r="AG931" s="1"/>
     </row>
-    <row r="932" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -34664,7 +34706,7 @@
       <c r="AF932" s="3"/>
       <c r="AG932" s="1"/>
     </row>
-    <row r="933" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -34699,7 +34741,7 @@
       <c r="AF933" s="3"/>
       <c r="AG933" s="1"/>
     </row>
-    <row r="934" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -34734,7 +34776,7 @@
       <c r="AF934" s="3"/>
       <c r="AG934" s="1"/>
     </row>
-    <row r="935" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -34769,7 +34811,7 @@
       <c r="AF935" s="3"/>
       <c r="AG935" s="1"/>
     </row>
-    <row r="936" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -34804,7 +34846,7 @@
       <c r="AF936" s="3"/>
       <c r="AG936" s="1"/>
     </row>
-    <row r="937" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -34839,7 +34881,7 @@
       <c r="AF937" s="3"/>
       <c r="AG937" s="1"/>
     </row>
-    <row r="938" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -34874,7 +34916,7 @@
       <c r="AF938" s="3"/>
       <c r="AG938" s="1"/>
     </row>
-    <row r="939" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -34909,7 +34951,7 @@
       <c r="AF939" s="3"/>
       <c r="AG939" s="1"/>
     </row>
-    <row r="940" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -34944,7 +34986,7 @@
       <c r="AF940" s="3"/>
       <c r="AG940" s="1"/>
     </row>
-    <row r="941" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -34979,7 +35021,7 @@
       <c r="AF941" s="3"/>
       <c r="AG941" s="1"/>
     </row>
-    <row r="942" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -35014,7 +35056,7 @@
       <c r="AF942" s="3"/>
       <c r="AG942" s="1"/>
     </row>
-    <row r="943" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -35049,7 +35091,7 @@
       <c r="AF943" s="3"/>
       <c r="AG943" s="1"/>
     </row>
-    <row r="944" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -35084,7 +35126,7 @@
       <c r="AF944" s="3"/>
       <c r="AG944" s="1"/>
     </row>
-    <row r="945" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -35119,7 +35161,7 @@
       <c r="AF945" s="3"/>
       <c r="AG945" s="1"/>
     </row>
-    <row r="946" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -35154,7 +35196,7 @@
       <c r="AF946" s="3"/>
       <c r="AG946" s="1"/>
     </row>
-    <row r="947" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -35189,7 +35231,7 @@
       <c r="AF947" s="3"/>
       <c r="AG947" s="1"/>
     </row>
-    <row r="948" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -35224,7 +35266,7 @@
       <c r="AF948" s="3"/>
       <c r="AG948" s="1"/>
     </row>
-    <row r="949" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -35259,7 +35301,7 @@
       <c r="AF949" s="3"/>
       <c r="AG949" s="1"/>
     </row>
-    <row r="950" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -35294,7 +35336,7 @@
       <c r="AF950" s="3"/>
       <c r="AG950" s="1"/>
     </row>
-    <row r="951" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -35329,7 +35371,7 @@
       <c r="AF951" s="3"/>
       <c r="AG951" s="1"/>
     </row>
-    <row r="952" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -35364,7 +35406,7 @@
       <c r="AF952" s="3"/>
       <c r="AG952" s="1"/>
     </row>
-    <row r="953" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -35399,7 +35441,7 @@
       <c r="AF953" s="3"/>
       <c r="AG953" s="1"/>
     </row>
-    <row r="954" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -35434,7 +35476,7 @@
       <c r="AF954" s="3"/>
       <c r="AG954" s="1"/>
     </row>
-    <row r="955" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -35469,7 +35511,7 @@
       <c r="AF955" s="3"/>
       <c r="AG955" s="1"/>
     </row>
-    <row r="956" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -35504,7 +35546,7 @@
       <c r="AF956" s="3"/>
       <c r="AG956" s="1"/>
     </row>
-    <row r="957" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -35539,7 +35581,7 @@
       <c r="AF957" s="3"/>
       <c r="AG957" s="1"/>
     </row>
-    <row r="958" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -35574,7 +35616,7 @@
       <c r="AF958" s="3"/>
       <c r="AG958" s="1"/>
     </row>
-    <row r="959" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -35609,7 +35651,7 @@
       <c r="AF959" s="3"/>
       <c r="AG959" s="1"/>
     </row>
-    <row r="960" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -35644,7 +35686,7 @@
       <c r="AF960" s="3"/>
       <c r="AG960" s="1"/>
     </row>
-    <row r="961" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -35679,7 +35721,7 @@
       <c r="AF961" s="3"/>
       <c r="AG961" s="1"/>
     </row>
-    <row r="962" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -35714,7 +35756,7 @@
       <c r="AF962" s="3"/>
       <c r="AG962" s="1"/>
     </row>
-    <row r="963" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -35749,7 +35791,7 @@
       <c r="AF963" s="3"/>
       <c r="AG963" s="1"/>
     </row>
-    <row r="964" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -35784,7 +35826,7 @@
       <c r="AF964" s="3"/>
       <c r="AG964" s="1"/>
     </row>
-    <row r="965" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -35819,7 +35861,7 @@
       <c r="AF965" s="3"/>
       <c r="AG965" s="1"/>
     </row>
-    <row r="966" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -35854,7 +35896,7 @@
       <c r="AF966" s="3"/>
       <c r="AG966" s="1"/>
     </row>
-    <row r="967" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -35889,7 +35931,7 @@
       <c r="AF967" s="3"/>
       <c r="AG967" s="1"/>
     </row>
-    <row r="968" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -35924,7 +35966,7 @@
       <c r="AF968" s="3"/>
       <c r="AG968" s="1"/>
     </row>
-    <row r="969" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -35959,7 +36001,7 @@
       <c r="AF969" s="3"/>
       <c r="AG969" s="1"/>
     </row>
-    <row r="970" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -35994,7 +36036,7 @@
       <c r="AF970" s="3"/>
       <c r="AG970" s="1"/>
     </row>
-    <row r="971" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -36029,7 +36071,7 @@
       <c r="AF971" s="3"/>
       <c r="AG971" s="1"/>
     </row>
-    <row r="972" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -36064,7 +36106,7 @@
       <c r="AF972" s="3"/>
       <c r="AG972" s="1"/>
     </row>
-    <row r="973" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -36099,7 +36141,7 @@
       <c r="AF973" s="3"/>
       <c r="AG973" s="1"/>
     </row>
-    <row r="974" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -36134,7 +36176,7 @@
       <c r="AF974" s="3"/>
       <c r="AG974" s="1"/>
     </row>
-    <row r="975" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -36169,7 +36211,7 @@
       <c r="AF975" s="3"/>
       <c r="AG975" s="1"/>
     </row>
-    <row r="976" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -36204,7 +36246,7 @@
       <c r="AF976" s="3"/>
       <c r="AG976" s="1"/>
     </row>
-    <row r="977" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -36239,7 +36281,7 @@
       <c r="AF977" s="3"/>
       <c r="AG977" s="1"/>
     </row>
-    <row r="978" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -36274,7 +36316,7 @@
       <c r="AF978" s="3"/>
       <c r="AG978" s="1"/>
     </row>
-    <row r="979" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -36309,7 +36351,7 @@
       <c r="AF979" s="3"/>
       <c r="AG979" s="1"/>
     </row>
-    <row r="980" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -36344,7 +36386,7 @@
       <c r="AF980" s="3"/>
       <c r="AG980" s="1"/>
     </row>
-    <row r="981" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -36379,7 +36421,7 @@
       <c r="AF981" s="3"/>
       <c r="AG981" s="1"/>
     </row>
-    <row r="982" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -36414,7 +36456,7 @@
       <c r="AF982" s="3"/>
       <c r="AG982" s="1"/>
     </row>
-    <row r="983" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -36449,7 +36491,7 @@
       <c r="AF983" s="3"/>
       <c r="AG983" s="1"/>
     </row>
-    <row r="984" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -36484,7 +36526,7 @@
       <c r="AF984" s="3"/>
       <c r="AG984" s="1"/>
     </row>
-    <row r="985" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -36519,7 +36561,7 @@
       <c r="AF985" s="3"/>
       <c r="AG985" s="1"/>
     </row>
-    <row r="986" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -36554,7 +36596,7 @@
       <c r="AF986" s="3"/>
       <c r="AG986" s="1"/>
     </row>
-    <row r="987" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -36589,7 +36631,7 @@
       <c r="AF987" s="3"/>
       <c r="AG987" s="1"/>
     </row>
-    <row r="988" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -36624,7 +36666,7 @@
       <c r="AF988" s="3"/>
       <c r="AG988" s="1"/>
     </row>
-    <row r="989" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -36659,7 +36701,7 @@
       <c r="AF989" s="3"/>
       <c r="AG989" s="1"/>
     </row>
-    <row r="990" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -36694,7 +36736,7 @@
       <c r="AF990" s="3"/>
       <c r="AG990" s="1"/>
     </row>
-    <row r="991" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -36729,7 +36771,7 @@
       <c r="AF991" s="3"/>
       <c r="AG991" s="1"/>
     </row>
-    <row r="992" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -36764,7 +36806,7 @@
       <c r="AF992" s="3"/>
       <c r="AG992" s="1"/>
     </row>
-    <row r="993" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -36799,7 +36841,7 @@
       <c r="AF993" s="3"/>
       <c r="AG993" s="1"/>
     </row>
-    <row r="994" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -36834,7 +36876,7 @@
       <c r="AF994" s="3"/>
       <c r="AG994" s="1"/>
     </row>
-    <row r="995" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -36869,7 +36911,7 @@
       <c r="AF995" s="3"/>
       <c r="AG995" s="1"/>
     </row>
-    <row r="996" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -37098,13 +37140,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E24:Z29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E24:Z29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$I$9:$I$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A20:AA20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A20:AA20" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$9:$K$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/effort_committment.xlsx
+++ b/effort_committment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ybandar\Documents\Computer Science Year 2\Professional Development\Air92\Project-CAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\Project-CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="560" windowWidth="19820" windowHeight="9410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1025,20 +1025,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="20" width="10.75" customWidth="1"/>
-    <col min="21" max="21" width="11.58203125" customWidth="1"/>
-    <col min="22" max="33" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.75" customWidth="1"/>
+    <col min="28" max="28" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1075,7 +1099,7 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1116,7 +1140,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1157,7 +1181,7 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1198,7 +1222,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1239,7 +1263,7 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1280,7 +1304,7 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
@@ -1317,7 +1341,7 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -1362,7 +1386,7 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -1410,7 +1434,7 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -1462,7 +1486,7 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -1512,7 +1536,7 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1549,7 +1573,7 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1584,7 +1608,7 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1625,7 +1649,7 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -1671,7 +1695,7 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1706,7 +1730,7 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1746,7 +1770,7 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1801,7 +1825,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -1840,7 +1864,7 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1921,7 +1945,7 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
@@ -2004,7 +2028,7 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="17"/>
@@ -2074,7 +2098,7 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
     </row>
-    <row r="23" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2188,7 +2212,7 @@
       </c>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="18" t="s">
@@ -2281,7 +2305,7 @@
       </c>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
       <c r="C25" s="18" t="s">
@@ -2374,7 +2398,7 @@
       </c>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
       <c r="C26" s="18" t="s">
@@ -2467,7 +2491,7 @@
       </c>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="18" t="s">
@@ -2560,7 +2584,7 @@
       </c>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
@@ -2655,7 +2679,7 @@
       </c>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="1"/>
       <c r="C29" s="18" t="s">
@@ -2748,7 +2772,7 @@
       </c>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -2783,7 +2807,7 @@
       <c r="AF30" s="3"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="17" t="s">
@@ -2889,7 +2913,7 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
     </row>
-    <row r="32" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="17"/>
@@ -3009,7 +3033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="17"/>
@@ -3113,7 +3137,7 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
     </row>
-    <row r="34" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="17"/>
@@ -3148,7 +3172,7 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
     </row>
-    <row r="35" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="17"/>
@@ -3183,7 +3207,7 @@
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
     </row>
-    <row r="36" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="17"/>
@@ -3218,7 +3242,7 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
     </row>
-    <row r="37" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="17"/>
@@ -3253,7 +3277,7 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
     </row>
-    <row r="38" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="17" t="s">
@@ -3365,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="17" t="s">
@@ -3444,7 +3468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3479,7 +3503,7 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3514,7 +3538,7 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3549,7 +3573,7 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="1">
+    <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="3"/>
       <c r="B43" s="22" t="s">
         <v>46</v>
@@ -3591,7 +3615,7 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
     </row>
-    <row r="44" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3626,7 +3650,7 @@
       <c r="AF44" s="3"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3661,7 +3685,7 @@
       <c r="AF45" s="3"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3696,7 +3720,7 @@
       <c r="AF46" s="3"/>
       <c r="AG46" s="1"/>
     </row>
-    <row r="47" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3731,7 +3755,7 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="1"/>
     </row>
-    <row r="48" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3766,7 +3790,7 @@
       <c r="AF48" s="3"/>
       <c r="AG48" s="1"/>
     </row>
-    <row r="49" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3801,7 +3825,7 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="1"/>
     </row>
-    <row r="50" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3836,7 +3860,7 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="1"/>
     </row>
-    <row r="51" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3871,7 +3895,7 @@
       <c r="AF51" s="3"/>
       <c r="AG51" s="1"/>
     </row>
-    <row r="52" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3906,7 +3930,7 @@
       <c r="AF52" s="3"/>
       <c r="AG52" s="1"/>
     </row>
-    <row r="53" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3941,7 +3965,7 @@
       <c r="AF53" s="3"/>
       <c r="AG53" s="1"/>
     </row>
-    <row r="54" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3976,7 +4000,7 @@
       <c r="AF54" s="3"/>
       <c r="AG54" s="1"/>
     </row>
-    <row r="55" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4011,7 +4035,7 @@
       <c r="AF55" s="3"/>
       <c r="AG55" s="1"/>
     </row>
-    <row r="56" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4046,7 +4070,7 @@
       <c r="AF56" s="3"/>
       <c r="AG56" s="1"/>
     </row>
-    <row r="57" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4081,7 +4105,7 @@
       <c r="AF57" s="3"/>
       <c r="AG57" s="1"/>
     </row>
-    <row r="58" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4116,7 +4140,7 @@
       <c r="AF58" s="3"/>
       <c r="AG58" s="1"/>
     </row>
-    <row r="59" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4151,7 +4175,7 @@
       <c r="AF59" s="3"/>
       <c r="AG59" s="1"/>
     </row>
-    <row r="60" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4186,7 +4210,7 @@
       <c r="AF60" s="3"/>
       <c r="AG60" s="1"/>
     </row>
-    <row r="61" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4221,7 +4245,7 @@
       <c r="AF61" s="3"/>
       <c r="AG61" s="1"/>
     </row>
-    <row r="62" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4256,7 +4280,7 @@
       <c r="AF62" s="3"/>
       <c r="AG62" s="1"/>
     </row>
-    <row r="63" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4291,7 +4315,7 @@
       <c r="AF63" s="3"/>
       <c r="AG63" s="1"/>
     </row>
-    <row r="64" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4326,7 +4350,7 @@
       <c r="AF64" s="3"/>
       <c r="AG64" s="1"/>
     </row>
-    <row r="65" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4361,7 +4385,7 @@
       <c r="AF65" s="3"/>
       <c r="AG65" s="1"/>
     </row>
-    <row r="66" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4396,7 +4420,7 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="1"/>
     </row>
-    <row r="67" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4431,7 +4455,7 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="1"/>
     </row>
-    <row r="68" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4466,7 +4490,7 @@
       <c r="AF68" s="3"/>
       <c r="AG68" s="1"/>
     </row>
-    <row r="69" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4501,7 +4525,7 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="1"/>
     </row>
-    <row r="70" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4536,7 +4560,7 @@
       <c r="AF70" s="3"/>
       <c r="AG70" s="1"/>
     </row>
-    <row r="71" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4571,7 +4595,7 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="1"/>
     </row>
-    <row r="72" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4606,7 +4630,7 @@
       <c r="AF72" s="3"/>
       <c r="AG72" s="1"/>
     </row>
-    <row r="73" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4641,7 +4665,7 @@
       <c r="AF73" s="3"/>
       <c r="AG73" s="1"/>
     </row>
-    <row r="74" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4676,7 +4700,7 @@
       <c r="AF74" s="3"/>
       <c r="AG74" s="1"/>
     </row>
-    <row r="75" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4711,7 +4735,7 @@
       <c r="AF75" s="3"/>
       <c r="AG75" s="1"/>
     </row>
-    <row r="76" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4746,7 +4770,7 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="1"/>
     </row>
-    <row r="77" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4781,7 +4805,7 @@
       <c r="AF77" s="3"/>
       <c r="AG77" s="1"/>
     </row>
-    <row r="78" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4816,7 +4840,7 @@
       <c r="AF78" s="3"/>
       <c r="AG78" s="1"/>
     </row>
-    <row r="79" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4851,7 +4875,7 @@
       <c r="AF79" s="3"/>
       <c r="AG79" s="1"/>
     </row>
-    <row r="80" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4886,7 +4910,7 @@
       <c r="AF80" s="3"/>
       <c r="AG80" s="1"/>
     </row>
-    <row r="81" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4921,7 +4945,7 @@
       <c r="AF81" s="3"/>
       <c r="AG81" s="1"/>
     </row>
-    <row r="82" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4956,7 +4980,7 @@
       <c r="AF82" s="3"/>
       <c r="AG82" s="1"/>
     </row>
-    <row r="83" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4991,7 +5015,7 @@
       <c r="AF83" s="3"/>
       <c r="AG83" s="1"/>
     </row>
-    <row r="84" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5026,7 +5050,7 @@
       <c r="AF84" s="3"/>
       <c r="AG84" s="1"/>
     </row>
-    <row r="85" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5061,7 +5085,7 @@
       <c r="AF85" s="3"/>
       <c r="AG85" s="1"/>
     </row>
-    <row r="86" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5096,7 +5120,7 @@
       <c r="AF86" s="3"/>
       <c r="AG86" s="1"/>
     </row>
-    <row r="87" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5131,7 +5155,7 @@
       <c r="AF87" s="3"/>
       <c r="AG87" s="1"/>
     </row>
-    <row r="88" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5166,7 +5190,7 @@
       <c r="AF88" s="3"/>
       <c r="AG88" s="1"/>
     </row>
-    <row r="89" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5201,7 +5225,7 @@
       <c r="AF89" s="3"/>
       <c r="AG89" s="1"/>
     </row>
-    <row r="90" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5236,7 +5260,7 @@
       <c r="AF90" s="3"/>
       <c r="AG90" s="1"/>
     </row>
-    <row r="91" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5271,7 +5295,7 @@
       <c r="AF91" s="3"/>
       <c r="AG91" s="1"/>
     </row>
-    <row r="92" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5306,7 +5330,7 @@
       <c r="AF92" s="3"/>
       <c r="AG92" s="1"/>
     </row>
-    <row r="93" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5341,7 +5365,7 @@
       <c r="AF93" s="3"/>
       <c r="AG93" s="1"/>
     </row>
-    <row r="94" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5376,7 +5400,7 @@
       <c r="AF94" s="3"/>
       <c r="AG94" s="1"/>
     </row>
-    <row r="95" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5411,7 +5435,7 @@
       <c r="AF95" s="3"/>
       <c r="AG95" s="1"/>
     </row>
-    <row r="96" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5446,7 +5470,7 @@
       <c r="AF96" s="3"/>
       <c r="AG96" s="1"/>
     </row>
-    <row r="97" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5481,7 +5505,7 @@
       <c r="AF97" s="3"/>
       <c r="AG97" s="1"/>
     </row>
-    <row r="98" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5516,7 +5540,7 @@
       <c r="AF98" s="3"/>
       <c r="AG98" s="1"/>
     </row>
-    <row r="99" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5551,7 +5575,7 @@
       <c r="AF99" s="3"/>
       <c r="AG99" s="1"/>
     </row>
-    <row r="100" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5586,7 +5610,7 @@
       <c r="AF100" s="3"/>
       <c r="AG100" s="1"/>
     </row>
-    <row r="101" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5621,7 +5645,7 @@
       <c r="AF101" s="3"/>
       <c r="AG101" s="1"/>
     </row>
-    <row r="102" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5656,7 +5680,7 @@
       <c r="AF102" s="3"/>
       <c r="AG102" s="1"/>
     </row>
-    <row r="103" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5691,7 +5715,7 @@
       <c r="AF103" s="3"/>
       <c r="AG103" s="1"/>
     </row>
-    <row r="104" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5726,7 +5750,7 @@
       <c r="AF104" s="3"/>
       <c r="AG104" s="1"/>
     </row>
-    <row r="105" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5761,7 +5785,7 @@
       <c r="AF105" s="3"/>
       <c r="AG105" s="1"/>
     </row>
-    <row r="106" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5796,7 +5820,7 @@
       <c r="AF106" s="3"/>
       <c r="AG106" s="1"/>
     </row>
-    <row r="107" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5831,7 +5855,7 @@
       <c r="AF107" s="3"/>
       <c r="AG107" s="1"/>
     </row>
-    <row r="108" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5866,7 +5890,7 @@
       <c r="AF108" s="3"/>
       <c r="AG108" s="1"/>
     </row>
-    <row r="109" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5901,7 +5925,7 @@
       <c r="AF109" s="3"/>
       <c r="AG109" s="1"/>
     </row>
-    <row r="110" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5936,7 +5960,7 @@
       <c r="AF110" s="3"/>
       <c r="AG110" s="1"/>
     </row>
-    <row r="111" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5971,7 +5995,7 @@
       <c r="AF111" s="3"/>
       <c r="AG111" s="1"/>
     </row>
-    <row r="112" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6006,7 +6030,7 @@
       <c r="AF112" s="3"/>
       <c r="AG112" s="1"/>
     </row>
-    <row r="113" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6041,7 +6065,7 @@
       <c r="AF113" s="3"/>
       <c r="AG113" s="1"/>
     </row>
-    <row r="114" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6076,7 +6100,7 @@
       <c r="AF114" s="3"/>
       <c r="AG114" s="1"/>
     </row>
-    <row r="115" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6111,7 +6135,7 @@
       <c r="AF115" s="3"/>
       <c r="AG115" s="1"/>
     </row>
-    <row r="116" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6146,7 +6170,7 @@
       <c r="AF116" s="3"/>
       <c r="AG116" s="1"/>
     </row>
-    <row r="117" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6181,7 +6205,7 @@
       <c r="AF117" s="3"/>
       <c r="AG117" s="1"/>
     </row>
-    <row r="118" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6216,7 +6240,7 @@
       <c r="AF118" s="3"/>
       <c r="AG118" s="1"/>
     </row>
-    <row r="119" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6251,7 +6275,7 @@
       <c r="AF119" s="3"/>
       <c r="AG119" s="1"/>
     </row>
-    <row r="120" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6286,7 +6310,7 @@
       <c r="AF120" s="3"/>
       <c r="AG120" s="1"/>
     </row>
-    <row r="121" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6321,7 +6345,7 @@
       <c r="AF121" s="3"/>
       <c r="AG121" s="1"/>
     </row>
-    <row r="122" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6356,7 +6380,7 @@
       <c r="AF122" s="3"/>
       <c r="AG122" s="1"/>
     </row>
-    <row r="123" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6391,7 +6415,7 @@
       <c r="AF123" s="3"/>
       <c r="AG123" s="1"/>
     </row>
-    <row r="124" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6426,7 +6450,7 @@
       <c r="AF124" s="3"/>
       <c r="AG124" s="1"/>
     </row>
-    <row r="125" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6461,7 +6485,7 @@
       <c r="AF125" s="3"/>
       <c r="AG125" s="1"/>
     </row>
-    <row r="126" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6496,7 +6520,7 @@
       <c r="AF126" s="3"/>
       <c r="AG126" s="1"/>
     </row>
-    <row r="127" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6531,7 +6555,7 @@
       <c r="AF127" s="3"/>
       <c r="AG127" s="1"/>
     </row>
-    <row r="128" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6566,7 +6590,7 @@
       <c r="AF128" s="3"/>
       <c r="AG128" s="1"/>
     </row>
-    <row r="129" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6601,7 +6625,7 @@
       <c r="AF129" s="3"/>
       <c r="AG129" s="1"/>
     </row>
-    <row r="130" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6636,7 +6660,7 @@
       <c r="AF130" s="3"/>
       <c r="AG130" s="1"/>
     </row>
-    <row r="131" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6671,7 +6695,7 @@
       <c r="AF131" s="3"/>
       <c r="AG131" s="1"/>
     </row>
-    <row r="132" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6706,7 +6730,7 @@
       <c r="AF132" s="3"/>
       <c r="AG132" s="1"/>
     </row>
-    <row r="133" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6741,7 +6765,7 @@
       <c r="AF133" s="3"/>
       <c r="AG133" s="1"/>
     </row>
-    <row r="134" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6776,7 +6800,7 @@
       <c r="AF134" s="3"/>
       <c r="AG134" s="1"/>
     </row>
-    <row r="135" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6811,7 +6835,7 @@
       <c r="AF135" s="3"/>
       <c r="AG135" s="1"/>
     </row>
-    <row r="136" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6846,7 +6870,7 @@
       <c r="AF136" s="3"/>
       <c r="AG136" s="1"/>
     </row>
-    <row r="137" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6881,7 +6905,7 @@
       <c r="AF137" s="3"/>
       <c r="AG137" s="1"/>
     </row>
-    <row r="138" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6916,7 +6940,7 @@
       <c r="AF138" s="3"/>
       <c r="AG138" s="1"/>
     </row>
-    <row r="139" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6951,7 +6975,7 @@
       <c r="AF139" s="3"/>
       <c r="AG139" s="1"/>
     </row>
-    <row r="140" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6986,7 +7010,7 @@
       <c r="AF140" s="3"/>
       <c r="AG140" s="1"/>
     </row>
-    <row r="141" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7021,7 +7045,7 @@
       <c r="AF141" s="3"/>
       <c r="AG141" s="1"/>
     </row>
-    <row r="142" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7056,7 +7080,7 @@
       <c r="AF142" s="3"/>
       <c r="AG142" s="1"/>
     </row>
-    <row r="143" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7091,7 +7115,7 @@
       <c r="AF143" s="3"/>
       <c r="AG143" s="1"/>
     </row>
-    <row r="144" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7126,7 +7150,7 @@
       <c r="AF144" s="3"/>
       <c r="AG144" s="1"/>
     </row>
-    <row r="145" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7161,7 +7185,7 @@
       <c r="AF145" s="3"/>
       <c r="AG145" s="1"/>
     </row>
-    <row r="146" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7196,7 +7220,7 @@
       <c r="AF146" s="3"/>
       <c r="AG146" s="1"/>
     </row>
-    <row r="147" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7231,7 +7255,7 @@
       <c r="AF147" s="3"/>
       <c r="AG147" s="1"/>
     </row>
-    <row r="148" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7266,7 +7290,7 @@
       <c r="AF148" s="3"/>
       <c r="AG148" s="1"/>
     </row>
-    <row r="149" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -7301,7 +7325,7 @@
       <c r="AF149" s="3"/>
       <c r="AG149" s="1"/>
     </row>
-    <row r="150" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -7336,7 +7360,7 @@
       <c r="AF150" s="3"/>
       <c r="AG150" s="1"/>
     </row>
-    <row r="151" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -7371,7 +7395,7 @@
       <c r="AF151" s="3"/>
       <c r="AG151" s="1"/>
     </row>
-    <row r="152" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -7406,7 +7430,7 @@
       <c r="AF152" s="3"/>
       <c r="AG152" s="1"/>
     </row>
-    <row r="153" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -7441,7 +7465,7 @@
       <c r="AF153" s="3"/>
       <c r="AG153" s="1"/>
     </row>
-    <row r="154" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -7476,7 +7500,7 @@
       <c r="AF154" s="3"/>
       <c r="AG154" s="1"/>
     </row>
-    <row r="155" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -7511,7 +7535,7 @@
       <c r="AF155" s="3"/>
       <c r="AG155" s="1"/>
     </row>
-    <row r="156" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -7546,7 +7570,7 @@
       <c r="AF156" s="3"/>
       <c r="AG156" s="1"/>
     </row>
-    <row r="157" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -7581,7 +7605,7 @@
       <c r="AF157" s="3"/>
       <c r="AG157" s="1"/>
     </row>
-    <row r="158" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -7616,7 +7640,7 @@
       <c r="AF158" s="3"/>
       <c r="AG158" s="1"/>
     </row>
-    <row r="159" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7651,7 +7675,7 @@
       <c r="AF159" s="3"/>
       <c r="AG159" s="1"/>
     </row>
-    <row r="160" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7686,7 +7710,7 @@
       <c r="AF160" s="3"/>
       <c r="AG160" s="1"/>
     </row>
-    <row r="161" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -7721,7 +7745,7 @@
       <c r="AF161" s="3"/>
       <c r="AG161" s="1"/>
     </row>
-    <row r="162" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7756,7 +7780,7 @@
       <c r="AF162" s="3"/>
       <c r="AG162" s="1"/>
     </row>
-    <row r="163" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7791,7 +7815,7 @@
       <c r="AF163" s="3"/>
       <c r="AG163" s="1"/>
     </row>
-    <row r="164" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7826,7 +7850,7 @@
       <c r="AF164" s="3"/>
       <c r="AG164" s="1"/>
     </row>
-    <row r="165" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7861,7 +7885,7 @@
       <c r="AF165" s="3"/>
       <c r="AG165" s="1"/>
     </row>
-    <row r="166" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7896,7 +7920,7 @@
       <c r="AF166" s="3"/>
       <c r="AG166" s="1"/>
     </row>
-    <row r="167" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7931,7 +7955,7 @@
       <c r="AF167" s="3"/>
       <c r="AG167" s="1"/>
     </row>
-    <row r="168" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7966,7 +7990,7 @@
       <c r="AF168" s="3"/>
       <c r="AG168" s="1"/>
     </row>
-    <row r="169" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -8001,7 +8025,7 @@
       <c r="AF169" s="3"/>
       <c r="AG169" s="1"/>
     </row>
-    <row r="170" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8036,7 +8060,7 @@
       <c r="AF170" s="3"/>
       <c r="AG170" s="1"/>
     </row>
-    <row r="171" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8071,7 +8095,7 @@
       <c r="AF171" s="3"/>
       <c r="AG171" s="1"/>
     </row>
-    <row r="172" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8106,7 +8130,7 @@
       <c r="AF172" s="3"/>
       <c r="AG172" s="1"/>
     </row>
-    <row r="173" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8141,7 +8165,7 @@
       <c r="AF173" s="3"/>
       <c r="AG173" s="1"/>
     </row>
-    <row r="174" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8176,7 +8200,7 @@
       <c r="AF174" s="3"/>
       <c r="AG174" s="1"/>
     </row>
-    <row r="175" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8211,7 +8235,7 @@
       <c r="AF175" s="3"/>
       <c r="AG175" s="1"/>
     </row>
-    <row r="176" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8246,7 +8270,7 @@
       <c r="AF176" s="3"/>
       <c r="AG176" s="1"/>
     </row>
-    <row r="177" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8281,7 +8305,7 @@
       <c r="AF177" s="3"/>
       <c r="AG177" s="1"/>
     </row>
-    <row r="178" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -8316,7 +8340,7 @@
       <c r="AF178" s="3"/>
       <c r="AG178" s="1"/>
     </row>
-    <row r="179" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8351,7 +8375,7 @@
       <c r="AF179" s="3"/>
       <c r="AG179" s="1"/>
     </row>
-    <row r="180" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -8386,7 +8410,7 @@
       <c r="AF180" s="3"/>
       <c r="AG180" s="1"/>
     </row>
-    <row r="181" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -8421,7 +8445,7 @@
       <c r="AF181" s="3"/>
       <c r="AG181" s="1"/>
     </row>
-    <row r="182" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8456,7 +8480,7 @@
       <c r="AF182" s="3"/>
       <c r="AG182" s="1"/>
     </row>
-    <row r="183" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -8491,7 +8515,7 @@
       <c r="AF183" s="3"/>
       <c r="AG183" s="1"/>
     </row>
-    <row r="184" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -8526,7 +8550,7 @@
       <c r="AF184" s="3"/>
       <c r="AG184" s="1"/>
     </row>
-    <row r="185" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -8561,7 +8585,7 @@
       <c r="AF185" s="3"/>
       <c r="AG185" s="1"/>
     </row>
-    <row r="186" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -8596,7 +8620,7 @@
       <c r="AF186" s="3"/>
       <c r="AG186" s="1"/>
     </row>
-    <row r="187" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -8631,7 +8655,7 @@
       <c r="AF187" s="3"/>
       <c r="AG187" s="1"/>
     </row>
-    <row r="188" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -8666,7 +8690,7 @@
       <c r="AF188" s="3"/>
       <c r="AG188" s="1"/>
     </row>
-    <row r="189" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8701,7 +8725,7 @@
       <c r="AF189" s="3"/>
       <c r="AG189" s="1"/>
     </row>
-    <row r="190" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8736,7 +8760,7 @@
       <c r="AF190" s="3"/>
       <c r="AG190" s="1"/>
     </row>
-    <row r="191" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8771,7 +8795,7 @@
       <c r="AF191" s="3"/>
       <c r="AG191" s="1"/>
     </row>
-    <row r="192" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -8806,7 +8830,7 @@
       <c r="AF192" s="3"/>
       <c r="AG192" s="1"/>
     </row>
-    <row r="193" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -8841,7 +8865,7 @@
       <c r="AF193" s="3"/>
       <c r="AG193" s="1"/>
     </row>
-    <row r="194" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -8876,7 +8900,7 @@
       <c r="AF194" s="3"/>
       <c r="AG194" s="1"/>
     </row>
-    <row r="195" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -8911,7 +8935,7 @@
       <c r="AF195" s="3"/>
       <c r="AG195" s="1"/>
     </row>
-    <row r="196" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -8946,7 +8970,7 @@
       <c r="AF196" s="3"/>
       <c r="AG196" s="1"/>
     </row>
-    <row r="197" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -8981,7 +9005,7 @@
       <c r="AF197" s="3"/>
       <c r="AG197" s="1"/>
     </row>
-    <row r="198" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -9016,7 +9040,7 @@
       <c r="AF198" s="3"/>
       <c r="AG198" s="1"/>
     </row>
-    <row r="199" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -9051,7 +9075,7 @@
       <c r="AF199" s="3"/>
       <c r="AG199" s="1"/>
     </row>
-    <row r="200" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -9086,7 +9110,7 @@
       <c r="AF200" s="3"/>
       <c r="AG200" s="1"/>
     </row>
-    <row r="201" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -9121,7 +9145,7 @@
       <c r="AF201" s="3"/>
       <c r="AG201" s="1"/>
     </row>
-    <row r="202" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -9156,7 +9180,7 @@
       <c r="AF202" s="3"/>
       <c r="AG202" s="1"/>
     </row>
-    <row r="203" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -9191,7 +9215,7 @@
       <c r="AF203" s="3"/>
       <c r="AG203" s="1"/>
     </row>
-    <row r="204" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -9226,7 +9250,7 @@
       <c r="AF204" s="3"/>
       <c r="AG204" s="1"/>
     </row>
-    <row r="205" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -9261,7 +9285,7 @@
       <c r="AF205" s="3"/>
       <c r="AG205" s="1"/>
     </row>
-    <row r="206" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -9296,7 +9320,7 @@
       <c r="AF206" s="3"/>
       <c r="AG206" s="1"/>
     </row>
-    <row r="207" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -9331,7 +9355,7 @@
       <c r="AF207" s="3"/>
       <c r="AG207" s="1"/>
     </row>
-    <row r="208" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -9366,7 +9390,7 @@
       <c r="AF208" s="3"/>
       <c r="AG208" s="1"/>
     </row>
-    <row r="209" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -9401,7 +9425,7 @@
       <c r="AF209" s="3"/>
       <c r="AG209" s="1"/>
     </row>
-    <row r="210" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -9436,7 +9460,7 @@
       <c r="AF210" s="3"/>
       <c r="AG210" s="1"/>
     </row>
-    <row r="211" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -9471,7 +9495,7 @@
       <c r="AF211" s="3"/>
       <c r="AG211" s="1"/>
     </row>
-    <row r="212" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -9506,7 +9530,7 @@
       <c r="AF212" s="3"/>
       <c r="AG212" s="1"/>
     </row>
-    <row r="213" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -9541,7 +9565,7 @@
       <c r="AF213" s="3"/>
       <c r="AG213" s="1"/>
     </row>
-    <row r="214" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -9576,7 +9600,7 @@
       <c r="AF214" s="3"/>
       <c r="AG214" s="1"/>
     </row>
-    <row r="215" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -9611,7 +9635,7 @@
       <c r="AF215" s="3"/>
       <c r="AG215" s="1"/>
     </row>
-    <row r="216" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -9646,7 +9670,7 @@
       <c r="AF216" s="3"/>
       <c r="AG216" s="1"/>
     </row>
-    <row r="217" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -9681,7 +9705,7 @@
       <c r="AF217" s="3"/>
       <c r="AG217" s="1"/>
     </row>
-    <row r="218" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -9716,7 +9740,7 @@
       <c r="AF218" s="3"/>
       <c r="AG218" s="1"/>
     </row>
-    <row r="219" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -9751,7 +9775,7 @@
       <c r="AF219" s="3"/>
       <c r="AG219" s="1"/>
     </row>
-    <row r="220" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -9786,7 +9810,7 @@
       <c r="AF220" s="3"/>
       <c r="AG220" s="1"/>
     </row>
-    <row r="221" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -9821,7 +9845,7 @@
       <c r="AF221" s="3"/>
       <c r="AG221" s="1"/>
     </row>
-    <row r="222" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -9856,7 +9880,7 @@
       <c r="AF222" s="3"/>
       <c r="AG222" s="1"/>
     </row>
-    <row r="223" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -9891,7 +9915,7 @@
       <c r="AF223" s="3"/>
       <c r="AG223" s="1"/>
     </row>
-    <row r="224" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -9926,7 +9950,7 @@
       <c r="AF224" s="3"/>
       <c r="AG224" s="1"/>
     </row>
-    <row r="225" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -9961,7 +9985,7 @@
       <c r="AF225" s="3"/>
       <c r="AG225" s="1"/>
     </row>
-    <row r="226" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -9996,7 +10020,7 @@
       <c r="AF226" s="3"/>
       <c r="AG226" s="1"/>
     </row>
-    <row r="227" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -10031,7 +10055,7 @@
       <c r="AF227" s="3"/>
       <c r="AG227" s="1"/>
     </row>
-    <row r="228" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -10066,7 +10090,7 @@
       <c r="AF228" s="3"/>
       <c r="AG228" s="1"/>
     </row>
-    <row r="229" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -10101,7 +10125,7 @@
       <c r="AF229" s="3"/>
       <c r="AG229" s="1"/>
     </row>
-    <row r="230" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -10136,7 +10160,7 @@
       <c r="AF230" s="3"/>
       <c r="AG230" s="1"/>
     </row>
-    <row r="231" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -10171,7 +10195,7 @@
       <c r="AF231" s="3"/>
       <c r="AG231" s="1"/>
     </row>
-    <row r="232" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -10206,7 +10230,7 @@
       <c r="AF232" s="3"/>
       <c r="AG232" s="1"/>
     </row>
-    <row r="233" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -10241,7 +10265,7 @@
       <c r="AF233" s="3"/>
       <c r="AG233" s="1"/>
     </row>
-    <row r="234" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -10276,7 +10300,7 @@
       <c r="AF234" s="3"/>
       <c r="AG234" s="1"/>
     </row>
-    <row r="235" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -10311,7 +10335,7 @@
       <c r="AF235" s="3"/>
       <c r="AG235" s="1"/>
     </row>
-    <row r="236" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -10346,7 +10370,7 @@
       <c r="AF236" s="3"/>
       <c r="AG236" s="1"/>
     </row>
-    <row r="237" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -10381,7 +10405,7 @@
       <c r="AF237" s="3"/>
       <c r="AG237" s="1"/>
     </row>
-    <row r="238" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -10416,7 +10440,7 @@
       <c r="AF238" s="3"/>
       <c r="AG238" s="1"/>
     </row>
-    <row r="239" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -10451,7 +10475,7 @@
       <c r="AF239" s="3"/>
       <c r="AG239" s="1"/>
     </row>
-    <row r="240" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -10486,7 +10510,7 @@
       <c r="AF240" s="3"/>
       <c r="AG240" s="1"/>
     </row>
-    <row r="241" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -10521,7 +10545,7 @@
       <c r="AF241" s="3"/>
       <c r="AG241" s="1"/>
     </row>
-    <row r="242" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -10556,7 +10580,7 @@
       <c r="AF242" s="3"/>
       <c r="AG242" s="1"/>
     </row>
-    <row r="243" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -10591,7 +10615,7 @@
       <c r="AF243" s="3"/>
       <c r="AG243" s="1"/>
     </row>
-    <row r="244" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -10626,7 +10650,7 @@
       <c r="AF244" s="3"/>
       <c r="AG244" s="1"/>
     </row>
-    <row r="245" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -10661,7 +10685,7 @@
       <c r="AF245" s="3"/>
       <c r="AG245" s="1"/>
     </row>
-    <row r="246" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -10696,7 +10720,7 @@
       <c r="AF246" s="3"/>
       <c r="AG246" s="1"/>
     </row>
-    <row r="247" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -10731,7 +10755,7 @@
       <c r="AF247" s="3"/>
       <c r="AG247" s="1"/>
     </row>
-    <row r="248" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -10766,7 +10790,7 @@
       <c r="AF248" s="3"/>
       <c r="AG248" s="1"/>
     </row>
-    <row r="249" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -10801,7 +10825,7 @@
       <c r="AF249" s="3"/>
       <c r="AG249" s="1"/>
     </row>
-    <row r="250" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -10836,7 +10860,7 @@
       <c r="AF250" s="3"/>
       <c r="AG250" s="1"/>
     </row>
-    <row r="251" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -10871,7 +10895,7 @@
       <c r="AF251" s="3"/>
       <c r="AG251" s="1"/>
     </row>
-    <row r="252" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -10906,7 +10930,7 @@
       <c r="AF252" s="3"/>
       <c r="AG252" s="1"/>
     </row>
-    <row r="253" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -10941,7 +10965,7 @@
       <c r="AF253" s="3"/>
       <c r="AG253" s="1"/>
     </row>
-    <row r="254" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -10976,7 +11000,7 @@
       <c r="AF254" s="3"/>
       <c r="AG254" s="1"/>
     </row>
-    <row r="255" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -11011,7 +11035,7 @@
       <c r="AF255" s="3"/>
       <c r="AG255" s="1"/>
     </row>
-    <row r="256" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -11046,7 +11070,7 @@
       <c r="AF256" s="3"/>
       <c r="AG256" s="1"/>
     </row>
-    <row r="257" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -11081,7 +11105,7 @@
       <c r="AF257" s="3"/>
       <c r="AG257" s="1"/>
     </row>
-    <row r="258" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -11116,7 +11140,7 @@
       <c r="AF258" s="3"/>
       <c r="AG258" s="1"/>
     </row>
-    <row r="259" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -11151,7 +11175,7 @@
       <c r="AF259" s="3"/>
       <c r="AG259" s="1"/>
     </row>
-    <row r="260" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -11186,7 +11210,7 @@
       <c r="AF260" s="3"/>
       <c r="AG260" s="1"/>
     </row>
-    <row r="261" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -11221,7 +11245,7 @@
       <c r="AF261" s="3"/>
       <c r="AG261" s="1"/>
     </row>
-    <row r="262" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -11256,7 +11280,7 @@
       <c r="AF262" s="3"/>
       <c r="AG262" s="1"/>
     </row>
-    <row r="263" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -11291,7 +11315,7 @@
       <c r="AF263" s="3"/>
       <c r="AG263" s="1"/>
     </row>
-    <row r="264" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -11326,7 +11350,7 @@
       <c r="AF264" s="3"/>
       <c r="AG264" s="1"/>
     </row>
-    <row r="265" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -11361,7 +11385,7 @@
       <c r="AF265" s="3"/>
       <c r="AG265" s="1"/>
     </row>
-    <row r="266" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -11396,7 +11420,7 @@
       <c r="AF266" s="3"/>
       <c r="AG266" s="1"/>
     </row>
-    <row r="267" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -11431,7 +11455,7 @@
       <c r="AF267" s="3"/>
       <c r="AG267" s="1"/>
     </row>
-    <row r="268" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -11466,7 +11490,7 @@
       <c r="AF268" s="3"/>
       <c r="AG268" s="1"/>
     </row>
-    <row r="269" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -11501,7 +11525,7 @@
       <c r="AF269" s="3"/>
       <c r="AG269" s="1"/>
     </row>
-    <row r="270" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -11536,7 +11560,7 @@
       <c r="AF270" s="3"/>
       <c r="AG270" s="1"/>
     </row>
-    <row r="271" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -11571,7 +11595,7 @@
       <c r="AF271" s="3"/>
       <c r="AG271" s="1"/>
     </row>
-    <row r="272" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -11606,7 +11630,7 @@
       <c r="AF272" s="3"/>
       <c r="AG272" s="1"/>
     </row>
-    <row r="273" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -11641,7 +11665,7 @@
       <c r="AF273" s="3"/>
       <c r="AG273" s="1"/>
     </row>
-    <row r="274" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -11676,7 +11700,7 @@
       <c r="AF274" s="3"/>
       <c r="AG274" s="1"/>
     </row>
-    <row r="275" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -11711,7 +11735,7 @@
       <c r="AF275" s="3"/>
       <c r="AG275" s="1"/>
     </row>
-    <row r="276" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -11746,7 +11770,7 @@
       <c r="AF276" s="3"/>
       <c r="AG276" s="1"/>
     </row>
-    <row r="277" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -11781,7 +11805,7 @@
       <c r="AF277" s="3"/>
       <c r="AG277" s="1"/>
     </row>
-    <row r="278" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -11816,7 +11840,7 @@
       <c r="AF278" s="3"/>
       <c r="AG278" s="1"/>
     </row>
-    <row r="279" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -11851,7 +11875,7 @@
       <c r="AF279" s="3"/>
       <c r="AG279" s="1"/>
     </row>
-    <row r="280" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -11886,7 +11910,7 @@
       <c r="AF280" s="3"/>
       <c r="AG280" s="1"/>
     </row>
-    <row r="281" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -11921,7 +11945,7 @@
       <c r="AF281" s="3"/>
       <c r="AG281" s="1"/>
     </row>
-    <row r="282" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -11956,7 +11980,7 @@
       <c r="AF282" s="3"/>
       <c r="AG282" s="1"/>
     </row>
-    <row r="283" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -11991,7 +12015,7 @@
       <c r="AF283" s="3"/>
       <c r="AG283" s="1"/>
     </row>
-    <row r="284" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -12026,7 +12050,7 @@
       <c r="AF284" s="3"/>
       <c r="AG284" s="1"/>
     </row>
-    <row r="285" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -12061,7 +12085,7 @@
       <c r="AF285" s="3"/>
       <c r="AG285" s="1"/>
     </row>
-    <row r="286" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -12096,7 +12120,7 @@
       <c r="AF286" s="3"/>
       <c r="AG286" s="1"/>
     </row>
-    <row r="287" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -12131,7 +12155,7 @@
       <c r="AF287" s="3"/>
       <c r="AG287" s="1"/>
     </row>
-    <row r="288" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -12166,7 +12190,7 @@
       <c r="AF288" s="3"/>
       <c r="AG288" s="1"/>
     </row>
-    <row r="289" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -12201,7 +12225,7 @@
       <c r="AF289" s="3"/>
       <c r="AG289" s="1"/>
     </row>
-    <row r="290" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -12236,7 +12260,7 @@
       <c r="AF290" s="3"/>
       <c r="AG290" s="1"/>
     </row>
-    <row r="291" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -12271,7 +12295,7 @@
       <c r="AF291" s="3"/>
       <c r="AG291" s="1"/>
     </row>
-    <row r="292" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -12306,7 +12330,7 @@
       <c r="AF292" s="3"/>
       <c r="AG292" s="1"/>
     </row>
-    <row r="293" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -12341,7 +12365,7 @@
       <c r="AF293" s="3"/>
       <c r="AG293" s="1"/>
     </row>
-    <row r="294" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -12376,7 +12400,7 @@
       <c r="AF294" s="3"/>
       <c r="AG294" s="1"/>
     </row>
-    <row r="295" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -12411,7 +12435,7 @@
       <c r="AF295" s="3"/>
       <c r="AG295" s="1"/>
     </row>
-    <row r="296" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -12446,7 +12470,7 @@
       <c r="AF296" s="3"/>
       <c r="AG296" s="1"/>
     </row>
-    <row r="297" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -12481,7 +12505,7 @@
       <c r="AF297" s="3"/>
       <c r="AG297" s="1"/>
     </row>
-    <row r="298" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -12516,7 +12540,7 @@
       <c r="AF298" s="3"/>
       <c r="AG298" s="1"/>
     </row>
-    <row r="299" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -12551,7 +12575,7 @@
       <c r="AF299" s="3"/>
       <c r="AG299" s="1"/>
     </row>
-    <row r="300" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -12586,7 +12610,7 @@
       <c r="AF300" s="3"/>
       <c r="AG300" s="1"/>
     </row>
-    <row r="301" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -12621,7 +12645,7 @@
       <c r="AF301" s="3"/>
       <c r="AG301" s="1"/>
     </row>
-    <row r="302" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -12656,7 +12680,7 @@
       <c r="AF302" s="3"/>
       <c r="AG302" s="1"/>
     </row>
-    <row r="303" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -12691,7 +12715,7 @@
       <c r="AF303" s="3"/>
       <c r="AG303" s="1"/>
     </row>
-    <row r="304" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -12726,7 +12750,7 @@
       <c r="AF304" s="3"/>
       <c r="AG304" s="1"/>
     </row>
-    <row r="305" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -12761,7 +12785,7 @@
       <c r="AF305" s="3"/>
       <c r="AG305" s="1"/>
     </row>
-    <row r="306" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -12796,7 +12820,7 @@
       <c r="AF306" s="3"/>
       <c r="AG306" s="1"/>
     </row>
-    <row r="307" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -12831,7 +12855,7 @@
       <c r="AF307" s="3"/>
       <c r="AG307" s="1"/>
     </row>
-    <row r="308" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -12866,7 +12890,7 @@
       <c r="AF308" s="3"/>
       <c r="AG308" s="1"/>
     </row>
-    <row r="309" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -12901,7 +12925,7 @@
       <c r="AF309" s="3"/>
       <c r="AG309" s="1"/>
     </row>
-    <row r="310" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -12936,7 +12960,7 @@
       <c r="AF310" s="3"/>
       <c r="AG310" s="1"/>
     </row>
-    <row r="311" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -12971,7 +12995,7 @@
       <c r="AF311" s="3"/>
       <c r="AG311" s="1"/>
     </row>
-    <row r="312" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -13006,7 +13030,7 @@
       <c r="AF312" s="3"/>
       <c r="AG312" s="1"/>
     </row>
-    <row r="313" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -13041,7 +13065,7 @@
       <c r="AF313" s="3"/>
       <c r="AG313" s="1"/>
     </row>
-    <row r="314" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -13076,7 +13100,7 @@
       <c r="AF314" s="3"/>
       <c r="AG314" s="1"/>
     </row>
-    <row r="315" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -13111,7 +13135,7 @@
       <c r="AF315" s="3"/>
       <c r="AG315" s="1"/>
     </row>
-    <row r="316" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -13146,7 +13170,7 @@
       <c r="AF316" s="3"/>
       <c r="AG316" s="1"/>
     </row>
-    <row r="317" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -13181,7 +13205,7 @@
       <c r="AF317" s="3"/>
       <c r="AG317" s="1"/>
     </row>
-    <row r="318" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -13216,7 +13240,7 @@
       <c r="AF318" s="3"/>
       <c r="AG318" s="1"/>
     </row>
-    <row r="319" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -13251,7 +13275,7 @@
       <c r="AF319" s="3"/>
       <c r="AG319" s="1"/>
     </row>
-    <row r="320" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -13286,7 +13310,7 @@
       <c r="AF320" s="3"/>
       <c r="AG320" s="1"/>
     </row>
-    <row r="321" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -13321,7 +13345,7 @@
       <c r="AF321" s="3"/>
       <c r="AG321" s="1"/>
     </row>
-    <row r="322" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -13356,7 +13380,7 @@
       <c r="AF322" s="3"/>
       <c r="AG322" s="1"/>
     </row>
-    <row r="323" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -13391,7 +13415,7 @@
       <c r="AF323" s="3"/>
       <c r="AG323" s="1"/>
     </row>
-    <row r="324" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -13426,7 +13450,7 @@
       <c r="AF324" s="3"/>
       <c r="AG324" s="1"/>
     </row>
-    <row r="325" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -13461,7 +13485,7 @@
       <c r="AF325" s="3"/>
       <c r="AG325" s="1"/>
     </row>
-    <row r="326" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -13496,7 +13520,7 @@
       <c r="AF326" s="3"/>
       <c r="AG326" s="1"/>
     </row>
-    <row r="327" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -13531,7 +13555,7 @@
       <c r="AF327" s="3"/>
       <c r="AG327" s="1"/>
     </row>
-    <row r="328" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -13566,7 +13590,7 @@
       <c r="AF328" s="3"/>
       <c r="AG328" s="1"/>
     </row>
-    <row r="329" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -13601,7 +13625,7 @@
       <c r="AF329" s="3"/>
       <c r="AG329" s="1"/>
     </row>
-    <row r="330" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -13636,7 +13660,7 @@
       <c r="AF330" s="3"/>
       <c r="AG330" s="1"/>
     </row>
-    <row r="331" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -13671,7 +13695,7 @@
       <c r="AF331" s="3"/>
       <c r="AG331" s="1"/>
     </row>
-    <row r="332" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -13706,7 +13730,7 @@
       <c r="AF332" s="3"/>
       <c r="AG332" s="1"/>
     </row>
-    <row r="333" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -13741,7 +13765,7 @@
       <c r="AF333" s="3"/>
       <c r="AG333" s="1"/>
     </row>
-    <row r="334" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -13776,7 +13800,7 @@
       <c r="AF334" s="3"/>
       <c r="AG334" s="1"/>
     </row>
-    <row r="335" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -13811,7 +13835,7 @@
       <c r="AF335" s="3"/>
       <c r="AG335" s="1"/>
     </row>
-    <row r="336" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -13846,7 +13870,7 @@
       <c r="AF336" s="3"/>
       <c r="AG336" s="1"/>
     </row>
-    <row r="337" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -13881,7 +13905,7 @@
       <c r="AF337" s="3"/>
       <c r="AG337" s="1"/>
     </row>
-    <row r="338" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -13916,7 +13940,7 @@
       <c r="AF338" s="3"/>
       <c r="AG338" s="1"/>
     </row>
-    <row r="339" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -13951,7 +13975,7 @@
       <c r="AF339" s="3"/>
       <c r="AG339" s="1"/>
     </row>
-    <row r="340" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -13986,7 +14010,7 @@
       <c r="AF340" s="3"/>
       <c r="AG340" s="1"/>
     </row>
-    <row r="341" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -14021,7 +14045,7 @@
       <c r="AF341" s="3"/>
       <c r="AG341" s="1"/>
     </row>
-    <row r="342" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -14056,7 +14080,7 @@
       <c r="AF342" s="3"/>
       <c r="AG342" s="1"/>
     </row>
-    <row r="343" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -14091,7 +14115,7 @@
       <c r="AF343" s="3"/>
       <c r="AG343" s="1"/>
     </row>
-    <row r="344" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -14126,7 +14150,7 @@
       <c r="AF344" s="3"/>
       <c r="AG344" s="1"/>
     </row>
-    <row r="345" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -14161,7 +14185,7 @@
       <c r="AF345" s="3"/>
       <c r="AG345" s="1"/>
     </row>
-    <row r="346" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -14196,7 +14220,7 @@
       <c r="AF346" s="3"/>
       <c r="AG346" s="1"/>
     </row>
-    <row r="347" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -14231,7 +14255,7 @@
       <c r="AF347" s="3"/>
       <c r="AG347" s="1"/>
     </row>
-    <row r="348" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -14266,7 +14290,7 @@
       <c r="AF348" s="3"/>
       <c r="AG348" s="1"/>
     </row>
-    <row r="349" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -14301,7 +14325,7 @@
       <c r="AF349" s="3"/>
       <c r="AG349" s="1"/>
     </row>
-    <row r="350" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -14336,7 +14360,7 @@
       <c r="AF350" s="3"/>
       <c r="AG350" s="1"/>
     </row>
-    <row r="351" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -14371,7 +14395,7 @@
       <c r="AF351" s="3"/>
       <c r="AG351" s="1"/>
     </row>
-    <row r="352" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -14406,7 +14430,7 @@
       <c r="AF352" s="3"/>
       <c r="AG352" s="1"/>
     </row>
-    <row r="353" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -14441,7 +14465,7 @@
       <c r="AF353" s="3"/>
       <c r="AG353" s="1"/>
     </row>
-    <row r="354" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -14476,7 +14500,7 @@
       <c r="AF354" s="3"/>
       <c r="AG354" s="1"/>
     </row>
-    <row r="355" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -14511,7 +14535,7 @@
       <c r="AF355" s="3"/>
       <c r="AG355" s="1"/>
     </row>
-    <row r="356" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -14546,7 +14570,7 @@
       <c r="AF356" s="3"/>
       <c r="AG356" s="1"/>
     </row>
-    <row r="357" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -14581,7 +14605,7 @@
       <c r="AF357" s="3"/>
       <c r="AG357" s="1"/>
     </row>
-    <row r="358" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -14616,7 +14640,7 @@
       <c r="AF358" s="3"/>
       <c r="AG358" s="1"/>
     </row>
-    <row r="359" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -14651,7 +14675,7 @@
       <c r="AF359" s="3"/>
       <c r="AG359" s="1"/>
     </row>
-    <row r="360" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -14686,7 +14710,7 @@
       <c r="AF360" s="3"/>
       <c r="AG360" s="1"/>
     </row>
-    <row r="361" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -14721,7 +14745,7 @@
       <c r="AF361" s="3"/>
       <c r="AG361" s="1"/>
     </row>
-    <row r="362" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -14756,7 +14780,7 @@
       <c r="AF362" s="3"/>
       <c r="AG362" s="1"/>
     </row>
-    <row r="363" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -14791,7 +14815,7 @@
       <c r="AF363" s="3"/>
       <c r="AG363" s="1"/>
     </row>
-    <row r="364" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -14826,7 +14850,7 @@
       <c r="AF364" s="3"/>
       <c r="AG364" s="1"/>
     </row>
-    <row r="365" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -14861,7 +14885,7 @@
       <c r="AF365" s="3"/>
       <c r="AG365" s="1"/>
     </row>
-    <row r="366" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -14896,7 +14920,7 @@
       <c r="AF366" s="3"/>
       <c r="AG366" s="1"/>
     </row>
-    <row r="367" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -14931,7 +14955,7 @@
       <c r="AF367" s="3"/>
       <c r="AG367" s="1"/>
     </row>
-    <row r="368" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -14966,7 +14990,7 @@
       <c r="AF368" s="3"/>
       <c r="AG368" s="1"/>
     </row>
-    <row r="369" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -15001,7 +15025,7 @@
       <c r="AF369" s="3"/>
       <c r="AG369" s="1"/>
     </row>
-    <row r="370" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -15036,7 +15060,7 @@
       <c r="AF370" s="3"/>
       <c r="AG370" s="1"/>
     </row>
-    <row r="371" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -15071,7 +15095,7 @@
       <c r="AF371" s="3"/>
       <c r="AG371" s="1"/>
     </row>
-    <row r="372" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -15106,7 +15130,7 @@
       <c r="AF372" s="3"/>
       <c r="AG372" s="1"/>
     </row>
-    <row r="373" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -15141,7 +15165,7 @@
       <c r="AF373" s="3"/>
       <c r="AG373" s="1"/>
     </row>
-    <row r="374" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -15176,7 +15200,7 @@
       <c r="AF374" s="3"/>
       <c r="AG374" s="1"/>
     </row>
-    <row r="375" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -15211,7 +15235,7 @@
       <c r="AF375" s="3"/>
       <c r="AG375" s="1"/>
     </row>
-    <row r="376" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -15246,7 +15270,7 @@
       <c r="AF376" s="3"/>
       <c r="AG376" s="1"/>
     </row>
-    <row r="377" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -15281,7 +15305,7 @@
       <c r="AF377" s="3"/>
       <c r="AG377" s="1"/>
     </row>
-    <row r="378" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -15316,7 +15340,7 @@
       <c r="AF378" s="3"/>
       <c r="AG378" s="1"/>
     </row>
-    <row r="379" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -15351,7 +15375,7 @@
       <c r="AF379" s="3"/>
       <c r="AG379" s="1"/>
     </row>
-    <row r="380" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -15386,7 +15410,7 @@
       <c r="AF380" s="3"/>
       <c r="AG380" s="1"/>
     </row>
-    <row r="381" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -15421,7 +15445,7 @@
       <c r="AF381" s="3"/>
       <c r="AG381" s="1"/>
     </row>
-    <row r="382" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -15456,7 +15480,7 @@
       <c r="AF382" s="3"/>
       <c r="AG382" s="1"/>
     </row>
-    <row r="383" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -15491,7 +15515,7 @@
       <c r="AF383" s="3"/>
       <c r="AG383" s="1"/>
     </row>
-    <row r="384" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -15526,7 +15550,7 @@
       <c r="AF384" s="3"/>
       <c r="AG384" s="1"/>
     </row>
-    <row r="385" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -15561,7 +15585,7 @@
       <c r="AF385" s="3"/>
       <c r="AG385" s="1"/>
     </row>
-    <row r="386" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -15596,7 +15620,7 @@
       <c r="AF386" s="3"/>
       <c r="AG386" s="1"/>
     </row>
-    <row r="387" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -15631,7 +15655,7 @@
       <c r="AF387" s="3"/>
       <c r="AG387" s="1"/>
     </row>
-    <row r="388" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -15666,7 +15690,7 @@
       <c r="AF388" s="3"/>
       <c r="AG388" s="1"/>
     </row>
-    <row r="389" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -15701,7 +15725,7 @@
       <c r="AF389" s="3"/>
       <c r="AG389" s="1"/>
     </row>
-    <row r="390" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -15736,7 +15760,7 @@
       <c r="AF390" s="3"/>
       <c r="AG390" s="1"/>
     </row>
-    <row r="391" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -15771,7 +15795,7 @@
       <c r="AF391" s="3"/>
       <c r="AG391" s="1"/>
     </row>
-    <row r="392" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -15806,7 +15830,7 @@
       <c r="AF392" s="3"/>
       <c r="AG392" s="1"/>
     </row>
-    <row r="393" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -15841,7 +15865,7 @@
       <c r="AF393" s="3"/>
       <c r="AG393" s="1"/>
     </row>
-    <row r="394" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -15876,7 +15900,7 @@
       <c r="AF394" s="3"/>
       <c r="AG394" s="1"/>
     </row>
-    <row r="395" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -15911,7 +15935,7 @@
       <c r="AF395" s="3"/>
       <c r="AG395" s="1"/>
     </row>
-    <row r="396" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -15946,7 +15970,7 @@
       <c r="AF396" s="3"/>
       <c r="AG396" s="1"/>
     </row>
-    <row r="397" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -15981,7 +16005,7 @@
       <c r="AF397" s="3"/>
       <c r="AG397" s="1"/>
     </row>
-    <row r="398" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -16016,7 +16040,7 @@
       <c r="AF398" s="3"/>
       <c r="AG398" s="1"/>
     </row>
-    <row r="399" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -16051,7 +16075,7 @@
       <c r="AF399" s="3"/>
       <c r="AG399" s="1"/>
     </row>
-    <row r="400" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -16086,7 +16110,7 @@
       <c r="AF400" s="3"/>
       <c r="AG400" s="1"/>
     </row>
-    <row r="401" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -16121,7 +16145,7 @@
       <c r="AF401" s="3"/>
       <c r="AG401" s="1"/>
     </row>
-    <row r="402" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -16156,7 +16180,7 @@
       <c r="AF402" s="3"/>
       <c r="AG402" s="1"/>
     </row>
-    <row r="403" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -16191,7 +16215,7 @@
       <c r="AF403" s="3"/>
       <c r="AG403" s="1"/>
     </row>
-    <row r="404" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -16226,7 +16250,7 @@
       <c r="AF404" s="3"/>
       <c r="AG404" s="1"/>
     </row>
-    <row r="405" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -16261,7 +16285,7 @@
       <c r="AF405" s="3"/>
       <c r="AG405" s="1"/>
     </row>
-    <row r="406" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -16296,7 +16320,7 @@
       <c r="AF406" s="3"/>
       <c r="AG406" s="1"/>
     </row>
-    <row r="407" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -16331,7 +16355,7 @@
       <c r="AF407" s="3"/>
       <c r="AG407" s="1"/>
     </row>
-    <row r="408" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -16366,7 +16390,7 @@
       <c r="AF408" s="3"/>
       <c r="AG408" s="1"/>
     </row>
-    <row r="409" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -16401,7 +16425,7 @@
       <c r="AF409" s="3"/>
       <c r="AG409" s="1"/>
     </row>
-    <row r="410" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -16436,7 +16460,7 @@
       <c r="AF410" s="3"/>
       <c r="AG410" s="1"/>
     </row>
-    <row r="411" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -16471,7 +16495,7 @@
       <c r="AF411" s="3"/>
       <c r="AG411" s="1"/>
     </row>
-    <row r="412" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -16506,7 +16530,7 @@
       <c r="AF412" s="3"/>
       <c r="AG412" s="1"/>
     </row>
-    <row r="413" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -16541,7 +16565,7 @@
       <c r="AF413" s="3"/>
       <c r="AG413" s="1"/>
     </row>
-    <row r="414" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -16576,7 +16600,7 @@
       <c r="AF414" s="3"/>
       <c r="AG414" s="1"/>
     </row>
-    <row r="415" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -16611,7 +16635,7 @@
       <c r="AF415" s="3"/>
       <c r="AG415" s="1"/>
     </row>
-    <row r="416" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -16646,7 +16670,7 @@
       <c r="AF416" s="3"/>
       <c r="AG416" s="1"/>
     </row>
-    <row r="417" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -16681,7 +16705,7 @@
       <c r="AF417" s="3"/>
       <c r="AG417" s="1"/>
     </row>
-    <row r="418" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -16716,7 +16740,7 @@
       <c r="AF418" s="3"/>
       <c r="AG418" s="1"/>
     </row>
-    <row r="419" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -16751,7 +16775,7 @@
       <c r="AF419" s="3"/>
       <c r="AG419" s="1"/>
     </row>
-    <row r="420" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -16786,7 +16810,7 @@
       <c r="AF420" s="3"/>
       <c r="AG420" s="1"/>
     </row>
-    <row r="421" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -16821,7 +16845,7 @@
       <c r="AF421" s="3"/>
       <c r="AG421" s="1"/>
     </row>
-    <row r="422" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -16856,7 +16880,7 @@
       <c r="AF422" s="3"/>
       <c r="AG422" s="1"/>
     </row>
-    <row r="423" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -16891,7 +16915,7 @@
       <c r="AF423" s="3"/>
       <c r="AG423" s="1"/>
     </row>
-    <row r="424" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -16926,7 +16950,7 @@
       <c r="AF424" s="3"/>
       <c r="AG424" s="1"/>
     </row>
-    <row r="425" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -16961,7 +16985,7 @@
       <c r="AF425" s="3"/>
       <c r="AG425" s="1"/>
     </row>
-    <row r="426" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -16996,7 +17020,7 @@
       <c r="AF426" s="3"/>
       <c r="AG426" s="1"/>
     </row>
-    <row r="427" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -17031,7 +17055,7 @@
       <c r="AF427" s="3"/>
       <c r="AG427" s="1"/>
     </row>
-    <row r="428" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -17066,7 +17090,7 @@
       <c r="AF428" s="3"/>
       <c r="AG428" s="1"/>
     </row>
-    <row r="429" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -17101,7 +17125,7 @@
       <c r="AF429" s="3"/>
       <c r="AG429" s="1"/>
     </row>
-    <row r="430" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -17136,7 +17160,7 @@
       <c r="AF430" s="3"/>
       <c r="AG430" s="1"/>
     </row>
-    <row r="431" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -17171,7 +17195,7 @@
       <c r="AF431" s="3"/>
       <c r="AG431" s="1"/>
     </row>
-    <row r="432" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -17206,7 +17230,7 @@
       <c r="AF432" s="3"/>
       <c r="AG432" s="1"/>
     </row>
-    <row r="433" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -17241,7 +17265,7 @@
       <c r="AF433" s="3"/>
       <c r="AG433" s="1"/>
     </row>
-    <row r="434" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -17276,7 +17300,7 @@
       <c r="AF434" s="3"/>
       <c r="AG434" s="1"/>
     </row>
-    <row r="435" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -17311,7 +17335,7 @@
       <c r="AF435" s="3"/>
       <c r="AG435" s="1"/>
     </row>
-    <row r="436" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -17346,7 +17370,7 @@
       <c r="AF436" s="3"/>
       <c r="AG436" s="1"/>
     </row>
-    <row r="437" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -17381,7 +17405,7 @@
       <c r="AF437" s="3"/>
       <c r="AG437" s="1"/>
     </row>
-    <row r="438" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -17416,7 +17440,7 @@
       <c r="AF438" s="3"/>
       <c r="AG438" s="1"/>
     </row>
-    <row r="439" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -17451,7 +17475,7 @@
       <c r="AF439" s="3"/>
       <c r="AG439" s="1"/>
     </row>
-    <row r="440" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -17486,7 +17510,7 @@
       <c r="AF440" s="3"/>
       <c r="AG440" s="1"/>
     </row>
-    <row r="441" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -17521,7 +17545,7 @@
       <c r="AF441" s="3"/>
       <c r="AG441" s="1"/>
     </row>
-    <row r="442" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -17556,7 +17580,7 @@
       <c r="AF442" s="3"/>
       <c r="AG442" s="1"/>
     </row>
-    <row r="443" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -17591,7 +17615,7 @@
       <c r="AF443" s="3"/>
       <c r="AG443" s="1"/>
     </row>
-    <row r="444" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -17626,7 +17650,7 @@
       <c r="AF444" s="3"/>
       <c r="AG444" s="1"/>
     </row>
-    <row r="445" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -17661,7 +17685,7 @@
       <c r="AF445" s="3"/>
       <c r="AG445" s="1"/>
     </row>
-    <row r="446" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -17696,7 +17720,7 @@
       <c r="AF446" s="3"/>
       <c r="AG446" s="1"/>
     </row>
-    <row r="447" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -17731,7 +17755,7 @@
       <c r="AF447" s="3"/>
       <c r="AG447" s="1"/>
     </row>
-    <row r="448" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -17766,7 +17790,7 @@
       <c r="AF448" s="3"/>
       <c r="AG448" s="1"/>
     </row>
-    <row r="449" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -17801,7 +17825,7 @@
       <c r="AF449" s="3"/>
       <c r="AG449" s="1"/>
     </row>
-    <row r="450" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -17836,7 +17860,7 @@
       <c r="AF450" s="3"/>
       <c r="AG450" s="1"/>
     </row>
-    <row r="451" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -17871,7 +17895,7 @@
       <c r="AF451" s="3"/>
       <c r="AG451" s="1"/>
     </row>
-    <row r="452" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -17906,7 +17930,7 @@
       <c r="AF452" s="3"/>
       <c r="AG452" s="1"/>
     </row>
-    <row r="453" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -17941,7 +17965,7 @@
       <c r="AF453" s="3"/>
       <c r="AG453" s="1"/>
     </row>
-    <row r="454" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -17976,7 +18000,7 @@
       <c r="AF454" s="3"/>
       <c r="AG454" s="1"/>
     </row>
-    <row r="455" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -18011,7 +18035,7 @@
       <c r="AF455" s="3"/>
       <c r="AG455" s="1"/>
     </row>
-    <row r="456" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -18046,7 +18070,7 @@
       <c r="AF456" s="3"/>
       <c r="AG456" s="1"/>
     </row>
-    <row r="457" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -18081,7 +18105,7 @@
       <c r="AF457" s="3"/>
       <c r="AG457" s="1"/>
     </row>
-    <row r="458" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -18116,7 +18140,7 @@
       <c r="AF458" s="3"/>
       <c r="AG458" s="1"/>
     </row>
-    <row r="459" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -18151,7 +18175,7 @@
       <c r="AF459" s="3"/>
       <c r="AG459" s="1"/>
     </row>
-    <row r="460" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -18186,7 +18210,7 @@
       <c r="AF460" s="3"/>
       <c r="AG460" s="1"/>
     </row>
-    <row r="461" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -18221,7 +18245,7 @@
       <c r="AF461" s="3"/>
       <c r="AG461" s="1"/>
     </row>
-    <row r="462" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -18256,7 +18280,7 @@
       <c r="AF462" s="3"/>
       <c r="AG462" s="1"/>
     </row>
-    <row r="463" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -18291,7 +18315,7 @@
       <c r="AF463" s="3"/>
       <c r="AG463" s="1"/>
     </row>
-    <row r="464" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -18326,7 +18350,7 @@
       <c r="AF464" s="3"/>
       <c r="AG464" s="1"/>
     </row>
-    <row r="465" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -18361,7 +18385,7 @@
       <c r="AF465" s="3"/>
       <c r="AG465" s="1"/>
     </row>
-    <row r="466" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -18396,7 +18420,7 @@
       <c r="AF466" s="3"/>
       <c r="AG466" s="1"/>
     </row>
-    <row r="467" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -18431,7 +18455,7 @@
       <c r="AF467" s="3"/>
       <c r="AG467" s="1"/>
     </row>
-    <row r="468" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -18466,7 +18490,7 @@
       <c r="AF468" s="3"/>
       <c r="AG468" s="1"/>
     </row>
-    <row r="469" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -18501,7 +18525,7 @@
       <c r="AF469" s="3"/>
       <c r="AG469" s="1"/>
     </row>
-    <row r="470" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -18536,7 +18560,7 @@
       <c r="AF470" s="3"/>
       <c r="AG470" s="1"/>
     </row>
-    <row r="471" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -18571,7 +18595,7 @@
       <c r="AF471" s="3"/>
       <c r="AG471" s="1"/>
     </row>
-    <row r="472" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -18606,7 +18630,7 @@
       <c r="AF472" s="3"/>
       <c r="AG472" s="1"/>
     </row>
-    <row r="473" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -18641,7 +18665,7 @@
       <c r="AF473" s="3"/>
       <c r="AG473" s="1"/>
     </row>
-    <row r="474" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -18676,7 +18700,7 @@
       <c r="AF474" s="3"/>
       <c r="AG474" s="1"/>
     </row>
-    <row r="475" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -18711,7 +18735,7 @@
       <c r="AF475" s="3"/>
       <c r="AG475" s="1"/>
     </row>
-    <row r="476" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -18746,7 +18770,7 @@
       <c r="AF476" s="3"/>
       <c r="AG476" s="1"/>
     </row>
-    <row r="477" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -18781,7 +18805,7 @@
       <c r="AF477" s="3"/>
       <c r="AG477" s="1"/>
     </row>
-    <row r="478" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -18816,7 +18840,7 @@
       <c r="AF478" s="3"/>
       <c r="AG478" s="1"/>
     </row>
-    <row r="479" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -18851,7 +18875,7 @@
       <c r="AF479" s="3"/>
       <c r="AG479" s="1"/>
     </row>
-    <row r="480" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -18886,7 +18910,7 @@
       <c r="AF480" s="3"/>
       <c r="AG480" s="1"/>
     </row>
-    <row r="481" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -18921,7 +18945,7 @@
       <c r="AF481" s="3"/>
       <c r="AG481" s="1"/>
     </row>
-    <row r="482" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -18956,7 +18980,7 @@
       <c r="AF482" s="3"/>
       <c r="AG482" s="1"/>
     </row>
-    <row r="483" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -18991,7 +19015,7 @@
       <c r="AF483" s="3"/>
       <c r="AG483" s="1"/>
     </row>
-    <row r="484" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -19026,7 +19050,7 @@
       <c r="AF484" s="3"/>
       <c r="AG484" s="1"/>
     </row>
-    <row r="485" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -19061,7 +19085,7 @@
       <c r="AF485" s="3"/>
       <c r="AG485" s="1"/>
     </row>
-    <row r="486" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -19096,7 +19120,7 @@
       <c r="AF486" s="3"/>
       <c r="AG486" s="1"/>
     </row>
-    <row r="487" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -19131,7 +19155,7 @@
       <c r="AF487" s="3"/>
       <c r="AG487" s="1"/>
     </row>
-    <row r="488" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -19166,7 +19190,7 @@
       <c r="AF488" s="3"/>
       <c r="AG488" s="1"/>
     </row>
-    <row r="489" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -19201,7 +19225,7 @@
       <c r="AF489" s="3"/>
       <c r="AG489" s="1"/>
     </row>
-    <row r="490" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -19236,7 +19260,7 @@
       <c r="AF490" s="3"/>
       <c r="AG490" s="1"/>
     </row>
-    <row r="491" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -19271,7 +19295,7 @@
       <c r="AF491" s="3"/>
       <c r="AG491" s="1"/>
     </row>
-    <row r="492" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -19306,7 +19330,7 @@
       <c r="AF492" s="3"/>
       <c r="AG492" s="1"/>
     </row>
-    <row r="493" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -19341,7 +19365,7 @@
       <c r="AF493" s="3"/>
       <c r="AG493" s="1"/>
     </row>
-    <row r="494" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -19376,7 +19400,7 @@
       <c r="AF494" s="3"/>
       <c r="AG494" s="1"/>
     </row>
-    <row r="495" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -19411,7 +19435,7 @@
       <c r="AF495" s="3"/>
       <c r="AG495" s="1"/>
     </row>
-    <row r="496" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -19446,7 +19470,7 @@
       <c r="AF496" s="3"/>
       <c r="AG496" s="1"/>
     </row>
-    <row r="497" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -19481,7 +19505,7 @@
       <c r="AF497" s="3"/>
       <c r="AG497" s="1"/>
     </row>
-    <row r="498" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -19516,7 +19540,7 @@
       <c r="AF498" s="3"/>
       <c r="AG498" s="1"/>
     </row>
-    <row r="499" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -19551,7 +19575,7 @@
       <c r="AF499" s="3"/>
       <c r="AG499" s="1"/>
     </row>
-    <row r="500" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -19586,7 +19610,7 @@
       <c r="AF500" s="3"/>
       <c r="AG500" s="1"/>
     </row>
-    <row r="501" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -19621,7 +19645,7 @@
       <c r="AF501" s="3"/>
       <c r="AG501" s="1"/>
     </row>
-    <row r="502" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -19656,7 +19680,7 @@
       <c r="AF502" s="3"/>
       <c r="AG502" s="1"/>
     </row>
-    <row r="503" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -19691,7 +19715,7 @@
       <c r="AF503" s="3"/>
       <c r="AG503" s="1"/>
     </row>
-    <row r="504" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -19726,7 +19750,7 @@
       <c r="AF504" s="3"/>
       <c r="AG504" s="1"/>
     </row>
-    <row r="505" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -19761,7 +19785,7 @@
       <c r="AF505" s="3"/>
       <c r="AG505" s="1"/>
     </row>
-    <row r="506" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -19796,7 +19820,7 @@
       <c r="AF506" s="3"/>
       <c r="AG506" s="1"/>
     </row>
-    <row r="507" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -19831,7 +19855,7 @@
       <c r="AF507" s="3"/>
       <c r="AG507" s="1"/>
     </row>
-    <row r="508" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -19866,7 +19890,7 @@
       <c r="AF508" s="3"/>
       <c r="AG508" s="1"/>
     </row>
-    <row r="509" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -19901,7 +19925,7 @@
       <c r="AF509" s="3"/>
       <c r="AG509" s="1"/>
     </row>
-    <row r="510" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -19936,7 +19960,7 @@
       <c r="AF510" s="3"/>
       <c r="AG510" s="1"/>
     </row>
-    <row r="511" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -19971,7 +19995,7 @@
       <c r="AF511" s="3"/>
       <c r="AG511" s="1"/>
     </row>
-    <row r="512" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -20006,7 +20030,7 @@
       <c r="AF512" s="3"/>
       <c r="AG512" s="1"/>
     </row>
-    <row r="513" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -20041,7 +20065,7 @@
       <c r="AF513" s="3"/>
       <c r="AG513" s="1"/>
     </row>
-    <row r="514" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -20076,7 +20100,7 @@
       <c r="AF514" s="3"/>
       <c r="AG514" s="1"/>
     </row>
-    <row r="515" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -20111,7 +20135,7 @@
       <c r="AF515" s="3"/>
       <c r="AG515" s="1"/>
     </row>
-    <row r="516" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -20146,7 +20170,7 @@
       <c r="AF516" s="3"/>
       <c r="AG516" s="1"/>
     </row>
-    <row r="517" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -20181,7 +20205,7 @@
       <c r="AF517" s="3"/>
       <c r="AG517" s="1"/>
     </row>
-    <row r="518" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -20216,7 +20240,7 @@
       <c r="AF518" s="3"/>
       <c r="AG518" s="1"/>
     </row>
-    <row r="519" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -20251,7 +20275,7 @@
       <c r="AF519" s="3"/>
       <c r="AG519" s="1"/>
     </row>
-    <row r="520" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -20286,7 +20310,7 @@
       <c r="AF520" s="3"/>
       <c r="AG520" s="1"/>
     </row>
-    <row r="521" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -20321,7 +20345,7 @@
       <c r="AF521" s="3"/>
       <c r="AG521" s="1"/>
     </row>
-    <row r="522" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -20356,7 +20380,7 @@
       <c r="AF522" s="3"/>
       <c r="AG522" s="1"/>
     </row>
-    <row r="523" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -20391,7 +20415,7 @@
       <c r="AF523" s="3"/>
       <c r="AG523" s="1"/>
     </row>
-    <row r="524" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -20426,7 +20450,7 @@
       <c r="AF524" s="3"/>
       <c r="AG524" s="1"/>
     </row>
-    <row r="525" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -20461,7 +20485,7 @@
       <c r="AF525" s="3"/>
       <c r="AG525" s="1"/>
     </row>
-    <row r="526" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -20496,7 +20520,7 @@
       <c r="AF526" s="3"/>
       <c r="AG526" s="1"/>
     </row>
-    <row r="527" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -20531,7 +20555,7 @@
       <c r="AF527" s="3"/>
       <c r="AG527" s="1"/>
     </row>
-    <row r="528" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -20566,7 +20590,7 @@
       <c r="AF528" s="3"/>
       <c r="AG528" s="1"/>
     </row>
-    <row r="529" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -20601,7 +20625,7 @@
       <c r="AF529" s="3"/>
       <c r="AG529" s="1"/>
     </row>
-    <row r="530" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -20636,7 +20660,7 @@
       <c r="AF530" s="3"/>
       <c r="AG530" s="1"/>
     </row>
-    <row r="531" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -20671,7 +20695,7 @@
       <c r="AF531" s="3"/>
       <c r="AG531" s="1"/>
     </row>
-    <row r="532" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -20706,7 +20730,7 @@
       <c r="AF532" s="3"/>
       <c r="AG532" s="1"/>
     </row>
-    <row r="533" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -20741,7 +20765,7 @@
       <c r="AF533" s="3"/>
       <c r="AG533" s="1"/>
     </row>
-    <row r="534" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -20776,7 +20800,7 @@
       <c r="AF534" s="3"/>
       <c r="AG534" s="1"/>
     </row>
-    <row r="535" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -20811,7 +20835,7 @@
       <c r="AF535" s="3"/>
       <c r="AG535" s="1"/>
     </row>
-    <row r="536" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -20846,7 +20870,7 @@
       <c r="AF536" s="3"/>
       <c r="AG536" s="1"/>
     </row>
-    <row r="537" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -20881,7 +20905,7 @@
       <c r="AF537" s="3"/>
       <c r="AG537" s="1"/>
     </row>
-    <row r="538" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -20916,7 +20940,7 @@
       <c r="AF538" s="3"/>
       <c r="AG538" s="1"/>
     </row>
-    <row r="539" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -20951,7 +20975,7 @@
       <c r="AF539" s="3"/>
       <c r="AG539" s="1"/>
     </row>
-    <row r="540" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -20986,7 +21010,7 @@
       <c r="AF540" s="3"/>
       <c r="AG540" s="1"/>
     </row>
-    <row r="541" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -21021,7 +21045,7 @@
       <c r="AF541" s="3"/>
       <c r="AG541" s="1"/>
     </row>
-    <row r="542" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -21056,7 +21080,7 @@
       <c r="AF542" s="3"/>
       <c r="AG542" s="1"/>
     </row>
-    <row r="543" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -21091,7 +21115,7 @@
       <c r="AF543" s="3"/>
       <c r="AG543" s="1"/>
     </row>
-    <row r="544" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -21126,7 +21150,7 @@
       <c r="AF544" s="3"/>
       <c r="AG544" s="1"/>
     </row>
-    <row r="545" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -21161,7 +21185,7 @@
       <c r="AF545" s="3"/>
       <c r="AG545" s="1"/>
     </row>
-    <row r="546" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -21196,7 +21220,7 @@
       <c r="AF546" s="3"/>
       <c r="AG546" s="1"/>
     </row>
-    <row r="547" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -21231,7 +21255,7 @@
       <c r="AF547" s="3"/>
       <c r="AG547" s="1"/>
     </row>
-    <row r="548" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -21266,7 +21290,7 @@
       <c r="AF548" s="3"/>
       <c r="AG548" s="1"/>
     </row>
-    <row r="549" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -21301,7 +21325,7 @@
       <c r="AF549" s="3"/>
       <c r="AG549" s="1"/>
     </row>
-    <row r="550" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -21336,7 +21360,7 @@
       <c r="AF550" s="3"/>
       <c r="AG550" s="1"/>
     </row>
-    <row r="551" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -21371,7 +21395,7 @@
       <c r="AF551" s="3"/>
       <c r="AG551" s="1"/>
     </row>
-    <row r="552" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -21406,7 +21430,7 @@
       <c r="AF552" s="3"/>
       <c r="AG552" s="1"/>
     </row>
-    <row r="553" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -21441,7 +21465,7 @@
       <c r="AF553" s="3"/>
       <c r="AG553" s="1"/>
     </row>
-    <row r="554" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -21476,7 +21500,7 @@
       <c r="AF554" s="3"/>
       <c r="AG554" s="1"/>
     </row>
-    <row r="555" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -21511,7 +21535,7 @@
       <c r="AF555" s="3"/>
       <c r="AG555" s="1"/>
     </row>
-    <row r="556" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -21546,7 +21570,7 @@
       <c r="AF556" s="3"/>
       <c r="AG556" s="1"/>
     </row>
-    <row r="557" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -21581,7 +21605,7 @@
       <c r="AF557" s="3"/>
       <c r="AG557" s="1"/>
     </row>
-    <row r="558" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -21616,7 +21640,7 @@
       <c r="AF558" s="3"/>
       <c r="AG558" s="1"/>
     </row>
-    <row r="559" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -21651,7 +21675,7 @@
       <c r="AF559" s="3"/>
       <c r="AG559" s="1"/>
     </row>
-    <row r="560" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -21686,7 +21710,7 @@
       <c r="AF560" s="3"/>
       <c r="AG560" s="1"/>
     </row>
-    <row r="561" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -21721,7 +21745,7 @@
       <c r="AF561" s="3"/>
       <c r="AG561" s="1"/>
     </row>
-    <row r="562" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -21756,7 +21780,7 @@
       <c r="AF562" s="3"/>
       <c r="AG562" s="1"/>
     </row>
-    <row r="563" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -21791,7 +21815,7 @@
       <c r="AF563" s="3"/>
       <c r="AG563" s="1"/>
     </row>
-    <row r="564" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -21826,7 +21850,7 @@
       <c r="AF564" s="3"/>
       <c r="AG564" s="1"/>
     </row>
-    <row r="565" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -21861,7 +21885,7 @@
       <c r="AF565" s="3"/>
       <c r="AG565" s="1"/>
     </row>
-    <row r="566" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -21896,7 +21920,7 @@
       <c r="AF566" s="3"/>
       <c r="AG566" s="1"/>
     </row>
-    <row r="567" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -21931,7 +21955,7 @@
       <c r="AF567" s="3"/>
       <c r="AG567" s="1"/>
     </row>
-    <row r="568" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -21966,7 +21990,7 @@
       <c r="AF568" s="3"/>
       <c r="AG568" s="1"/>
     </row>
-    <row r="569" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -22001,7 +22025,7 @@
       <c r="AF569" s="3"/>
       <c r="AG569" s="1"/>
     </row>
-    <row r="570" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -22036,7 +22060,7 @@
       <c r="AF570" s="3"/>
       <c r="AG570" s="1"/>
     </row>
-    <row r="571" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -22071,7 +22095,7 @@
       <c r="AF571" s="3"/>
       <c r="AG571" s="1"/>
     </row>
-    <row r="572" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -22106,7 +22130,7 @@
       <c r="AF572" s="3"/>
       <c r="AG572" s="1"/>
     </row>
-    <row r="573" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -22141,7 +22165,7 @@
       <c r="AF573" s="3"/>
       <c r="AG573" s="1"/>
     </row>
-    <row r="574" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -22176,7 +22200,7 @@
       <c r="AF574" s="3"/>
       <c r="AG574" s="1"/>
     </row>
-    <row r="575" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -22211,7 +22235,7 @@
       <c r="AF575" s="3"/>
       <c r="AG575" s="1"/>
     </row>
-    <row r="576" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -22246,7 +22270,7 @@
       <c r="AF576" s="3"/>
       <c r="AG576" s="1"/>
     </row>
-    <row r="577" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -22281,7 +22305,7 @@
       <c r="AF577" s="3"/>
       <c r="AG577" s="1"/>
     </row>
-    <row r="578" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -22316,7 +22340,7 @@
       <c r="AF578" s="3"/>
       <c r="AG578" s="1"/>
     </row>
-    <row r="579" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -22351,7 +22375,7 @@
       <c r="AF579" s="3"/>
       <c r="AG579" s="1"/>
     </row>
-    <row r="580" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -22386,7 +22410,7 @@
       <c r="AF580" s="3"/>
       <c r="AG580" s="1"/>
     </row>
-    <row r="581" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -22421,7 +22445,7 @@
       <c r="AF581" s="3"/>
       <c r="AG581" s="1"/>
     </row>
-    <row r="582" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -22456,7 +22480,7 @@
       <c r="AF582" s="3"/>
       <c r="AG582" s="1"/>
     </row>
-    <row r="583" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -22491,7 +22515,7 @@
       <c r="AF583" s="3"/>
       <c r="AG583" s="1"/>
     </row>
-    <row r="584" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -22526,7 +22550,7 @@
       <c r="AF584" s="3"/>
       <c r="AG584" s="1"/>
     </row>
-    <row r="585" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -22561,7 +22585,7 @@
       <c r="AF585" s="3"/>
       <c r="AG585" s="1"/>
     </row>
-    <row r="586" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -22596,7 +22620,7 @@
       <c r="AF586" s="3"/>
       <c r="AG586" s="1"/>
     </row>
-    <row r="587" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -22631,7 +22655,7 @@
       <c r="AF587" s="3"/>
       <c r="AG587" s="1"/>
     </row>
-    <row r="588" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -22666,7 +22690,7 @@
       <c r="AF588" s="3"/>
       <c r="AG588" s="1"/>
     </row>
-    <row r="589" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -22701,7 +22725,7 @@
       <c r="AF589" s="3"/>
       <c r="AG589" s="1"/>
     </row>
-    <row r="590" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -22736,7 +22760,7 @@
       <c r="AF590" s="3"/>
       <c r="AG590" s="1"/>
     </row>
-    <row r="591" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -22771,7 +22795,7 @@
       <c r="AF591" s="3"/>
       <c r="AG591" s="1"/>
     </row>
-    <row r="592" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -22806,7 +22830,7 @@
       <c r="AF592" s="3"/>
       <c r="AG592" s="1"/>
     </row>
-    <row r="593" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -22841,7 +22865,7 @@
       <c r="AF593" s="3"/>
       <c r="AG593" s="1"/>
     </row>
-    <row r="594" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -22876,7 +22900,7 @@
       <c r="AF594" s="3"/>
       <c r="AG594" s="1"/>
     </row>
-    <row r="595" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -22911,7 +22935,7 @@
       <c r="AF595" s="3"/>
       <c r="AG595" s="1"/>
     </row>
-    <row r="596" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -22946,7 +22970,7 @@
       <c r="AF596" s="3"/>
       <c r="AG596" s="1"/>
     </row>
-    <row r="597" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -22981,7 +23005,7 @@
       <c r="AF597" s="3"/>
       <c r="AG597" s="1"/>
     </row>
-    <row r="598" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -23016,7 +23040,7 @@
       <c r="AF598" s="3"/>
       <c r="AG598" s="1"/>
     </row>
-    <row r="599" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -23051,7 +23075,7 @@
       <c r="AF599" s="3"/>
       <c r="AG599" s="1"/>
     </row>
-    <row r="600" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -23086,7 +23110,7 @@
       <c r="AF600" s="3"/>
       <c r="AG600" s="1"/>
     </row>
-    <row r="601" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -23121,7 +23145,7 @@
       <c r="AF601" s="3"/>
       <c r="AG601" s="1"/>
     </row>
-    <row r="602" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -23156,7 +23180,7 @@
       <c r="AF602" s="3"/>
       <c r="AG602" s="1"/>
     </row>
-    <row r="603" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -23191,7 +23215,7 @@
       <c r="AF603" s="3"/>
       <c r="AG603" s="1"/>
     </row>
-    <row r="604" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -23226,7 +23250,7 @@
       <c r="AF604" s="3"/>
       <c r="AG604" s="1"/>
     </row>
-    <row r="605" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -23261,7 +23285,7 @@
       <c r="AF605" s="3"/>
       <c r="AG605" s="1"/>
     </row>
-    <row r="606" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -23296,7 +23320,7 @@
       <c r="AF606" s="3"/>
       <c r="AG606" s="1"/>
     </row>
-    <row r="607" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -23331,7 +23355,7 @@
       <c r="AF607" s="3"/>
       <c r="AG607" s="1"/>
     </row>
-    <row r="608" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -23366,7 +23390,7 @@
       <c r="AF608" s="3"/>
       <c r="AG608" s="1"/>
     </row>
-    <row r="609" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -23401,7 +23425,7 @@
       <c r="AF609" s="3"/>
       <c r="AG609" s="1"/>
     </row>
-    <row r="610" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -23436,7 +23460,7 @@
       <c r="AF610" s="3"/>
       <c r="AG610" s="1"/>
     </row>
-    <row r="611" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -23471,7 +23495,7 @@
       <c r="AF611" s="3"/>
       <c r="AG611" s="1"/>
     </row>
-    <row r="612" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -23506,7 +23530,7 @@
       <c r="AF612" s="3"/>
       <c r="AG612" s="1"/>
     </row>
-    <row r="613" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -23541,7 +23565,7 @@
       <c r="AF613" s="3"/>
       <c r="AG613" s="1"/>
     </row>
-    <row r="614" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -23576,7 +23600,7 @@
       <c r="AF614" s="3"/>
       <c r="AG614" s="1"/>
     </row>
-    <row r="615" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -23611,7 +23635,7 @@
       <c r="AF615" s="3"/>
       <c r="AG615" s="1"/>
     </row>
-    <row r="616" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -23646,7 +23670,7 @@
       <c r="AF616" s="3"/>
       <c r="AG616" s="1"/>
     </row>
-    <row r="617" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -23681,7 +23705,7 @@
       <c r="AF617" s="3"/>
       <c r="AG617" s="1"/>
     </row>
-    <row r="618" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -23716,7 +23740,7 @@
       <c r="AF618" s="3"/>
       <c r="AG618" s="1"/>
     </row>
-    <row r="619" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -23751,7 +23775,7 @@
       <c r="AF619" s="3"/>
       <c r="AG619" s="1"/>
     </row>
-    <row r="620" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -23786,7 +23810,7 @@
       <c r="AF620" s="3"/>
       <c r="AG620" s="1"/>
     </row>
-    <row r="621" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -23821,7 +23845,7 @@
       <c r="AF621" s="3"/>
       <c r="AG621" s="1"/>
     </row>
-    <row r="622" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -23856,7 +23880,7 @@
       <c r="AF622" s="3"/>
       <c r="AG622" s="1"/>
     </row>
-    <row r="623" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -23891,7 +23915,7 @@
       <c r="AF623" s="3"/>
       <c r="AG623" s="1"/>
     </row>
-    <row r="624" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -23926,7 +23950,7 @@
       <c r="AF624" s="3"/>
       <c r="AG624" s="1"/>
     </row>
-    <row r="625" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -23961,7 +23985,7 @@
       <c r="AF625" s="3"/>
       <c r="AG625" s="1"/>
     </row>
-    <row r="626" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -23996,7 +24020,7 @@
       <c r="AF626" s="3"/>
       <c r="AG626" s="1"/>
     </row>
-    <row r="627" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -24031,7 +24055,7 @@
       <c r="AF627" s="3"/>
       <c r="AG627" s="1"/>
     </row>
-    <row r="628" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -24066,7 +24090,7 @@
       <c r="AF628" s="3"/>
       <c r="AG628" s="1"/>
     </row>
-    <row r="629" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -24101,7 +24125,7 @@
       <c r="AF629" s="3"/>
       <c r="AG629" s="1"/>
     </row>
-    <row r="630" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -24136,7 +24160,7 @@
       <c r="AF630" s="3"/>
       <c r="AG630" s="1"/>
     </row>
-    <row r="631" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -24171,7 +24195,7 @@
       <c r="AF631" s="3"/>
       <c r="AG631" s="1"/>
     </row>
-    <row r="632" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -24206,7 +24230,7 @@
       <c r="AF632" s="3"/>
       <c r="AG632" s="1"/>
     </row>
-    <row r="633" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -24241,7 +24265,7 @@
       <c r="AF633" s="3"/>
       <c r="AG633" s="1"/>
     </row>
-    <row r="634" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -24276,7 +24300,7 @@
       <c r="AF634" s="3"/>
       <c r="AG634" s="1"/>
     </row>
-    <row r="635" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -24311,7 +24335,7 @@
       <c r="AF635" s="3"/>
       <c r="AG635" s="1"/>
     </row>
-    <row r="636" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -24346,7 +24370,7 @@
       <c r="AF636" s="3"/>
       <c r="AG636" s="1"/>
     </row>
-    <row r="637" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -24381,7 +24405,7 @@
       <c r="AF637" s="3"/>
       <c r="AG637" s="1"/>
     </row>
-    <row r="638" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -24416,7 +24440,7 @@
       <c r="AF638" s="3"/>
       <c r="AG638" s="1"/>
     </row>
-    <row r="639" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -24451,7 +24475,7 @@
       <c r="AF639" s="3"/>
       <c r="AG639" s="1"/>
     </row>
-    <row r="640" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -24486,7 +24510,7 @@
       <c r="AF640" s="3"/>
       <c r="AG640" s="1"/>
     </row>
-    <row r="641" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -24521,7 +24545,7 @@
       <c r="AF641" s="3"/>
       <c r="AG641" s="1"/>
     </row>
-    <row r="642" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -24556,7 +24580,7 @@
       <c r="AF642" s="3"/>
       <c r="AG642" s="1"/>
     </row>
-    <row r="643" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -24591,7 +24615,7 @@
       <c r="AF643" s="3"/>
       <c r="AG643" s="1"/>
     </row>
-    <row r="644" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -24626,7 +24650,7 @@
       <c r="AF644" s="3"/>
       <c r="AG644" s="1"/>
     </row>
-    <row r="645" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -24661,7 +24685,7 @@
       <c r="AF645" s="3"/>
       <c r="AG645" s="1"/>
     </row>
-    <row r="646" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -24696,7 +24720,7 @@
       <c r="AF646" s="3"/>
       <c r="AG646" s="1"/>
     </row>
-    <row r="647" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -24731,7 +24755,7 @@
       <c r="AF647" s="3"/>
       <c r="AG647" s="1"/>
     </row>
-    <row r="648" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -24766,7 +24790,7 @@
       <c r="AF648" s="3"/>
       <c r="AG648" s="1"/>
     </row>
-    <row r="649" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -24801,7 +24825,7 @@
       <c r="AF649" s="3"/>
       <c r="AG649" s="1"/>
     </row>
-    <row r="650" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -24836,7 +24860,7 @@
       <c r="AF650" s="3"/>
       <c r="AG650" s="1"/>
     </row>
-    <row r="651" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -24871,7 +24895,7 @@
       <c r="AF651" s="3"/>
       <c r="AG651" s="1"/>
     </row>
-    <row r="652" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -24906,7 +24930,7 @@
       <c r="AF652" s="3"/>
       <c r="AG652" s="1"/>
     </row>
-    <row r="653" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -24941,7 +24965,7 @@
       <c r="AF653" s="3"/>
       <c r="AG653" s="1"/>
     </row>
-    <row r="654" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -24976,7 +25000,7 @@
       <c r="AF654" s="3"/>
       <c r="AG654" s="1"/>
     </row>
-    <row r="655" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -25011,7 +25035,7 @@
       <c r="AF655" s="3"/>
       <c r="AG655" s="1"/>
     </row>
-    <row r="656" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -25046,7 +25070,7 @@
       <c r="AF656" s="3"/>
       <c r="AG656" s="1"/>
     </row>
-    <row r="657" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -25081,7 +25105,7 @@
       <c r="AF657" s="3"/>
       <c r="AG657" s="1"/>
     </row>
-    <row r="658" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -25116,7 +25140,7 @@
       <c r="AF658" s="3"/>
       <c r="AG658" s="1"/>
     </row>
-    <row r="659" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -25151,7 +25175,7 @@
       <c r="AF659" s="3"/>
       <c r="AG659" s="1"/>
     </row>
-    <row r="660" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -25186,7 +25210,7 @@
       <c r="AF660" s="3"/>
       <c r="AG660" s="1"/>
     </row>
-    <row r="661" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -25221,7 +25245,7 @@
       <c r="AF661" s="3"/>
       <c r="AG661" s="1"/>
     </row>
-    <row r="662" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -25256,7 +25280,7 @@
       <c r="AF662" s="3"/>
       <c r="AG662" s="1"/>
     </row>
-    <row r="663" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -25291,7 +25315,7 @@
       <c r="AF663" s="3"/>
       <c r="AG663" s="1"/>
     </row>
-    <row r="664" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -25326,7 +25350,7 @@
       <c r="AF664" s="3"/>
       <c r="AG664" s="1"/>
     </row>
-    <row r="665" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -25361,7 +25385,7 @@
       <c r="AF665" s="3"/>
       <c r="AG665" s="1"/>
     </row>
-    <row r="666" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -25396,7 +25420,7 @@
       <c r="AF666" s="3"/>
       <c r="AG666" s="1"/>
     </row>
-    <row r="667" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -25431,7 +25455,7 @@
       <c r="AF667" s="3"/>
       <c r="AG667" s="1"/>
     </row>
-    <row r="668" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -25466,7 +25490,7 @@
       <c r="AF668" s="3"/>
       <c r="AG668" s="1"/>
     </row>
-    <row r="669" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -25501,7 +25525,7 @@
       <c r="AF669" s="3"/>
       <c r="AG669" s="1"/>
     </row>
-    <row r="670" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -25536,7 +25560,7 @@
       <c r="AF670" s="3"/>
       <c r="AG670" s="1"/>
     </row>
-    <row r="671" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -25571,7 +25595,7 @@
       <c r="AF671" s="3"/>
       <c r="AG671" s="1"/>
     </row>
-    <row r="672" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -25606,7 +25630,7 @@
       <c r="AF672" s="3"/>
       <c r="AG672" s="1"/>
     </row>
-    <row r="673" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -25641,7 +25665,7 @@
       <c r="AF673" s="3"/>
       <c r="AG673" s="1"/>
     </row>
-    <row r="674" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -25676,7 +25700,7 @@
       <c r="AF674" s="3"/>
       <c r="AG674" s="1"/>
     </row>
-    <row r="675" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -25711,7 +25735,7 @@
       <c r="AF675" s="3"/>
       <c r="AG675" s="1"/>
     </row>
-    <row r="676" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -25746,7 +25770,7 @@
       <c r="AF676" s="3"/>
       <c r="AG676" s="1"/>
     </row>
-    <row r="677" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -25781,7 +25805,7 @@
       <c r="AF677" s="3"/>
       <c r="AG677" s="1"/>
     </row>
-    <row r="678" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -25816,7 +25840,7 @@
       <c r="AF678" s="3"/>
       <c r="AG678" s="1"/>
     </row>
-    <row r="679" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -25851,7 +25875,7 @@
       <c r="AF679" s="3"/>
       <c r="AG679" s="1"/>
     </row>
-    <row r="680" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -25886,7 +25910,7 @@
       <c r="AF680" s="3"/>
       <c r="AG680" s="1"/>
     </row>
-    <row r="681" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -25921,7 +25945,7 @@
       <c r="AF681" s="3"/>
       <c r="AG681" s="1"/>
     </row>
-    <row r="682" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -25956,7 +25980,7 @@
       <c r="AF682" s="3"/>
       <c r="AG682" s="1"/>
     </row>
-    <row r="683" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -25991,7 +26015,7 @@
       <c r="AF683" s="3"/>
       <c r="AG683" s="1"/>
     </row>
-    <row r="684" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -26026,7 +26050,7 @@
       <c r="AF684" s="3"/>
       <c r="AG684" s="1"/>
     </row>
-    <row r="685" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -26061,7 +26085,7 @@
       <c r="AF685" s="3"/>
       <c r="AG685" s="1"/>
     </row>
-    <row r="686" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -26096,7 +26120,7 @@
       <c r="AF686" s="3"/>
       <c r="AG686" s="1"/>
     </row>
-    <row r="687" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -26131,7 +26155,7 @@
       <c r="AF687" s="3"/>
       <c r="AG687" s="1"/>
     </row>
-    <row r="688" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -26166,7 +26190,7 @@
       <c r="AF688" s="3"/>
       <c r="AG688" s="1"/>
     </row>
-    <row r="689" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -26201,7 +26225,7 @@
       <c r="AF689" s="3"/>
       <c r="AG689" s="1"/>
     </row>
-    <row r="690" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -26236,7 +26260,7 @@
       <c r="AF690" s="3"/>
       <c r="AG690" s="1"/>
     </row>
-    <row r="691" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -26271,7 +26295,7 @@
       <c r="AF691" s="3"/>
       <c r="AG691" s="1"/>
     </row>
-    <row r="692" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -26306,7 +26330,7 @@
       <c r="AF692" s="3"/>
       <c r="AG692" s="1"/>
     </row>
-    <row r="693" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -26341,7 +26365,7 @@
       <c r="AF693" s="3"/>
       <c r="AG693" s="1"/>
     </row>
-    <row r="694" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -26376,7 +26400,7 @@
       <c r="AF694" s="3"/>
       <c r="AG694" s="1"/>
     </row>
-    <row r="695" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -26411,7 +26435,7 @@
       <c r="AF695" s="3"/>
       <c r="AG695" s="1"/>
     </row>
-    <row r="696" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -26446,7 +26470,7 @@
       <c r="AF696" s="3"/>
       <c r="AG696" s="1"/>
     </row>
-    <row r="697" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -26481,7 +26505,7 @@
       <c r="AF697" s="3"/>
       <c r="AG697" s="1"/>
     </row>
-    <row r="698" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -26516,7 +26540,7 @@
       <c r="AF698" s="3"/>
       <c r="AG698" s="1"/>
     </row>
-    <row r="699" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -26551,7 +26575,7 @@
       <c r="AF699" s="3"/>
       <c r="AG699" s="1"/>
     </row>
-    <row r="700" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -26586,7 +26610,7 @@
       <c r="AF700" s="3"/>
       <c r="AG700" s="1"/>
     </row>
-    <row r="701" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -26621,7 +26645,7 @@
       <c r="AF701" s="3"/>
       <c r="AG701" s="1"/>
     </row>
-    <row r="702" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -26656,7 +26680,7 @@
       <c r="AF702" s="3"/>
       <c r="AG702" s="1"/>
     </row>
-    <row r="703" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -26691,7 +26715,7 @@
       <c r="AF703" s="3"/>
       <c r="AG703" s="1"/>
     </row>
-    <row r="704" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -26726,7 +26750,7 @@
       <c r="AF704" s="3"/>
       <c r="AG704" s="1"/>
     </row>
-    <row r="705" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -26761,7 +26785,7 @@
       <c r="AF705" s="3"/>
       <c r="AG705" s="1"/>
     </row>
-    <row r="706" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -26796,7 +26820,7 @@
       <c r="AF706" s="3"/>
       <c r="AG706" s="1"/>
     </row>
-    <row r="707" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -26831,7 +26855,7 @@
       <c r="AF707" s="3"/>
       <c r="AG707" s="1"/>
     </row>
-    <row r="708" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -26866,7 +26890,7 @@
       <c r="AF708" s="3"/>
       <c r="AG708" s="1"/>
     </row>
-    <row r="709" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -26901,7 +26925,7 @@
       <c r="AF709" s="3"/>
       <c r="AG709" s="1"/>
     </row>
-    <row r="710" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -26936,7 +26960,7 @@
       <c r="AF710" s="3"/>
       <c r="AG710" s="1"/>
     </row>
-    <row r="711" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -26971,7 +26995,7 @@
       <c r="AF711" s="3"/>
       <c r="AG711" s="1"/>
     </row>
-    <row r="712" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -27006,7 +27030,7 @@
       <c r="AF712" s="3"/>
       <c r="AG712" s="1"/>
     </row>
-    <row r="713" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -27041,7 +27065,7 @@
       <c r="AF713" s="3"/>
       <c r="AG713" s="1"/>
     </row>
-    <row r="714" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -27076,7 +27100,7 @@
       <c r="AF714" s="3"/>
       <c r="AG714" s="1"/>
     </row>
-    <row r="715" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -27111,7 +27135,7 @@
       <c r="AF715" s="3"/>
       <c r="AG715" s="1"/>
     </row>
-    <row r="716" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -27146,7 +27170,7 @@
       <c r="AF716" s="3"/>
       <c r="AG716" s="1"/>
     </row>
-    <row r="717" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -27181,7 +27205,7 @@
       <c r="AF717" s="3"/>
       <c r="AG717" s="1"/>
     </row>
-    <row r="718" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -27216,7 +27240,7 @@
       <c r="AF718" s="3"/>
       <c r="AG718" s="1"/>
     </row>
-    <row r="719" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -27251,7 +27275,7 @@
       <c r="AF719" s="3"/>
       <c r="AG719" s="1"/>
     </row>
-    <row r="720" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -27286,7 +27310,7 @@
       <c r="AF720" s="3"/>
       <c r="AG720" s="1"/>
     </row>
-    <row r="721" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -27321,7 +27345,7 @@
       <c r="AF721" s="3"/>
       <c r="AG721" s="1"/>
     </row>
-    <row r="722" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -27356,7 +27380,7 @@
       <c r="AF722" s="3"/>
       <c r="AG722" s="1"/>
     </row>
-    <row r="723" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -27391,7 +27415,7 @@
       <c r="AF723" s="3"/>
       <c r="AG723" s="1"/>
     </row>
-    <row r="724" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -27426,7 +27450,7 @@
       <c r="AF724" s="3"/>
       <c r="AG724" s="1"/>
     </row>
-    <row r="725" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -27461,7 +27485,7 @@
       <c r="AF725" s="3"/>
       <c r="AG725" s="1"/>
     </row>
-    <row r="726" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -27496,7 +27520,7 @@
       <c r="AF726" s="3"/>
       <c r="AG726" s="1"/>
     </row>
-    <row r="727" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -27531,7 +27555,7 @@
       <c r="AF727" s="3"/>
       <c r="AG727" s="1"/>
     </row>
-    <row r="728" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -27566,7 +27590,7 @@
       <c r="AF728" s="3"/>
       <c r="AG728" s="1"/>
     </row>
-    <row r="729" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -27601,7 +27625,7 @@
       <c r="AF729" s="3"/>
       <c r="AG729" s="1"/>
     </row>
-    <row r="730" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -27636,7 +27660,7 @@
       <c r="AF730" s="3"/>
       <c r="AG730" s="1"/>
     </row>
-    <row r="731" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -27671,7 +27695,7 @@
       <c r="AF731" s="3"/>
       <c r="AG731" s="1"/>
     </row>
-    <row r="732" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -27706,7 +27730,7 @@
       <c r="AF732" s="3"/>
       <c r="AG732" s="1"/>
     </row>
-    <row r="733" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -27741,7 +27765,7 @@
       <c r="AF733" s="3"/>
       <c r="AG733" s="1"/>
     </row>
-    <row r="734" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -27776,7 +27800,7 @@
       <c r="AF734" s="3"/>
       <c r="AG734" s="1"/>
     </row>
-    <row r="735" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -27811,7 +27835,7 @@
       <c r="AF735" s="3"/>
       <c r="AG735" s="1"/>
     </row>
-    <row r="736" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -27846,7 +27870,7 @@
       <c r="AF736" s="3"/>
       <c r="AG736" s="1"/>
     </row>
-    <row r="737" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -27881,7 +27905,7 @@
       <c r="AF737" s="3"/>
       <c r="AG737" s="1"/>
     </row>
-    <row r="738" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -27916,7 +27940,7 @@
       <c r="AF738" s="3"/>
       <c r="AG738" s="1"/>
     </row>
-    <row r="739" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -27951,7 +27975,7 @@
       <c r="AF739" s="3"/>
       <c r="AG739" s="1"/>
     </row>
-    <row r="740" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -27986,7 +28010,7 @@
       <c r="AF740" s="3"/>
       <c r="AG740" s="1"/>
     </row>
-    <row r="741" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -28021,7 +28045,7 @@
       <c r="AF741" s="3"/>
       <c r="AG741" s="1"/>
     </row>
-    <row r="742" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -28056,7 +28080,7 @@
       <c r="AF742" s="3"/>
       <c r="AG742" s="1"/>
     </row>
-    <row r="743" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -28091,7 +28115,7 @@
       <c r="AF743" s="3"/>
       <c r="AG743" s="1"/>
     </row>
-    <row r="744" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -28126,7 +28150,7 @@
       <c r="AF744" s="3"/>
       <c r="AG744" s="1"/>
     </row>
-    <row r="745" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -28161,7 +28185,7 @@
       <c r="AF745" s="3"/>
       <c r="AG745" s="1"/>
     </row>
-    <row r="746" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -28196,7 +28220,7 @@
       <c r="AF746" s="3"/>
       <c r="AG746" s="1"/>
     </row>
-    <row r="747" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -28231,7 +28255,7 @@
       <c r="AF747" s="3"/>
       <c r="AG747" s="1"/>
     </row>
-    <row r="748" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -28266,7 +28290,7 @@
       <c r="AF748" s="3"/>
       <c r="AG748" s="1"/>
     </row>
-    <row r="749" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -28301,7 +28325,7 @@
       <c r="AF749" s="3"/>
       <c r="AG749" s="1"/>
     </row>
-    <row r="750" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -28336,7 +28360,7 @@
       <c r="AF750" s="3"/>
       <c r="AG750" s="1"/>
     </row>
-    <row r="751" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -28371,7 +28395,7 @@
       <c r="AF751" s="3"/>
       <c r="AG751" s="1"/>
     </row>
-    <row r="752" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -28406,7 +28430,7 @@
       <c r="AF752" s="3"/>
       <c r="AG752" s="1"/>
     </row>
-    <row r="753" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -28441,7 +28465,7 @@
       <c r="AF753" s="3"/>
       <c r="AG753" s="1"/>
     </row>
-    <row r="754" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -28476,7 +28500,7 @@
       <c r="AF754" s="3"/>
       <c r="AG754" s="1"/>
     </row>
-    <row r="755" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -28511,7 +28535,7 @@
       <c r="AF755" s="3"/>
       <c r="AG755" s="1"/>
     </row>
-    <row r="756" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -28546,7 +28570,7 @@
       <c r="AF756" s="3"/>
       <c r="AG756" s="1"/>
     </row>
-    <row r="757" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -28581,7 +28605,7 @@
       <c r="AF757" s="3"/>
       <c r="AG757" s="1"/>
     </row>
-    <row r="758" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -28616,7 +28640,7 @@
       <c r="AF758" s="3"/>
       <c r="AG758" s="1"/>
     </row>
-    <row r="759" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -28651,7 +28675,7 @@
       <c r="AF759" s="3"/>
       <c r="AG759" s="1"/>
     </row>
-    <row r="760" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -28686,7 +28710,7 @@
       <c r="AF760" s="3"/>
       <c r="AG760" s="1"/>
     </row>
-    <row r="761" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -28721,7 +28745,7 @@
       <c r="AF761" s="3"/>
       <c r="AG761" s="1"/>
     </row>
-    <row r="762" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -28756,7 +28780,7 @@
       <c r="AF762" s="3"/>
       <c r="AG762" s="1"/>
     </row>
-    <row r="763" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -28791,7 +28815,7 @@
       <c r="AF763" s="3"/>
       <c r="AG763" s="1"/>
     </row>
-    <row r="764" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -28826,7 +28850,7 @@
       <c r="AF764" s="3"/>
       <c r="AG764" s="1"/>
     </row>
-    <row r="765" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -28861,7 +28885,7 @@
       <c r="AF765" s="3"/>
       <c r="AG765" s="1"/>
     </row>
-    <row r="766" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -28896,7 +28920,7 @@
       <c r="AF766" s="3"/>
       <c r="AG766" s="1"/>
     </row>
-    <row r="767" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -28931,7 +28955,7 @@
       <c r="AF767" s="3"/>
       <c r="AG767" s="1"/>
     </row>
-    <row r="768" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -28966,7 +28990,7 @@
       <c r="AF768" s="3"/>
       <c r="AG768" s="1"/>
     </row>
-    <row r="769" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -29001,7 +29025,7 @@
       <c r="AF769" s="3"/>
       <c r="AG769" s="1"/>
     </row>
-    <row r="770" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -29036,7 +29060,7 @@
       <c r="AF770" s="3"/>
       <c r="AG770" s="1"/>
     </row>
-    <row r="771" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -29071,7 +29095,7 @@
       <c r="AF771" s="3"/>
       <c r="AG771" s="1"/>
     </row>
-    <row r="772" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -29106,7 +29130,7 @@
       <c r="AF772" s="3"/>
       <c r="AG772" s="1"/>
     </row>
-    <row r="773" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -29141,7 +29165,7 @@
       <c r="AF773" s="3"/>
       <c r="AG773" s="1"/>
     </row>
-    <row r="774" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -29176,7 +29200,7 @@
       <c r="AF774" s="3"/>
       <c r="AG774" s="1"/>
     </row>
-    <row r="775" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -29211,7 +29235,7 @@
       <c r="AF775" s="3"/>
       <c r="AG775" s="1"/>
     </row>
-    <row r="776" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -29246,7 +29270,7 @@
       <c r="AF776" s="3"/>
       <c r="AG776" s="1"/>
     </row>
-    <row r="777" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -29281,7 +29305,7 @@
       <c r="AF777" s="3"/>
       <c r="AG777" s="1"/>
     </row>
-    <row r="778" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -29316,7 +29340,7 @@
       <c r="AF778" s="3"/>
       <c r="AG778" s="1"/>
     </row>
-    <row r="779" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -29351,7 +29375,7 @@
       <c r="AF779" s="3"/>
       <c r="AG779" s="1"/>
     </row>
-    <row r="780" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -29386,7 +29410,7 @@
       <c r="AF780" s="3"/>
       <c r="AG780" s="1"/>
     </row>
-    <row r="781" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -29421,7 +29445,7 @@
       <c r="AF781" s="3"/>
       <c r="AG781" s="1"/>
     </row>
-    <row r="782" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -29456,7 +29480,7 @@
       <c r="AF782" s="3"/>
       <c r="AG782" s="1"/>
     </row>
-    <row r="783" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -29491,7 +29515,7 @@
       <c r="AF783" s="3"/>
       <c r="AG783" s="1"/>
     </row>
-    <row r="784" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -29526,7 +29550,7 @@
       <c r="AF784" s="3"/>
       <c r="AG784" s="1"/>
     </row>
-    <row r="785" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -29561,7 +29585,7 @@
       <c r="AF785" s="3"/>
       <c r="AG785" s="1"/>
     </row>
-    <row r="786" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -29596,7 +29620,7 @@
       <c r="AF786" s="3"/>
       <c r="AG786" s="1"/>
     </row>
-    <row r="787" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -29631,7 +29655,7 @@
       <c r="AF787" s="3"/>
       <c r="AG787" s="1"/>
     </row>
-    <row r="788" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -29666,7 +29690,7 @@
       <c r="AF788" s="3"/>
       <c r="AG788" s="1"/>
     </row>
-    <row r="789" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -29701,7 +29725,7 @@
       <c r="AF789" s="3"/>
       <c r="AG789" s="1"/>
     </row>
-    <row r="790" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -29736,7 +29760,7 @@
       <c r="AF790" s="3"/>
       <c r="AG790" s="1"/>
     </row>
-    <row r="791" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -29771,7 +29795,7 @@
       <c r="AF791" s="3"/>
       <c r="AG791" s="1"/>
     </row>
-    <row r="792" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -29806,7 +29830,7 @@
       <c r="AF792" s="3"/>
       <c r="AG792" s="1"/>
     </row>
-    <row r="793" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -29841,7 +29865,7 @@
       <c r="AF793" s="3"/>
       <c r="AG793" s="1"/>
     </row>
-    <row r="794" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -29876,7 +29900,7 @@
       <c r="AF794" s="3"/>
       <c r="AG794" s="1"/>
     </row>
-    <row r="795" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -29911,7 +29935,7 @@
       <c r="AF795" s="3"/>
       <c r="AG795" s="1"/>
     </row>
-    <row r="796" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -29946,7 +29970,7 @@
       <c r="AF796" s="3"/>
       <c r="AG796" s="1"/>
     </row>
-    <row r="797" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -29981,7 +30005,7 @@
       <c r="AF797" s="3"/>
       <c r="AG797" s="1"/>
     </row>
-    <row r="798" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -30016,7 +30040,7 @@
       <c r="AF798" s="3"/>
       <c r="AG798" s="1"/>
     </row>
-    <row r="799" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -30051,7 +30075,7 @@
       <c r="AF799" s="3"/>
       <c r="AG799" s="1"/>
     </row>
-    <row r="800" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -30086,7 +30110,7 @@
       <c r="AF800" s="3"/>
       <c r="AG800" s="1"/>
     </row>
-    <row r="801" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -30121,7 +30145,7 @@
       <c r="AF801" s="3"/>
       <c r="AG801" s="1"/>
     </row>
-    <row r="802" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -30156,7 +30180,7 @@
       <c r="AF802" s="3"/>
       <c r="AG802" s="1"/>
     </row>
-    <row r="803" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -30191,7 +30215,7 @@
       <c r="AF803" s="3"/>
       <c r="AG803" s="1"/>
     </row>
-    <row r="804" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -30226,7 +30250,7 @@
       <c r="AF804" s="3"/>
       <c r="AG804" s="1"/>
     </row>
-    <row r="805" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -30261,7 +30285,7 @@
       <c r="AF805" s="3"/>
       <c r="AG805" s="1"/>
     </row>
-    <row r="806" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -30296,7 +30320,7 @@
       <c r="AF806" s="3"/>
       <c r="AG806" s="1"/>
     </row>
-    <row r="807" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -30331,7 +30355,7 @@
       <c r="AF807" s="3"/>
       <c r="AG807" s="1"/>
     </row>
-    <row r="808" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -30366,7 +30390,7 @@
       <c r="AF808" s="3"/>
       <c r="AG808" s="1"/>
     </row>
-    <row r="809" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -30401,7 +30425,7 @@
       <c r="AF809" s="3"/>
       <c r="AG809" s="1"/>
     </row>
-    <row r="810" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -30436,7 +30460,7 @@
       <c r="AF810" s="3"/>
       <c r="AG810" s="1"/>
     </row>
-    <row r="811" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -30471,7 +30495,7 @@
       <c r="AF811" s="3"/>
       <c r="AG811" s="1"/>
     </row>
-    <row r="812" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -30506,7 +30530,7 @@
       <c r="AF812" s="3"/>
       <c r="AG812" s="1"/>
     </row>
-    <row r="813" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -30541,7 +30565,7 @@
       <c r="AF813" s="3"/>
       <c r="AG813" s="1"/>
     </row>
-    <row r="814" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -30576,7 +30600,7 @@
       <c r="AF814" s="3"/>
       <c r="AG814" s="1"/>
     </row>
-    <row r="815" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -30611,7 +30635,7 @@
       <c r="AF815" s="3"/>
       <c r="AG815" s="1"/>
     </row>
-    <row r="816" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -30646,7 +30670,7 @@
       <c r="AF816" s="3"/>
       <c r="AG816" s="1"/>
     </row>
-    <row r="817" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -30681,7 +30705,7 @@
       <c r="AF817" s="3"/>
       <c r="AG817" s="1"/>
     </row>
-    <row r="818" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -30716,7 +30740,7 @@
       <c r="AF818" s="3"/>
       <c r="AG818" s="1"/>
     </row>
-    <row r="819" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -30751,7 +30775,7 @@
       <c r="AF819" s="3"/>
       <c r="AG819" s="1"/>
     </row>
-    <row r="820" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -30786,7 +30810,7 @@
       <c r="AF820" s="3"/>
       <c r="AG820" s="1"/>
     </row>
-    <row r="821" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -30821,7 +30845,7 @@
       <c r="AF821" s="3"/>
       <c r="AG821" s="1"/>
     </row>
-    <row r="822" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -30856,7 +30880,7 @@
       <c r="AF822" s="3"/>
       <c r="AG822" s="1"/>
     </row>
-    <row r="823" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -30891,7 +30915,7 @@
       <c r="AF823" s="3"/>
       <c r="AG823" s="1"/>
     </row>
-    <row r="824" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -30926,7 +30950,7 @@
       <c r="AF824" s="3"/>
       <c r="AG824" s="1"/>
     </row>
-    <row r="825" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -30961,7 +30985,7 @@
       <c r="AF825" s="3"/>
       <c r="AG825" s="1"/>
     </row>
-    <row r="826" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -30996,7 +31020,7 @@
       <c r="AF826" s="3"/>
       <c r="AG826" s="1"/>
     </row>
-    <row r="827" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -31031,7 +31055,7 @@
       <c r="AF827" s="3"/>
       <c r="AG827" s="1"/>
     </row>
-    <row r="828" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -31066,7 +31090,7 @@
       <c r="AF828" s="3"/>
       <c r="AG828" s="1"/>
     </row>
-    <row r="829" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -31101,7 +31125,7 @@
       <c r="AF829" s="3"/>
       <c r="AG829" s="1"/>
     </row>
-    <row r="830" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -31136,7 +31160,7 @@
       <c r="AF830" s="3"/>
       <c r="AG830" s="1"/>
     </row>
-    <row r="831" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -31171,7 +31195,7 @@
       <c r="AF831" s="3"/>
       <c r="AG831" s="1"/>
     </row>
-    <row r="832" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -31206,7 +31230,7 @@
       <c r="AF832" s="3"/>
       <c r="AG832" s="1"/>
     </row>
-    <row r="833" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -31241,7 +31265,7 @@
       <c r="AF833" s="3"/>
       <c r="AG833" s="1"/>
     </row>
-    <row r="834" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -31276,7 +31300,7 @@
       <c r="AF834" s="3"/>
       <c r="AG834" s="1"/>
     </row>
-    <row r="835" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -31311,7 +31335,7 @@
       <c r="AF835" s="3"/>
       <c r="AG835" s="1"/>
     </row>
-    <row r="836" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -31346,7 +31370,7 @@
       <c r="AF836" s="3"/>
       <c r="AG836" s="1"/>
     </row>
-    <row r="837" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -31381,7 +31405,7 @@
       <c r="AF837" s="3"/>
       <c r="AG837" s="1"/>
     </row>
-    <row r="838" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -31416,7 +31440,7 @@
       <c r="AF838" s="3"/>
       <c r="AG838" s="1"/>
     </row>
-    <row r="839" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -31451,7 +31475,7 @@
       <c r="AF839" s="3"/>
       <c r="AG839" s="1"/>
     </row>
-    <row r="840" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -31486,7 +31510,7 @@
       <c r="AF840" s="3"/>
       <c r="AG840" s="1"/>
     </row>
-    <row r="841" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -31521,7 +31545,7 @@
       <c r="AF841" s="3"/>
       <c r="AG841" s="1"/>
     </row>
-    <row r="842" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -31556,7 +31580,7 @@
       <c r="AF842" s="3"/>
       <c r="AG842" s="1"/>
     </row>
-    <row r="843" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -31591,7 +31615,7 @@
       <c r="AF843" s="3"/>
       <c r="AG843" s="1"/>
     </row>
-    <row r="844" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -31626,7 +31650,7 @@
       <c r="AF844" s="3"/>
       <c r="AG844" s="1"/>
     </row>
-    <row r="845" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -31661,7 +31685,7 @@
       <c r="AF845" s="3"/>
       <c r="AG845" s="1"/>
     </row>
-    <row r="846" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -31696,7 +31720,7 @@
       <c r="AF846" s="3"/>
       <c r="AG846" s="1"/>
     </row>
-    <row r="847" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -31731,7 +31755,7 @@
       <c r="AF847" s="3"/>
       <c r="AG847" s="1"/>
     </row>
-    <row r="848" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -31766,7 +31790,7 @@
       <c r="AF848" s="3"/>
       <c r="AG848" s="1"/>
     </row>
-    <row r="849" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -31801,7 +31825,7 @@
       <c r="AF849" s="3"/>
       <c r="AG849" s="1"/>
     </row>
-    <row r="850" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -31836,7 +31860,7 @@
       <c r="AF850" s="3"/>
       <c r="AG850" s="1"/>
     </row>
-    <row r="851" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -31871,7 +31895,7 @@
       <c r="AF851" s="3"/>
       <c r="AG851" s="1"/>
     </row>
-    <row r="852" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -31906,7 +31930,7 @@
       <c r="AF852" s="3"/>
       <c r="AG852" s="1"/>
     </row>
-    <row r="853" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -31941,7 +31965,7 @@
       <c r="AF853" s="3"/>
       <c r="AG853" s="1"/>
     </row>
-    <row r="854" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -31976,7 +32000,7 @@
       <c r="AF854" s="3"/>
       <c r="AG854" s="1"/>
     </row>
-    <row r="855" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -32011,7 +32035,7 @@
       <c r="AF855" s="3"/>
       <c r="AG855" s="1"/>
     </row>
-    <row r="856" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -32046,7 +32070,7 @@
       <c r="AF856" s="3"/>
       <c r="AG856" s="1"/>
     </row>
-    <row r="857" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -32081,7 +32105,7 @@
       <c r="AF857" s="3"/>
       <c r="AG857" s="1"/>
     </row>
-    <row r="858" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -32116,7 +32140,7 @@
       <c r="AF858" s="3"/>
       <c r="AG858" s="1"/>
     </row>
-    <row r="859" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -32151,7 +32175,7 @@
       <c r="AF859" s="3"/>
       <c r="AG859" s="1"/>
     </row>
-    <row r="860" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -32186,7 +32210,7 @@
       <c r="AF860" s="3"/>
       <c r="AG860" s="1"/>
     </row>
-    <row r="861" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -32221,7 +32245,7 @@
       <c r="AF861" s="3"/>
       <c r="AG861" s="1"/>
     </row>
-    <row r="862" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -32256,7 +32280,7 @@
       <c r="AF862" s="3"/>
       <c r="AG862" s="1"/>
     </row>
-    <row r="863" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -32291,7 +32315,7 @@
       <c r="AF863" s="3"/>
       <c r="AG863" s="1"/>
     </row>
-    <row r="864" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -32326,7 +32350,7 @@
       <c r="AF864" s="3"/>
       <c r="AG864" s="1"/>
     </row>
-    <row r="865" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -32361,7 +32385,7 @@
       <c r="AF865" s="3"/>
       <c r="AG865" s="1"/>
     </row>
-    <row r="866" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -32396,7 +32420,7 @@
       <c r="AF866" s="3"/>
       <c r="AG866" s="1"/>
     </row>
-    <row r="867" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -32431,7 +32455,7 @@
       <c r="AF867" s="3"/>
       <c r="AG867" s="1"/>
     </row>
-    <row r="868" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -32466,7 +32490,7 @@
       <c r="AF868" s="3"/>
       <c r="AG868" s="1"/>
     </row>
-    <row r="869" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -32501,7 +32525,7 @@
       <c r="AF869" s="3"/>
       <c r="AG869" s="1"/>
     </row>
-    <row r="870" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -32536,7 +32560,7 @@
       <c r="AF870" s="3"/>
       <c r="AG870" s="1"/>
     </row>
-    <row r="871" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -32571,7 +32595,7 @@
       <c r="AF871" s="3"/>
       <c r="AG871" s="1"/>
     </row>
-    <row r="872" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -32606,7 +32630,7 @@
       <c r="AF872" s="3"/>
       <c r="AG872" s="1"/>
     </row>
-    <row r="873" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -32641,7 +32665,7 @@
       <c r="AF873" s="3"/>
       <c r="AG873" s="1"/>
     </row>
-    <row r="874" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -32676,7 +32700,7 @@
       <c r="AF874" s="3"/>
       <c r="AG874" s="1"/>
     </row>
-    <row r="875" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -32711,7 +32735,7 @@
       <c r="AF875" s="3"/>
       <c r="AG875" s="1"/>
     </row>
-    <row r="876" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -32746,7 +32770,7 @@
       <c r="AF876" s="3"/>
       <c r="AG876" s="1"/>
     </row>
-    <row r="877" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -32781,7 +32805,7 @@
       <c r="AF877" s="3"/>
       <c r="AG877" s="1"/>
     </row>
-    <row r="878" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -32816,7 +32840,7 @@
       <c r="AF878" s="3"/>
       <c r="AG878" s="1"/>
     </row>
-    <row r="879" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -32851,7 +32875,7 @@
       <c r="AF879" s="3"/>
       <c r="AG879" s="1"/>
     </row>
-    <row r="880" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -32886,7 +32910,7 @@
       <c r="AF880" s="3"/>
       <c r="AG880" s="1"/>
     </row>
-    <row r="881" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -32921,7 +32945,7 @@
       <c r="AF881" s="3"/>
       <c r="AG881" s="1"/>
     </row>
-    <row r="882" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -32956,7 +32980,7 @@
       <c r="AF882" s="3"/>
       <c r="AG882" s="1"/>
     </row>
-    <row r="883" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -32991,7 +33015,7 @@
       <c r="AF883" s="3"/>
       <c r="AG883" s="1"/>
     </row>
-    <row r="884" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -33026,7 +33050,7 @@
       <c r="AF884" s="3"/>
       <c r="AG884" s="1"/>
     </row>
-    <row r="885" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -33061,7 +33085,7 @@
       <c r="AF885" s="3"/>
       <c r="AG885" s="1"/>
     </row>
-    <row r="886" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -33096,7 +33120,7 @@
       <c r="AF886" s="3"/>
       <c r="AG886" s="1"/>
     </row>
-    <row r="887" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -33131,7 +33155,7 @@
       <c r="AF887" s="3"/>
       <c r="AG887" s="1"/>
     </row>
-    <row r="888" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -33166,7 +33190,7 @@
       <c r="AF888" s="3"/>
       <c r="AG888" s="1"/>
     </row>
-    <row r="889" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -33201,7 +33225,7 @@
       <c r="AF889" s="3"/>
       <c r="AG889" s="1"/>
     </row>
-    <row r="890" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -33236,7 +33260,7 @@
       <c r="AF890" s="3"/>
       <c r="AG890" s="1"/>
     </row>
-    <row r="891" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -33271,7 +33295,7 @@
       <c r="AF891" s="3"/>
       <c r="AG891" s="1"/>
     </row>
-    <row r="892" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -33306,7 +33330,7 @@
       <c r="AF892" s="3"/>
       <c r="AG892" s="1"/>
     </row>
-    <row r="893" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -33341,7 +33365,7 @@
       <c r="AF893" s="3"/>
       <c r="AG893" s="1"/>
     </row>
-    <row r="894" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -33376,7 +33400,7 @@
       <c r="AF894" s="3"/>
       <c r="AG894" s="1"/>
     </row>
-    <row r="895" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -33411,7 +33435,7 @@
       <c r="AF895" s="3"/>
       <c r="AG895" s="1"/>
     </row>
-    <row r="896" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -33446,7 +33470,7 @@
       <c r="AF896" s="3"/>
       <c r="AG896" s="1"/>
     </row>
-    <row r="897" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -33481,7 +33505,7 @@
       <c r="AF897" s="3"/>
       <c r="AG897" s="1"/>
     </row>
-    <row r="898" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -33516,7 +33540,7 @@
       <c r="AF898" s="3"/>
       <c r="AG898" s="1"/>
     </row>
-    <row r="899" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -33551,7 +33575,7 @@
       <c r="AF899" s="3"/>
       <c r="AG899" s="1"/>
     </row>
-    <row r="900" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -33586,7 +33610,7 @@
       <c r="AF900" s="3"/>
       <c r="AG900" s="1"/>
     </row>
-    <row r="901" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -33621,7 +33645,7 @@
       <c r="AF901" s="3"/>
       <c r="AG901" s="1"/>
     </row>
-    <row r="902" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -33656,7 +33680,7 @@
       <c r="AF902" s="3"/>
       <c r="AG902" s="1"/>
     </row>
-    <row r="903" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -33691,7 +33715,7 @@
       <c r="AF903" s="3"/>
       <c r="AG903" s="1"/>
     </row>
-    <row r="904" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -33726,7 +33750,7 @@
       <c r="AF904" s="3"/>
       <c r="AG904" s="1"/>
     </row>
-    <row r="905" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -33761,7 +33785,7 @@
       <c r="AF905" s="3"/>
       <c r="AG905" s="1"/>
     </row>
-    <row r="906" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -33796,7 +33820,7 @@
       <c r="AF906" s="3"/>
       <c r="AG906" s="1"/>
     </row>
-    <row r="907" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -33831,7 +33855,7 @@
       <c r="AF907" s="3"/>
       <c r="AG907" s="1"/>
     </row>
-    <row r="908" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -33866,7 +33890,7 @@
       <c r="AF908" s="3"/>
       <c r="AG908" s="1"/>
     </row>
-    <row r="909" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -33901,7 +33925,7 @@
       <c r="AF909" s="3"/>
       <c r="AG909" s="1"/>
     </row>
-    <row r="910" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -33936,7 +33960,7 @@
       <c r="AF910" s="3"/>
       <c r="AG910" s="1"/>
     </row>
-    <row r="911" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -33971,7 +33995,7 @@
       <c r="AF911" s="3"/>
       <c r="AG911" s="1"/>
     </row>
-    <row r="912" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -34006,7 +34030,7 @@
       <c r="AF912" s="3"/>
       <c r="AG912" s="1"/>
     </row>
-    <row r="913" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -34041,7 +34065,7 @@
       <c r="AF913" s="3"/>
       <c r="AG913" s="1"/>
     </row>
-    <row r="914" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -34076,7 +34100,7 @@
       <c r="AF914" s="3"/>
       <c r="AG914" s="1"/>
     </row>
-    <row r="915" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -34111,7 +34135,7 @@
       <c r="AF915" s="3"/>
       <c r="AG915" s="1"/>
     </row>
-    <row r="916" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -34146,7 +34170,7 @@
       <c r="AF916" s="3"/>
       <c r="AG916" s="1"/>
     </row>
-    <row r="917" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -34181,7 +34205,7 @@
       <c r="AF917" s="3"/>
       <c r="AG917" s="1"/>
     </row>
-    <row r="918" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -34216,7 +34240,7 @@
       <c r="AF918" s="3"/>
       <c r="AG918" s="1"/>
     </row>
-    <row r="919" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -34251,7 +34275,7 @@
       <c r="AF919" s="3"/>
       <c r="AG919" s="1"/>
     </row>
-    <row r="920" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -34286,7 +34310,7 @@
       <c r="AF920" s="3"/>
       <c r="AG920" s="1"/>
     </row>
-    <row r="921" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -34321,7 +34345,7 @@
       <c r="AF921" s="3"/>
       <c r="AG921" s="1"/>
     </row>
-    <row r="922" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -34356,7 +34380,7 @@
       <c r="AF922" s="3"/>
       <c r="AG922" s="1"/>
     </row>
-    <row r="923" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -34391,7 +34415,7 @@
       <c r="AF923" s="3"/>
       <c r="AG923" s="1"/>
     </row>
-    <row r="924" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -34426,7 +34450,7 @@
       <c r="AF924" s="3"/>
       <c r="AG924" s="1"/>
     </row>
-    <row r="925" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -34461,7 +34485,7 @@
       <c r="AF925" s="3"/>
       <c r="AG925" s="1"/>
     </row>
-    <row r="926" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -34496,7 +34520,7 @@
       <c r="AF926" s="3"/>
       <c r="AG926" s="1"/>
     </row>
-    <row r="927" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -34531,7 +34555,7 @@
       <c r="AF927" s="3"/>
       <c r="AG927" s="1"/>
     </row>
-    <row r="928" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -34566,7 +34590,7 @@
       <c r="AF928" s="3"/>
       <c r="AG928" s="1"/>
     </row>
-    <row r="929" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -34601,7 +34625,7 @@
       <c r="AF929" s="3"/>
       <c r="AG929" s="1"/>
     </row>
-    <row r="930" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -34636,7 +34660,7 @@
       <c r="AF930" s="3"/>
       <c r="AG930" s="1"/>
     </row>
-    <row r="931" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -34671,7 +34695,7 @@
       <c r="AF931" s="3"/>
       <c r="AG931" s="1"/>
     </row>
-    <row r="932" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -34706,7 +34730,7 @@
       <c r="AF932" s="3"/>
       <c r="AG932" s="1"/>
     </row>
-    <row r="933" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -34741,7 +34765,7 @@
       <c r="AF933" s="3"/>
       <c r="AG933" s="1"/>
     </row>
-    <row r="934" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -34776,7 +34800,7 @@
       <c r="AF934" s="3"/>
       <c r="AG934" s="1"/>
     </row>
-    <row r="935" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -34811,7 +34835,7 @@
       <c r="AF935" s="3"/>
       <c r="AG935" s="1"/>
     </row>
-    <row r="936" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -34846,7 +34870,7 @@
       <c r="AF936" s="3"/>
       <c r="AG936" s="1"/>
     </row>
-    <row r="937" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -34881,7 +34905,7 @@
       <c r="AF937" s="3"/>
       <c r="AG937" s="1"/>
     </row>
-    <row r="938" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -34916,7 +34940,7 @@
       <c r="AF938" s="3"/>
       <c r="AG938" s="1"/>
     </row>
-    <row r="939" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -34951,7 +34975,7 @@
       <c r="AF939" s="3"/>
       <c r="AG939" s="1"/>
     </row>
-    <row r="940" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -34986,7 +35010,7 @@
       <c r="AF940" s="3"/>
       <c r="AG940" s="1"/>
     </row>
-    <row r="941" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -35021,7 +35045,7 @@
       <c r="AF941" s="3"/>
       <c r="AG941" s="1"/>
     </row>
-    <row r="942" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -35056,7 +35080,7 @@
       <c r="AF942" s="3"/>
       <c r="AG942" s="1"/>
     </row>
-    <row r="943" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -35091,7 +35115,7 @@
       <c r="AF943" s="3"/>
       <c r="AG943" s="1"/>
     </row>
-    <row r="944" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -35126,7 +35150,7 @@
       <c r="AF944" s="3"/>
       <c r="AG944" s="1"/>
     </row>
-    <row r="945" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -35161,7 +35185,7 @@
       <c r="AF945" s="3"/>
       <c r="AG945" s="1"/>
     </row>
-    <row r="946" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -35196,7 +35220,7 @@
       <c r="AF946" s="3"/>
       <c r="AG946" s="1"/>
     </row>
-    <row r="947" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -35231,7 +35255,7 @@
       <c r="AF947" s="3"/>
       <c r="AG947" s="1"/>
     </row>
-    <row r="948" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -35266,7 +35290,7 @@
       <c r="AF948" s="3"/>
       <c r="AG948" s="1"/>
     </row>
-    <row r="949" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -35301,7 +35325,7 @@
       <c r="AF949" s="3"/>
       <c r="AG949" s="1"/>
     </row>
-    <row r="950" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -35336,7 +35360,7 @@
       <c r="AF950" s="3"/>
       <c r="AG950" s="1"/>
     </row>
-    <row r="951" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -35371,7 +35395,7 @@
       <c r="AF951" s="3"/>
       <c r="AG951" s="1"/>
     </row>
-    <row r="952" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -35406,7 +35430,7 @@
       <c r="AF952" s="3"/>
       <c r="AG952" s="1"/>
     </row>
-    <row r="953" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -35441,7 +35465,7 @@
       <c r="AF953" s="3"/>
       <c r="AG953" s="1"/>
     </row>
-    <row r="954" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -35476,7 +35500,7 @@
       <c r="AF954" s="3"/>
       <c r="AG954" s="1"/>
     </row>
-    <row r="955" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -35511,7 +35535,7 @@
       <c r="AF955" s="3"/>
       <c r="AG955" s="1"/>
     </row>
-    <row r="956" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -35546,7 +35570,7 @@
       <c r="AF956" s="3"/>
       <c r="AG956" s="1"/>
     </row>
-    <row r="957" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -35581,7 +35605,7 @@
       <c r="AF957" s="3"/>
       <c r="AG957" s="1"/>
     </row>
-    <row r="958" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -35616,7 +35640,7 @@
       <c r="AF958" s="3"/>
       <c r="AG958" s="1"/>
     </row>
-    <row r="959" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -35651,7 +35675,7 @@
       <c r="AF959" s="3"/>
       <c r="AG959" s="1"/>
     </row>
-    <row r="960" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -35686,7 +35710,7 @@
       <c r="AF960" s="3"/>
       <c r="AG960" s="1"/>
     </row>
-    <row r="961" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -35721,7 +35745,7 @@
       <c r="AF961" s="3"/>
       <c r="AG961" s="1"/>
     </row>
-    <row r="962" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -35756,7 +35780,7 @@
       <c r="AF962" s="3"/>
       <c r="AG962" s="1"/>
     </row>
-    <row r="963" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -35791,7 +35815,7 @@
       <c r="AF963" s="3"/>
       <c r="AG963" s="1"/>
     </row>
-    <row r="964" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -35826,7 +35850,7 @@
       <c r="AF964" s="3"/>
       <c r="AG964" s="1"/>
     </row>
-    <row r="965" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -35861,7 +35885,7 @@
       <c r="AF965" s="3"/>
       <c r="AG965" s="1"/>
     </row>
-    <row r="966" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -35896,7 +35920,7 @@
       <c r="AF966" s="3"/>
       <c r="AG966" s="1"/>
     </row>
-    <row r="967" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -35931,7 +35955,7 @@
       <c r="AF967" s="3"/>
       <c r="AG967" s="1"/>
     </row>
-    <row r="968" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -35966,7 +35990,7 @@
       <c r="AF968" s="3"/>
       <c r="AG968" s="1"/>
     </row>
-    <row r="969" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -36001,7 +36025,7 @@
       <c r="AF969" s="3"/>
       <c r="AG969" s="1"/>
     </row>
-    <row r="970" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -36036,7 +36060,7 @@
       <c r="AF970" s="3"/>
       <c r="AG970" s="1"/>
     </row>
-    <row r="971" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -36071,7 +36095,7 @@
       <c r="AF971" s="3"/>
       <c r="AG971" s="1"/>
     </row>
-    <row r="972" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -36106,7 +36130,7 @@
       <c r="AF972" s="3"/>
       <c r="AG972" s="1"/>
     </row>
-    <row r="973" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -36141,7 +36165,7 @@
       <c r="AF973" s="3"/>
       <c r="AG973" s="1"/>
     </row>
-    <row r="974" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -36176,7 +36200,7 @@
       <c r="AF974" s="3"/>
       <c r="AG974" s="1"/>
     </row>
-    <row r="975" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -36211,7 +36235,7 @@
       <c r="AF975" s="3"/>
       <c r="AG975" s="1"/>
     </row>
-    <row r="976" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -36246,7 +36270,7 @@
       <c r="AF976" s="3"/>
       <c r="AG976" s="1"/>
     </row>
-    <row r="977" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -36281,7 +36305,7 @@
       <c r="AF977" s="3"/>
       <c r="AG977" s="1"/>
     </row>
-    <row r="978" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -36316,7 +36340,7 @@
       <c r="AF978" s="3"/>
       <c r="AG978" s="1"/>
     </row>
-    <row r="979" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -36351,7 +36375,7 @@
       <c r="AF979" s="3"/>
       <c r="AG979" s="1"/>
     </row>
-    <row r="980" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -36386,7 +36410,7 @@
       <c r="AF980" s="3"/>
       <c r="AG980" s="1"/>
     </row>
-    <row r="981" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -36421,7 +36445,7 @@
       <c r="AF981" s="3"/>
       <c r="AG981" s="1"/>
     </row>
-    <row r="982" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -36456,7 +36480,7 @@
       <c r="AF982" s="3"/>
       <c r="AG982" s="1"/>
     </row>
-    <row r="983" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -36491,7 +36515,7 @@
       <c r="AF983" s="3"/>
       <c r="AG983" s="1"/>
     </row>
-    <row r="984" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -36526,7 +36550,7 @@
       <c r="AF984" s="3"/>
       <c r="AG984" s="1"/>
     </row>
-    <row r="985" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -36561,7 +36585,7 @@
       <c r="AF985" s="3"/>
       <c r="AG985" s="1"/>
     </row>
-    <row r="986" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -36596,7 +36620,7 @@
       <c r="AF986" s="3"/>
       <c r="AG986" s="1"/>
     </row>
-    <row r="987" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -36631,7 +36655,7 @@
       <c r="AF987" s="3"/>
       <c r="AG987" s="1"/>
     </row>
-    <row r="988" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -36666,7 +36690,7 @@
       <c r="AF988" s="3"/>
       <c r="AG988" s="1"/>
     </row>
-    <row r="989" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -36701,7 +36725,7 @@
       <c r="AF989" s="3"/>
       <c r="AG989" s="1"/>
     </row>
-    <row r="990" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -36736,7 +36760,7 @@
       <c r="AF990" s="3"/>
       <c r="AG990" s="1"/>
     </row>
-    <row r="991" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -36771,7 +36795,7 @@
       <c r="AF991" s="3"/>
       <c r="AG991" s="1"/>
     </row>
-    <row r="992" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -36806,7 +36830,7 @@
       <c r="AF992" s="3"/>
       <c r="AG992" s="1"/>
     </row>
-    <row r="993" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -36841,7 +36865,7 @@
       <c r="AF993" s="3"/>
       <c r="AG993" s="1"/>
     </row>
-    <row r="994" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -36876,7 +36900,7 @@
       <c r="AF994" s="3"/>
       <c r="AG994" s="1"/>
     </row>
-    <row r="995" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -36911,7 +36935,7 @@
       <c r="AF995" s="3"/>
       <c r="AG995" s="1"/>
     </row>
-    <row r="996" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>

--- a/effort_committment.xlsx
+++ b/effort_committment.xlsx
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -179,11 +179,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -300,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,14 +317,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1020,7 @@
   <dimension ref="A1:AG996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="L24" sqref="L24:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1740,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="10">
         <f>SUM(E31:L33)</f>
-        <v>489.2</v>
+        <v>454.20000000000005</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1791,7 +1785,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="12">
         <f>SUM(I31:L33)</f>
-        <v>277.10000000000002</v>
+        <v>242.10000000000002</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>30</v>
@@ -2235,13 +2229,13 @@
         <v>17</v>
       </c>
       <c r="J24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="M24" s="19" t="s">
         <v>21</v>
@@ -2289,7 +2283,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="3">
         <f t="shared" ref="AC24:AC29" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
-        <v>10.175000000000001</v>
+        <v>15.262500000000001</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ref="AD24:AD29" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
@@ -2297,11 +2291,11 @@
       </c>
       <c r="AE24" s="3">
         <f t="shared" ref="AE24:AE29" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
-        <v>256.48750000000001</v>
+        <v>241.4</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" ref="AF24:AF29" si="5">SUM(AC24:AE24)</f>
-        <v>296.92500000000001</v>
+        <v>286.92500000000001</v>
       </c>
       <c r="AG24" s="1"/>
     </row>
@@ -2328,13 +2322,13 @@
         <v>17</v>
       </c>
       <c r="J25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="M25" s="19" t="s">
         <v>21</v>
@@ -2382,7 +2376,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>15.262500000000001</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" si="3"/>
@@ -2390,11 +2384,11 @@
       </c>
       <c r="AE25" s="3">
         <f t="shared" si="4"/>
-        <v>256.48750000000001</v>
+        <v>241.4</v>
       </c>
       <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>296.92500000000001</v>
+        <v>286.92500000000001</v>
       </c>
       <c r="AG25" s="1"/>
     </row>
@@ -2420,14 +2414,14 @@
       <c r="I26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="M26" s="19" t="s">
         <v>21</v>
@@ -2475,7 +2469,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>15.262500000000001</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="3"/>
@@ -2483,11 +2477,11 @@
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="4"/>
-        <v>256.48750000000001</v>
+        <v>241.4</v>
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>296.92500000000001</v>
+        <v>286.92500000000001</v>
       </c>
       <c r="AG26" s="1"/>
     </row>
@@ -2513,13 +2507,13 @@
       <c r="I27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="20" t="s">
+      <c r="J27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="19" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="20" t="s">
@@ -2568,15 +2562,15 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>15.262500000000001</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>191.66249999999999</v>
+        <v>171.48750000000001</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
-        <v>15.0875</v>
+        <v>30.175000000000001</v>
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
@@ -2608,13 +2602,13 @@
       <c r="I28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="20" t="s">
+      <c r="J28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="20" t="s">
@@ -2663,15 +2657,15 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>15.262500000000001</v>
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
-        <v>191.66249999999999</v>
+        <v>171.48750000000001</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="4"/>
-        <v>15.0875</v>
+        <v>30.175000000000001</v>
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
@@ -2701,13 +2695,13 @@
       <c r="I29" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="20" t="s">
+      <c r="J29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="K29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="19" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="20" t="s">
@@ -2756,11 +2750,11 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="3">
         <f t="shared" si="2"/>
-        <v>10.175000000000001</v>
+        <v>15.262500000000001</v>
       </c>
       <c r="AD29" s="3">
         <f t="shared" si="3"/>
-        <v>151.3125</v>
+        <v>141.22499999999999</v>
       </c>
       <c r="AE29" s="3">
         <f t="shared" si="4"/>
@@ -2768,7 +2762,7 @@
       </c>
       <c r="AF29" s="3">
         <f t="shared" si="5"/>
-        <v>236.92500000000001</v>
+        <v>231.92499999999998</v>
       </c>
       <c r="AG29" s="1"/>
     </row>
@@ -2843,7 +2837,7 @@
       </c>
       <c r="K31" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30.525000000000002</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="7"/>
@@ -2943,15 +2937,15 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="8"/>
-        <v>60.525000000000006</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="8"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="8"/>
-        <v>30.262500000000003</v>
+        <v>60.525000000000006</v>
       </c>
       <c r="M32" s="3">
         <f t="shared" si="8"/>
@@ -3015,19 +3009,19 @@
       </c>
       <c r="AC32" s="17">
         <f t="shared" ref="AC32:AF32" si="9">SUM(AC24:AC30)</f>
-        <v>61.05</v>
+        <v>91.575000000000003</v>
       </c>
       <c r="AD32" s="17">
         <f t="shared" si="9"/>
-        <v>625.42499999999995</v>
+        <v>574.98750000000007</v>
       </c>
       <c r="AE32" s="17">
         <f t="shared" si="9"/>
-        <v>875.07500000000005</v>
+        <v>859.98749999999995</v>
       </c>
       <c r="AF32" s="17">
         <f t="shared" si="9"/>
-        <v>1561.55</v>
+        <v>1526.55</v>
       </c>
       <c r="AG32" s="17" t="s">
         <v>4</v>
@@ -3063,15 +3057,15 @@
       </c>
       <c r="J33" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90.525000000000006</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="10"/>
-        <v>60.35</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="10"/>
-        <v>45.262500000000003</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="10"/>
@@ -3308,15 +3302,15 @@
       </c>
       <c r="J38" s="3">
         <f t="shared" si="11"/>
-        <v>60.525000000000006</v>
+        <v>90.525000000000006</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="11"/>
-        <v>80.525000000000006</v>
+        <v>30.525000000000002</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="11"/>
-        <v>75.525000000000006</v>
+        <v>60.525000000000006</v>
       </c>
       <c r="M38" s="3">
         <f t="shared" si="11"/>
@@ -3382,7 +3376,7 @@
       <c r="AD38" s="17"/>
       <c r="AE38" s="17">
         <f>SUM(E38:Z38)</f>
-        <v>1561.5500000000004</v>
+        <v>1526.5500000000004</v>
       </c>
       <c r="AF38" s="17"/>
       <c r="AG38" s="17" t="s">
@@ -3411,12 +3405,12 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3">
         <f>SUM(I38:J38)</f>
-        <v>121.05000000000001</v>
+        <v>151.05000000000001</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3">
         <f>SUM(K38:L38)</f>
-        <v>156.05000000000001</v>
+        <v>91.050000000000011</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3">
@@ -3461,7 +3455,7 @@
       <c r="AD39" s="17"/>
       <c r="AE39" s="17">
         <f>SUM(D39:Z39)</f>
-        <v>1561.5499999999997</v>
+        <v>1526.5499999999997</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="17" t="s">
@@ -3575,14 +3569,14 @@
     </row>
     <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="3"/>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <f>AE39</f>
-        <v>1561.5499999999997</v>
-      </c>
-      <c r="D43" s="24" t="s">
+        <v>1526.5499999999997</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="3"/>

--- a/effort_committment.xlsx
+++ b/effort_committment.xlsx
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:L29"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1800,7 +1800,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="14">
         <f>SUM(M31:V33)</f>
-        <v>770.25000000000023</v>
+        <v>790.25000000000034</v>
       </c>
       <c r="W18" s="15" t="s">
         <v>31</v>
@@ -2516,11 +2516,11 @@
       <c r="L27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>17</v>
+      <c r="M27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="O27" s="20" t="s">
         <v>17</v>
@@ -2566,15 +2566,15 @@
       </c>
       <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>171.48750000000001</v>
+        <v>151.3125</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" si="4"/>
-        <v>30.175000000000001</v>
+        <v>60.35</v>
       </c>
       <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>216.92500000000001</v>
+        <v>226.92499999999998</v>
       </c>
       <c r="AG27" s="1"/>
     </row>
@@ -2611,11 +2611,11 @@
       <c r="L28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>17</v>
+      <c r="M28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="O28" s="20" t="s">
         <v>17</v>
@@ -2661,15 +2661,15 @@
       </c>
       <c r="AD28" s="3">
         <f t="shared" si="3"/>
-        <v>171.48750000000001</v>
+        <v>151.3125</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" si="4"/>
-        <v>30.175000000000001</v>
+        <v>60.35</v>
       </c>
       <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>216.92500000000001</v>
+        <v>226.92499999999998</v>
       </c>
       <c r="AG28" s="1"/>
     </row>
@@ -2704,10 +2704,10 @@
       <c r="L29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="19" t="s">
         <v>21</v>
       </c>
       <c r="O29" s="20" t="s">
@@ -2949,11 +2949,11 @@
       </c>
       <c r="M32" s="3">
         <f t="shared" si="8"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="8"/>
-        <v>20.175000000000001</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="8"/>
@@ -3013,15 +3013,15 @@
       </c>
       <c r="AD32" s="17">
         <f t="shared" si="9"/>
-        <v>574.98750000000007</v>
+        <v>534.63750000000005</v>
       </c>
       <c r="AE32" s="17">
         <f t="shared" si="9"/>
-        <v>859.98749999999995</v>
+        <v>920.33750000000009</v>
       </c>
       <c r="AF32" s="17">
         <f t="shared" si="9"/>
-        <v>1526.55</v>
+        <v>1546.55</v>
       </c>
       <c r="AG32" s="17" t="s">
         <v>4</v>
@@ -3069,11 +3069,11 @@
       </c>
       <c r="M33" s="3">
         <f t="shared" si="10"/>
-        <v>60.35</v>
+        <v>90.525000000000006</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="10"/>
-        <v>60.35</v>
+        <v>90.525000000000006</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="10"/>
@@ -3314,11 +3314,11 @@
       </c>
       <c r="M38" s="3">
         <f t="shared" si="11"/>
-        <v>80.525000000000006</v>
+        <v>90.525000000000006</v>
       </c>
       <c r="N38" s="3">
         <f t="shared" si="11"/>
-        <v>80.525000000000006</v>
+        <v>90.525000000000006</v>
       </c>
       <c r="O38" s="3">
         <f t="shared" si="11"/>
@@ -3376,7 +3376,7 @@
       <c r="AD38" s="17"/>
       <c r="AE38" s="17">
         <f>SUM(E38:Z38)</f>
-        <v>1526.5500000000004</v>
+        <v>1546.5500000000004</v>
       </c>
       <c r="AF38" s="17"/>
       <c r="AG38" s="17" t="s">
@@ -3415,7 +3415,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3">
         <f>SUM(M38:N38)</f>
-        <v>161.05000000000001</v>
+        <v>181.05</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3">
@@ -3455,7 +3455,7 @@
       <c r="AD39" s="17"/>
       <c r="AE39" s="17">
         <f>SUM(D39:Z39)</f>
-        <v>1526.5499999999997</v>
+        <v>1546.5499999999997</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="17" t="s">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C43" s="22">
         <f>AE39</f>
-        <v>1526.5499999999997</v>
+        <v>1546.5499999999997</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>47</v>
